--- a/Data Collections/Data Collection Sim 0.xlsx
+++ b/Data Collections/Data Collection Sim 0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umeer\Desktop\University\TrustChain-Simulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umeer\Desktop\University\TrustChain-Simulator\Data Collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B06EF97-E21E-4DFA-8B25-7C716AB27DFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CEAE53-E0A2-4D1E-A631-5F58A5FB2A77}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -349,8 +349,8 @@
     <numFmt numFmtId="164" formatCode="#,##0.000000000000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000000000000"/>
     <numFmt numFmtId="166" formatCode="0.000000000000"/>
-    <numFmt numFmtId="183" formatCode="0.00000000000"/>
-    <numFmt numFmtId="184" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -664,6 +664,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="13" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="13" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="13"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -673,26 +683,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="13" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="13" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="13"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="60% - Accent1" xfId="10" builtinId="32"/>
@@ -18722,7 +18722,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4">
@@ -18766,7 +18766,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -18808,7 +18808,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -18854,7 +18854,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -18897,7 +18897,7 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -18943,7 +18943,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="4">
         <v>6</v>
       </c>
@@ -18989,7 +18989,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="4">
         <v>7</v>
       </c>
@@ -19035,7 +19035,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="40" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="5">
@@ -19083,7 +19083,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="5">
         <v>2</v>
       </c>
@@ -19129,7 +19129,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="5">
         <v>3</v>
       </c>
@@ -19175,7 +19175,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="5">
         <v>4</v>
       </c>
@@ -19219,7 +19219,7 @@
       <c r="T12" s="23"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="40" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="6">
@@ -19264,7 +19264,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="6">
         <v>2</v>
       </c>
@@ -19307,7 +19307,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="6">
         <v>3</v>
       </c>
@@ -19350,7 +19350,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="6">
         <v>4</v>
       </c>
@@ -19393,7 +19393,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="6">
         <v>5</v>
       </c>
@@ -19436,7 +19436,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="6">
         <v>6</v>
       </c>
@@ -19524,20 +19524,20 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="30">
         <v>1</v>
       </c>
       <c r="C20" s="29">
         <v>500</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="31">
         <f t="shared" si="1"/>
         <v>1.0817515047438954E-2</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="31">
         <f t="shared" si="0"/>
         <v>1.2429216196844383E-2</v>
       </c>
@@ -19545,46 +19545,46 @@
         <f t="shared" si="3"/>
         <v>1.2429216196844383E-2</v>
       </c>
-      <c r="G20" s="37"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="29">
         <v>1</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="31">
         <v>100</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="31">
         <v>1</v>
       </c>
-      <c r="K20" s="37" t="s">
+      <c r="K20" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="37" t="s">
+      <c r="L20" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M20" s="37" t="s">
+      <c r="M20" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="N20" s="37">
+      <c r="N20" s="31">
         <v>1</v>
       </c>
-      <c r="O20" s="38"/>
-      <c r="P20" s="37" t="s">
+      <c r="O20" s="32"/>
+      <c r="P20" s="31" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36">
+      <c r="A21" s="41"/>
+      <c r="B21" s="30">
         <v>2</v>
       </c>
       <c r="C21" s="29">
         <v>500</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="31">
         <f t="shared" si="1"/>
         <v>1.0817515047438954E-2</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="31">
         <f t="shared" si="0"/>
         <v>1.2429216196844383E-2</v>
       </c>
@@ -19592,35 +19592,35 @@
         <f t="shared" si="3"/>
         <v>1.2429216196844383E-2</v>
       </c>
-      <c r="G21" s="37"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="29">
         <v>1</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="31">
         <v>100</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="31">
         <v>1</v>
       </c>
-      <c r="K21" s="37" t="s">
+      <c r="K21" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="37" t="s">
+      <c r="L21" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M21" s="37" t="s">
+      <c r="M21" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="N21" s="37">
+      <c r="N21" s="31">
         <v>1</v>
       </c>
-      <c r="O21" s="38"/>
-      <c r="P21" s="37" t="s">
+      <c r="O21" s="32"/>
+      <c r="P21" s="31" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="38" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="10">
@@ -19665,7 +19665,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="11">
         <v>2</v>
       </c>
@@ -19708,7 +19708,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="10">
         <v>3</v>
       </c>
@@ -19751,7 +19751,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="11">
         <v>4</v>
       </c>
@@ -19794,7 +19794,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="10">
         <v>5</v>
       </c>
@@ -19837,7 +19837,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="12">
@@ -19885,7 +19885,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="12">
         <v>2</v>
       </c>
@@ -19928,7 +19928,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="12">
         <v>3</v>
       </c>
@@ -19971,7 +19971,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="12">
         <v>4</v>
       </c>
@@ -20014,7 +20014,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="12">
         <v>5</v>
       </c>
@@ -20057,7 +20057,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="12">
         <v>6</v>
       </c>
@@ -20100,7 +20100,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="38" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="14">
@@ -20145,7 +20145,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="14">
         <v>2</v>
       </c>
@@ -20188,7 +20188,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="14">
         <v>3</v>
       </c>
@@ -20231,7 +20231,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="14">
         <v>4</v>
       </c>
@@ -20274,7 +20274,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="14">
         <v>5</v>
       </c>
@@ -20317,7 +20317,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="38" t="s">
         <v>92</v>
       </c>
       <c r="B38" s="20">
@@ -20358,7 +20358,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="20">
         <v>2</v>
       </c>
@@ -20397,7 +20397,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="20">
         <v>3</v>
       </c>
@@ -20436,7 +20436,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="20">
         <v>4</v>
       </c>
@@ -20475,7 +20475,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="20">
         <v>5</v>
       </c>
@@ -20514,7 +20514,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="38" t="s">
         <v>93</v>
       </c>
       <c r="B43" s="24">
@@ -20558,7 +20558,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="24">
         <v>2</v>
       </c>
@@ -20600,7 +20600,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="24">
         <v>3</v>
       </c>
@@ -20642,7 +20642,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="24">
         <v>4</v>
       </c>
@@ -20684,7 +20684,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="24">
         <v>5</v>
       </c>
@@ -20726,7 +20726,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="24">
         <v>6</v>
       </c>
@@ -21665,15 +21665,15 @@
       <c r="G40">
         <v>207.027740624659</v>
       </c>
-      <c r="J40" s="34" t="s">
+      <c r="J40" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41">
@@ -21697,18 +21697,18 @@
       <c r="J41" t="s">
         <v>90</v>
       </c>
-      <c r="K41" s="33" t="s">
+      <c r="K41" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33" t="s">
+      <c r="L41" s="43"/>
+      <c r="M41" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33" t="s">
+      <c r="N41" s="43"/>
+      <c r="O41" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="P41" s="33"/>
+      <c r="P41" s="43"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42">
@@ -21735,18 +21735,18 @@
       <c r="J42">
         <v>10</v>
       </c>
-      <c r="K42" s="33">
+      <c r="K42" s="43">
         <v>1.2</v>
       </c>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33">
+      <c r="L42" s="43"/>
+      <c r="M42" s="43">
         <v>3</v>
       </c>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33">
+      <c r="N42" s="43"/>
+      <c r="O42" s="43">
         <v>1.7929999999999999</v>
       </c>
-      <c r="P42" s="33"/>
+      <c r="P42" s="43"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43">
@@ -21773,18 +21773,18 @@
       <c r="J43">
         <v>20</v>
       </c>
-      <c r="K43" s="33">
+      <c r="K43" s="43">
         <v>1.3</v>
       </c>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33">
+      <c r="L43" s="43"/>
+      <c r="M43" s="43">
         <v>4</v>
       </c>
-      <c r="N43" s="33"/>
-      <c r="O43" s="33">
+      <c r="N43" s="43"/>
+      <c r="O43" s="43">
         <v>1.8839999999999999</v>
       </c>
-      <c r="P43" s="33"/>
+      <c r="P43" s="43"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44">
@@ -21811,18 +21811,18 @@
       <c r="J44">
         <v>50</v>
       </c>
-      <c r="K44" s="33">
+      <c r="K44" s="43">
         <v>2.36</v>
       </c>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33">
+      <c r="L44" s="43"/>
+      <c r="M44" s="43">
         <v>6</v>
       </c>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33">
+      <c r="N44" s="43"/>
+      <c r="O44" s="43">
         <v>2.2669999999999999</v>
       </c>
-      <c r="P44" s="33"/>
+      <c r="P44" s="43"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45">
@@ -21849,18 +21849,18 @@
       <c r="J45">
         <v>100</v>
       </c>
-      <c r="K45" s="33">
+      <c r="K45" s="43">
         <v>2.5499999999999998</v>
       </c>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33">
+      <c r="L45" s="43"/>
+      <c r="M45" s="43">
         <v>8</v>
       </c>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33">
+      <c r="N45" s="43"/>
+      <c r="O45" s="43">
         <v>2.8820000000000001</v>
       </c>
-      <c r="P45" s="33"/>
+      <c r="P45" s="43"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46">
@@ -21887,12 +21887,12 @@
       <c r="J46">
         <v>500</v>
       </c>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47">
@@ -21919,18 +21919,18 @@
       <c r="J47">
         <v>1000</v>
       </c>
-      <c r="K47" s="33">
+      <c r="K47" s="43">
         <v>3.55</v>
       </c>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33">
+      <c r="L47" s="43"/>
+      <c r="M47" s="43">
         <v>12</v>
       </c>
-      <c r="N47" s="33"/>
-      <c r="O47" s="33">
+      <c r="N47" s="43"/>
+      <c r="O47" s="43">
         <v>4.1079999999999997</v>
       </c>
-      <c r="P47" s="33"/>
+      <c r="P47" s="43"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48">
@@ -23022,7 +23022,7 @@
         <v>11.33199432943567</v>
       </c>
       <c r="D102" s="7">
-        <f t="shared" ref="C102:G102" si="0">AVERAGE(D2:D101)</f>
+        <f t="shared" ref="D102:G102" si="0">AVERAGE(D2:D101)</f>
         <v>21.109886040443318</v>
       </c>
       <c r="E102" s="7">
@@ -23040,16 +23040,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J40:P40"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
     <mergeCell ref="O47:P47"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="M43:N43"/>
@@ -23062,6 +23052,16 @@
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="M46:N46"/>
     <mergeCell ref="O46:P46"/>
+    <mergeCell ref="J40:P40"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23072,8 +23072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8ADDF3-F6DC-49DE-90F6-6F07047D1F12}">
   <dimension ref="A1:Q1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23111,7 +23111,7 @@
         <v>44.606273961470997</v>
       </c>
       <c r="E2" s="28">
-        <v>53.571642952661001</v>
+        <v>62.295070062977999</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -23125,7 +23125,7 @@
         <v>29.871186994456998</v>
       </c>
       <c r="E3" s="28">
-        <v>24.951346538833999</v>
+        <v>8.9778054901120008</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -23139,7 +23139,7 @@
         <v>116.098461406024</v>
       </c>
       <c r="E4" s="28">
-        <v>162.75061612162801</v>
+        <v>130.46144424583699</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -23153,7 +23153,7 @@
         <v>14.588091493389999</v>
       </c>
       <c r="E5" s="28">
-        <v>217.29421472585901</v>
+        <v>214.084837751457</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -23167,7 +23167,7 @@
         <v>24.933048803032001</v>
       </c>
       <c r="E6" s="28">
-        <v>170.922515345607</v>
+        <v>295.49440667919799</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -23181,7 +23181,7 @@
         <v>44.415675550741</v>
       </c>
       <c r="E7" s="28">
-        <v>269.95682562653002</v>
+        <v>180.54146325492701</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -23203,7 +23203,7 @@
         <v>51.231083953899997</v>
       </c>
       <c r="E8" s="28">
-        <v>298.68224703600998</v>
+        <v>68.057724667390005</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -23225,7 +23225,7 @@
         <v>0.61000000000200005</v>
       </c>
       <c r="E9" s="28">
-        <v>26.705998878201999</v>
+        <v>55.738122679200998</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -23247,7 +23247,7 @@
         <v>78.580926304914001</v>
       </c>
       <c r="E10" s="28">
-        <v>142.954155848384</v>
+        <v>128.169072767144</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -23269,7 +23269,7 @@
         <v>222.15939910379501</v>
       </c>
       <c r="E11" s="28">
-        <v>0.61000000000200005</v>
+        <v>111.326397483684</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
@@ -23291,7 +23291,7 @@
         <v>160.53863243651099</v>
       </c>
       <c r="E12" s="28">
-        <v>65.529557655811999</v>
+        <v>23.634807701562</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
@@ -23313,7 +23313,7 @@
         <v>0.61000000000200005</v>
       </c>
       <c r="E13" s="28">
-        <v>85.133977808202999</v>
+        <v>214.19044225164001</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
@@ -23335,7 +23335,7 @@
         <v>0.50833333333499997</v>
       </c>
       <c r="E14" s="28">
-        <v>300.13166359443397</v>
+        <v>50.005292263321003</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -23357,7 +23357,7 @@
         <v>164.884811265449</v>
       </c>
       <c r="E15" s="28">
-        <v>277.622056872847</v>
+        <v>94.357213675297004</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -23371,7 +23371,7 @@
         <v>57.030513206644002</v>
       </c>
       <c r="E16" s="28">
-        <v>217.98806015335799</v>
+        <v>4.7307704006720002</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -23385,7 +23385,7 @@
         <v>180.347426300992</v>
       </c>
       <c r="E17" s="28">
-        <v>200.85304772708</v>
+        <v>88.451606205478996</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -23399,7 +23399,7 @@
         <v>96.571972718118005</v>
       </c>
       <c r="E18" s="28">
-        <v>20.712560889277999</v>
+        <v>209.11172334822299</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -23413,7 +23413,7 @@
         <v>112.934472516095</v>
       </c>
       <c r="E19" s="28">
-        <v>129.88754253803901</v>
+        <v>133.35702923480201</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -23427,7 +23427,7 @@
         <v>162.18592296270501</v>
       </c>
       <c r="E20" s="28">
-        <v>99.375476182821004</v>
+        <v>87.453023157302994</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -23441,7 +23441,7 @@
         <v>85.230199327498994</v>
       </c>
       <c r="E21" s="28">
-        <v>209.28895612592399</v>
+        <v>11.681191753136</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>29</v>
@@ -23474,7 +23474,7 @@
         <v>92.535737532100001</v>
       </c>
       <c r="E22" s="28">
-        <v>36.98176554794</v>
+        <v>0.61000000000200005</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>66</v>
@@ -23507,7 +23507,7 @@
         <v>206.52076452114599</v>
       </c>
       <c r="E23" s="28">
-        <v>75.939657939376005</v>
+        <v>0.50833333333499997</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
@@ -23521,7 +23521,7 @@
         <v>57.177696811685003</v>
       </c>
       <c r="E24" s="28">
-        <v>67.096131015124996</v>
+        <v>199.10209536498601</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -23535,7 +23535,7 @@
         <v>79.855102895190996</v>
       </c>
       <c r="E25" s="28">
-        <v>8.173408792359</v>
+        <v>59.757200660763999</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
@@ -23549,7 +23549,7 @@
         <v>155.564153483268</v>
       </c>
       <c r="E26" s="28">
-        <v>22.505771608600998</v>
+        <v>114.95320017999801</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -23563,7 +23563,7 @@
         <v>96.124173411323</v>
       </c>
       <c r="E27" s="28">
-        <v>181.12918601749001</v>
+        <v>60.032415004096997</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -23577,7 +23577,7 @@
         <v>174.02120884632001</v>
       </c>
       <c r="E28" s="28">
-        <v>279.87872716202003</v>
+        <v>45.173230770985001</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -23591,7 +23591,7 @@
         <v>210.062645029869</v>
       </c>
       <c r="E29" s="28">
-        <v>41.048043440702997</v>
+        <v>87.298990730751996</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -23605,7 +23605,7 @@
         <v>83.624151268174003</v>
       </c>
       <c r="E30" s="28">
-        <v>129.78491388336499</v>
+        <v>69.326564761680004</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -23619,7 +23619,7 @@
         <v>337.96711738288798</v>
       </c>
       <c r="E31" s="28">
-        <v>74.222733036592004</v>
+        <v>70.359851604902005</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -23633,7 +23633,7 @@
         <v>136.75528277901799</v>
       </c>
       <c r="E32" s="28">
-        <v>156.428217116795</v>
+        <v>49.828307450731003</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -23647,7 +23647,7 @@
         <v>113.825667815133</v>
       </c>
       <c r="E33" s="28">
-        <v>49.014749508363998</v>
+        <v>220.20710601667699</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
@@ -23661,7 +23661,7 @@
         <v>220.68700736694001</v>
       </c>
       <c r="E34" s="28">
-        <v>71.70758944408</v>
+        <v>257.81089813367902</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -23675,7 +23675,7 @@
         <v>165.67932294625399</v>
       </c>
       <c r="E35" s="28">
-        <v>142.031659073208</v>
+        <v>341.74777112535702</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -23689,7 +23689,7 @@
         <v>29.970013070798</v>
       </c>
       <c r="E36" s="28">
-        <v>0.71166666666900003</v>
+        <v>118.848103111763</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -23703,7 +23703,7 @@
         <v>212.94420178312799</v>
       </c>
       <c r="E37" s="28">
-        <v>69.659051501343995</v>
+        <v>146.33992572693299</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -23717,7 +23717,7 @@
         <v>200.545910856684</v>
       </c>
       <c r="E38" s="28">
-        <v>38.058473631708999</v>
+        <v>184.96485220570599</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
@@ -23731,7 +23731,7 @@
         <v>57.850426585820003</v>
       </c>
       <c r="E39" s="28">
-        <v>4.7600451471480003</v>
+        <v>114.861582718832</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
@@ -23745,7 +23745,7 @@
         <v>266.57450147255702</v>
       </c>
       <c r="E40" s="28">
-        <v>232.63026850017599</v>
+        <v>151.29977650270001</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
@@ -23759,7 +23759,7 @@
         <v>134.179460845638</v>
       </c>
       <c r="E41" s="28">
-        <v>36.718407358882999</v>
+        <v>183.738009087595</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
@@ -23773,7 +23773,7 @@
         <v>223.91547182106899</v>
       </c>
       <c r="E42" s="28">
-        <v>297.55384377602599</v>
+        <v>62.974736375909998</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
@@ -23787,7 +23787,7 @@
         <v>331.03588639449998</v>
       </c>
       <c r="E43" s="28">
-        <v>172.62382312839199</v>
+        <v>125.78582313831301</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
@@ -23801,7 +23801,7 @@
         <v>90.092675019292997</v>
       </c>
       <c r="E44" s="28">
-        <v>178.22794259942901</v>
+        <v>126.959775934112</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
@@ -23815,7 +23815,7 @@
         <v>140.73191218371699</v>
       </c>
       <c r="E45" s="28">
-        <v>153.15186583731199</v>
+        <v>48.948086252815003</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
@@ -23829,7 +23829,7 @@
         <v>214.18383005216</v>
       </c>
       <c r="E46" s="28">
-        <v>222.223678304971</v>
+        <v>21.557210818079</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
@@ -23843,7 +23843,7 @@
         <v>93.415164963240997</v>
       </c>
       <c r="E47" s="28">
-        <v>176.47082237671901</v>
+        <v>76.891870627931993</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
@@ -23857,7 +23857,7 @@
         <v>256.203581786732</v>
       </c>
       <c r="E48" s="28">
-        <v>210.14399101890001</v>
+        <v>131.905750559235</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -23871,7 +23871,7 @@
         <v>284.96655784200698</v>
       </c>
       <c r="E49" s="28">
-        <v>119.80569144939101</v>
+        <v>216.701125670614</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
@@ -23885,7 +23885,7 @@
         <v>101.71245303114701</v>
       </c>
       <c r="E50" s="28">
-        <v>226.978069909786</v>
+        <v>150.597633537495</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
@@ -23899,7 +23899,7 @@
         <v>71.997695945125002</v>
       </c>
       <c r="E51" s="28">
-        <v>0.50833333333499997</v>
+        <v>56.025929956646998</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
@@ -23913,7 +23913,7 @@
         <v>172.79972234679801</v>
       </c>
       <c r="E52" s="28">
-        <v>56.638451553783</v>
+        <v>182.902752588054</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
@@ -23927,7 +23927,7 @@
         <v>333.797156545863</v>
       </c>
       <c r="E53" s="28">
-        <v>151.375986526384</v>
+        <v>177.091896317493</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
@@ -23941,7 +23941,7 @@
         <v>92.294759755368005</v>
       </c>
       <c r="E54" s="28">
-        <v>238.85568881843099</v>
+        <v>156.80614232629199</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
@@ -23955,7 +23955,7 @@
         <v>91.100777648800999</v>
       </c>
       <c r="E55" s="28">
-        <v>19.171444155410001</v>
+        <v>30.121750944159999</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
@@ -23969,7 +23969,7 @@
         <v>88.302142809024005</v>
       </c>
       <c r="E56" s="28">
-        <v>127.46043231639401</v>
+        <v>6.0442759701710003</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -23983,7 +23983,7 @@
         <v>132.931919730853</v>
       </c>
       <c r="E57" s="28">
-        <v>152.072195094688</v>
+        <v>96.075703677874998</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
@@ -23997,7 +23997,7 @@
         <v>59.382574086490003</v>
       </c>
       <c r="E58" s="28">
-        <v>26.110569306024001</v>
+        <v>19.275559214523</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
@@ -24011,7 +24011,7 @@
         <v>43.775615171341002</v>
       </c>
       <c r="E59" s="28">
-        <v>162.11895741920199</v>
+        <v>0.50833333333499997</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
@@ -24025,7 +24025,7 @@
         <v>191.443648488897</v>
       </c>
       <c r="E60" s="28">
-        <v>0.61000000000200005</v>
+        <v>4.8004181909690002</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
@@ -24039,7 +24039,7 @@
         <v>260.567197323941</v>
       </c>
       <c r="E61" s="28">
-        <v>0.50833333333499997</v>
+        <v>86.772732435947006</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
@@ -24053,7 +24053,7 @@
         <v>260.90701022493897</v>
       </c>
       <c r="E62" s="28">
-        <v>0.61000000000200005</v>
+        <v>4.2365402078169998</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
@@ -24067,7 +24067,7 @@
         <v>51.999388919060998</v>
       </c>
       <c r="E63" s="28">
-        <v>403.94876239180098</v>
+        <v>192.18652465532301</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
@@ -24081,7 +24081,7 @@
         <v>92.818198022345001</v>
       </c>
       <c r="E64" s="28">
-        <v>336.35014718392199</v>
+        <v>136.14799799360401</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
@@ -24095,7 +24095,7 @@
         <v>78.124481961816002</v>
       </c>
       <c r="E65" s="28">
-        <v>29.518452350897</v>
+        <v>86.144781047395995</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
@@ -24109,7 +24109,7 @@
         <v>56.406332335085999</v>
       </c>
       <c r="E66" s="28">
-        <v>61.677638439802998</v>
+        <v>83.330828967919999</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
@@ -24123,7 +24123,7 @@
         <v>74.207712710753</v>
       </c>
       <c r="E67" s="28">
-        <v>74.062057652369006</v>
+        <v>66.033529094383994</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
@@ -24137,7 +24137,7 @@
         <v>136.258426729044</v>
       </c>
       <c r="E68" s="28">
-        <v>127.70704347939299</v>
+        <v>243.85682020682501</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
@@ -24151,7 +24151,7 @@
         <v>192.086756132164</v>
       </c>
       <c r="E69" s="28">
-        <v>107.38421214772301</v>
+        <v>86.835091657115996</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
@@ -24165,7 +24165,7 @@
         <v>89.494486073643003</v>
       </c>
       <c r="E70" s="28">
-        <v>173.78240341292499</v>
+        <v>310.55074776369298</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
@@ -24179,7 +24179,7 @@
         <v>172.406038701017</v>
       </c>
       <c r="E71" s="28">
-        <v>122.529347848236</v>
+        <v>28.472209242348999</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
@@ -24193,7 +24193,7 @@
         <v>31.005629032828001</v>
       </c>
       <c r="E72" s="28">
-        <v>8.0371924776169994</v>
+        <v>7.814215453339</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
@@ -24207,7 +24207,7 @@
         <v>160.60640367983899</v>
       </c>
       <c r="E73" s="28">
-        <v>49.975844205957998</v>
+        <v>144.50087421189599</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
@@ -24221,7 +24221,7 @@
         <v>63.130794946415001</v>
       </c>
       <c r="E74" s="28">
-        <v>275.65769704163699</v>
+        <v>288.57468576144299</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
@@ -24235,7 +24235,7 @@
         <v>227.62811789341501</v>
       </c>
       <c r="E75" s="28">
-        <v>86.693066928682995</v>
+        <v>79.737898400833998</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
@@ -24249,7 +24249,7 @@
         <v>147.01396682324199</v>
       </c>
       <c r="E76" s="28">
-        <v>137.451964755343</v>
+        <v>23.044339549294001</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
@@ -24263,7 +24263,7 @@
         <v>0.71166666666900003</v>
       </c>
       <c r="E77" s="28">
-        <v>132.77869561433201</v>
+        <v>217.42949822054899</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
@@ -24277,7 +24277,7 @@
         <v>124.22640969271799</v>
       </c>
       <c r="E78" s="28">
-        <v>83.644254795462999</v>
+        <v>61.189589577642998</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
@@ -24291,7 +24291,7 @@
         <v>0.71166666666900003</v>
       </c>
       <c r="E79" s="28">
-        <v>12.334861128369001</v>
+        <v>262.41896181762201</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
@@ -24305,7 +24305,7 @@
         <v>23.81566023029</v>
       </c>
       <c r="E80" s="28">
-        <v>155.47034631660699</v>
+        <v>68.955366040710999</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
@@ -24319,7 +24319,7 @@
         <v>240.45867181305499</v>
       </c>
       <c r="E81" s="28">
-        <v>0.71166666666900003</v>
+        <v>275.28014481799499</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
@@ -24333,7 +24333,7 @@
         <v>211.60661850915</v>
       </c>
       <c r="E82" s="28">
-        <v>60.992535527576003</v>
+        <v>0.71166666666900003</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
@@ -24347,7 +24347,7 @@
         <v>80.693685791967994</v>
       </c>
       <c r="E83" s="28">
-        <v>32.125373874697999</v>
+        <v>145.89455469054101</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
@@ -24361,7 +24361,7 @@
         <v>241.25368901375001</v>
       </c>
       <c r="E84" s="28">
-        <v>43.370057650005997</v>
+        <v>252.00382862149399</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
@@ -24375,7 +24375,7 @@
         <v>80.939063375396003</v>
       </c>
       <c r="E85" s="28">
-        <v>272.45725043753498</v>
+        <v>32.326664517274999</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
@@ -24389,7 +24389,7 @@
         <v>262.63605989834502</v>
       </c>
       <c r="E86" s="28">
-        <v>0.71166666666900003</v>
+        <v>108.302003006107</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
@@ -24403,7 +24403,7 @@
         <v>0.61000000000200005</v>
       </c>
       <c r="E87" s="28">
-        <v>145.239468749796</v>
+        <v>19.534161081354998</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
@@ -24417,7 +24417,7 @@
         <v>0.61000000000200005</v>
       </c>
       <c r="E88" s="28">
-        <v>52.612589707874001</v>
+        <v>145.759122311222</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
@@ -24431,7 +24431,7 @@
         <v>65.677078940285995</v>
       </c>
       <c r="E89" s="28">
-        <v>67.391343714480996</v>
+        <v>145.39215151131199</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
@@ -24445,7 +24445,7 @@
         <v>27.141712472712001</v>
       </c>
       <c r="E90" s="28">
-        <v>205.275722836504</v>
+        <v>18.814305754848998</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
@@ -24459,7 +24459,7 @@
         <v>109.04738184619001</v>
       </c>
       <c r="E91" s="28">
-        <v>187.16852940798699</v>
+        <v>117.127733577595</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
@@ -24473,7 +24473,7 @@
         <v>133.54126798775999</v>
       </c>
       <c r="E92" s="28">
-        <v>97.730653666072996</v>
+        <v>204.12774474999901</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
@@ -24487,7 +24487,7 @@
         <v>14.072268390706</v>
       </c>
       <c r="E93" s="28">
-        <v>347.93732643492098</v>
+        <v>0.71166666666900003</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
@@ -24501,7 +24501,7 @@
         <v>57.890588499262002</v>
       </c>
       <c r="E94" s="28">
-        <v>119.28082190482</v>
+        <v>66.582113648177994</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
@@ -24515,7 +24515,7 @@
         <v>156.252750482772</v>
       </c>
       <c r="E95" s="28">
-        <v>140.68500900414</v>
+        <v>84.679531922579997</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
@@ -24529,7 +24529,7 @@
         <v>208.81736170505999</v>
       </c>
       <c r="E96" s="28">
-        <v>129.40354141223901</v>
+        <v>150.75805927063701</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
@@ -24543,7 +24543,7 @@
         <v>161.77354860909199</v>
       </c>
       <c r="E97" s="28">
-        <v>0.71166666666900003</v>
+        <v>155.58088706077999</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
@@ -24557,7 +24557,7 @@
         <v>83.855021852785001</v>
       </c>
       <c r="E98" s="28">
-        <v>201.44652139680599</v>
+        <v>147.54929326199999</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
@@ -24571,7 +24571,7 @@
         <v>0.61000000000200005</v>
       </c>
       <c r="E99" s="28">
-        <v>25.681509706139</v>
+        <v>1.690252124303</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
@@ -24585,7 +24585,7 @@
         <v>0.50833333333499997</v>
       </c>
       <c r="E100" s="28">
-        <v>33.571385923382998</v>
+        <v>129.68871268392701</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
@@ -24599,7 +24599,7 @@
         <v>118.197669956155</v>
       </c>
       <c r="E101" s="28">
-        <v>162.50273598564701</v>
+        <v>89.186195889065999</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
@@ -24614,7 +24614,7 @@
         <v>115.429818840607</v>
       </c>
       <c r="E102" s="28">
-        <v>130.98265367922599</v>
+        <v>181.287682753345</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
@@ -24625,7 +24625,7 @@
         <v>82.179446600888994</v>
       </c>
       <c r="E103" s="28">
-        <v>106.894667790318</v>
+        <v>204.41989962925001</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
@@ -24636,7 +24636,7 @@
         <v>170.40877099262801</v>
       </c>
       <c r="E104" s="28">
-        <v>1.690252124303</v>
+        <v>258.69579745455599</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
@@ -24647,7 +24647,7 @@
         <v>155.02691176183399</v>
       </c>
       <c r="E105" s="28">
-        <v>109.122966910193</v>
+        <v>95.200626475549001</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
@@ -24658,7 +24658,7 @@
         <v>187.74735015384499</v>
       </c>
       <c r="E106" s="28">
-        <v>196.29229561753499</v>
+        <v>113.66958859211999</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
@@ -24669,7 +24669,7 @@
         <v>422.77009568165198</v>
       </c>
       <c r="E107" s="28">
-        <v>53.240679446683998</v>
+        <v>0.61000000000200005</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
@@ -24680,7 +24680,7 @@
         <v>174.28822143108499</v>
       </c>
       <c r="E108" s="28">
-        <v>58.309411945595997</v>
+        <v>0.71166666666900003</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
@@ -24691,7 +24691,7 @@
         <v>91.338812327724</v>
       </c>
       <c r="E109" s="28">
-        <v>162.59518640044399</v>
+        <v>109.71612448470999</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
@@ -24702,7 +24702,7 @@
         <v>203.86864766061899</v>
       </c>
       <c r="E110" s="28">
-        <v>172.417710842118</v>
+        <v>116.228417946308</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
@@ -24713,7 +24713,7 @@
         <v>110.44432634720999</v>
       </c>
       <c r="E111" s="28">
-        <v>123.615122142299</v>
+        <v>126.262419895389</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
@@ -24724,7 +24724,7 @@
         <v>96.221238784137</v>
       </c>
       <c r="E112" s="28">
-        <v>0.61000000000200005</v>
+        <v>116.88467136666399</v>
       </c>
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.25">
@@ -24735,7 +24735,7 @@
         <v>271.03100548364898</v>
       </c>
       <c r="E113" s="28">
-        <v>222.569844621128</v>
+        <v>20.936143068503998</v>
       </c>
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.25">
@@ -24746,7 +24746,7 @@
         <v>131.543161403379</v>
       </c>
       <c r="E114" s="28">
-        <v>5.8667748353149998</v>
+        <v>0.71166666666900003</v>
       </c>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.25">
@@ -24757,7 +24757,7 @@
         <v>135.52561399579699</v>
       </c>
       <c r="E115" s="28">
-        <v>219.613077121418</v>
+        <v>498.03335778559602</v>
       </c>
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.25">
@@ -24768,7 +24768,7 @@
         <v>18.404128223503999</v>
       </c>
       <c r="E116" s="28">
-        <v>0.61000000000200005</v>
+        <v>45.098834565887003</v>
       </c>
     </row>
     <row r="117" spans="3:5" x14ac:dyDescent="0.25">
@@ -24779,7 +24779,7 @@
         <v>227.161696182458</v>
       </c>
       <c r="E117" s="28">
-        <v>0.61000000000200005</v>
+        <v>65.941445854311993</v>
       </c>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.25">
@@ -24790,7 +24790,7 @@
         <v>90.029755357341003</v>
       </c>
       <c r="E118" s="28">
-        <v>126.265644976641</v>
+        <v>329.166473065574</v>
       </c>
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.25">
@@ -24801,7 +24801,7 @@
         <v>38.987872063664</v>
       </c>
       <c r="E119" s="28">
-        <v>116.417147154113</v>
+        <v>192.75254069348199</v>
       </c>
     </row>
     <row r="120" spans="3:5" x14ac:dyDescent="0.25">
@@ -24812,7 +24812,7 @@
         <v>33.675275936704999</v>
       </c>
       <c r="E120" s="28">
-        <v>95.901920837329996</v>
+        <v>36.895468310334998</v>
       </c>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.25">
@@ -24823,7 +24823,7 @@
         <v>48.500860269130001</v>
       </c>
       <c r="E121" s="28">
-        <v>131.44171376258299</v>
+        <v>39.463040455692003</v>
       </c>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.25">
@@ -24834,7 +24834,7 @@
         <v>58.199873367273</v>
       </c>
       <c r="E122" s="28">
-        <v>151.85750352839401</v>
+        <v>157.33877747291299</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.25">
@@ -24845,7 +24845,7 @@
         <v>122.426809308291</v>
       </c>
       <c r="E123" s="28">
-        <v>150.37997217372501</v>
+        <v>53.242873554492</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.25">
@@ -24856,7 +24856,7 @@
         <v>181.27032497843999</v>
       </c>
       <c r="E124" s="28">
-        <v>204.785227755037</v>
+        <v>127.487193139852</v>
       </c>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.25">
@@ -24867,7 +24867,7 @@
         <v>55.941231610336999</v>
       </c>
       <c r="E125" s="28">
-        <v>101.8138931772</v>
+        <v>175.00978087906299</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.25">
@@ -24878,7 +24878,7 @@
         <v>208.93412942306</v>
       </c>
       <c r="E126" s="28">
-        <v>157.86878065923901</v>
+        <v>136.26257658129799</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.25">
@@ -24889,7 +24889,7 @@
         <v>230.42969755459399</v>
       </c>
       <c r="E127" s="28">
-        <v>151.55329412498401</v>
+        <v>47.509461194925002</v>
       </c>
     </row>
     <row r="128" spans="3:5" x14ac:dyDescent="0.25">
@@ -24900,7 +24900,7 @@
         <v>182.82301497258399</v>
       </c>
       <c r="E128" s="28">
-        <v>66.850041625665</v>
+        <v>0.71166666666900003</v>
       </c>
     </row>
     <row r="129" spans="3:5" x14ac:dyDescent="0.25">
@@ -24911,7 +24911,7 @@
         <v>108.082862118094</v>
       </c>
       <c r="E129" s="28">
-        <v>45.976342483932001</v>
+        <v>54.758857722663002</v>
       </c>
     </row>
     <row r="130" spans="3:5" x14ac:dyDescent="0.25">
@@ -24922,7 +24922,7 @@
         <v>39.232162387355999</v>
       </c>
       <c r="E130" s="28">
-        <v>228.99214821381099</v>
+        <v>29.915135012585999</v>
       </c>
     </row>
     <row r="131" spans="3:5" x14ac:dyDescent="0.25">
@@ -24933,7 +24933,7 @@
         <v>146.21119231399899</v>
       </c>
       <c r="E131" s="28">
-        <v>80.102630365311001</v>
+        <v>0.71166666666900003</v>
       </c>
     </row>
     <row r="132" spans="3:5" x14ac:dyDescent="0.25">
@@ -24944,7 +24944,7 @@
         <v>226.78142606239999</v>
       </c>
       <c r="E132" s="28">
-        <v>102.30357822156</v>
+        <v>175.06785180455</v>
       </c>
     </row>
     <row r="133" spans="3:5" x14ac:dyDescent="0.25">
@@ -24955,7 +24955,7 @@
         <v>145.97493475445401</v>
       </c>
       <c r="E133" s="28">
-        <v>67.455465159997004</v>
+        <v>0.61000000000200005</v>
       </c>
     </row>
     <row r="134" spans="3:5" x14ac:dyDescent="0.25">
@@ -24966,7 +24966,7 @@
         <v>128.08883710731601</v>
       </c>
       <c r="E134" s="28">
-        <v>195.75169970635901</v>
+        <v>295.65361908703898</v>
       </c>
     </row>
     <row r="135" spans="3:5" x14ac:dyDescent="0.25">
@@ -24977,7 +24977,7 @@
         <v>33.540135880026</v>
       </c>
       <c r="E135" s="28">
-        <v>117.43435846167699</v>
+        <v>20.944558088680001</v>
       </c>
     </row>
     <row r="136" spans="3:5" x14ac:dyDescent="0.25">
@@ -24988,7 +24988,7 @@
         <v>138.10216978330101</v>
       </c>
       <c r="E136" s="28">
-        <v>8.8564443747210007</v>
+        <v>47.371424195233999</v>
       </c>
     </row>
     <row r="137" spans="3:5" x14ac:dyDescent="0.25">
@@ -24999,7 +24999,7 @@
         <v>107.020476544828</v>
       </c>
       <c r="E137" s="28">
-        <v>34.164633361695998</v>
+        <v>0.71166666666900003</v>
       </c>
     </row>
     <row r="138" spans="3:5" x14ac:dyDescent="0.25">
@@ -25010,7 +25010,7 @@
         <v>67.442934235305998</v>
       </c>
       <c r="E138" s="28">
-        <v>178.280826316401</v>
+        <v>118.849220411602</v>
       </c>
     </row>
     <row r="139" spans="3:5" x14ac:dyDescent="0.25">
@@ -25021,7 +25021,7 @@
         <v>123.59777012961101</v>
       </c>
       <c r="E139" s="28">
-        <v>0.71166666666900003</v>
+        <v>146.57517159433101</v>
       </c>
     </row>
     <row r="140" spans="3:5" x14ac:dyDescent="0.25">
@@ -25032,7 +25032,7 @@
         <v>47.470689952091</v>
       </c>
       <c r="E140" s="28">
-        <v>11.598156159579</v>
+        <v>153.86580760059101</v>
       </c>
     </row>
     <row r="141" spans="3:5" x14ac:dyDescent="0.25">
@@ -25043,7 +25043,7 @@
         <v>139.75515736169601</v>
       </c>
       <c r="E141" s="28">
-        <v>0.406666666668</v>
+        <v>164.99417055586699</v>
       </c>
     </row>
     <row r="142" spans="3:5" x14ac:dyDescent="0.25">
@@ -25054,7 +25054,7 @@
         <v>64.603396159878997</v>
       </c>
       <c r="E142" s="28">
-        <v>54.032995661237997</v>
+        <v>47.763549253796</v>
       </c>
     </row>
     <row r="143" spans="3:5" x14ac:dyDescent="0.25">
@@ -25065,7 +25065,7 @@
         <v>148.03593081474801</v>
       </c>
       <c r="E143" s="28">
-        <v>299.88977352808502</v>
+        <v>48.478964747139003</v>
       </c>
     </row>
     <row r="144" spans="3:5" x14ac:dyDescent="0.25">
@@ -25076,7 +25076,7 @@
         <v>307.93337948081501</v>
       </c>
       <c r="E144" s="28">
-        <v>0.71166666666900003</v>
+        <v>408.29999036633097</v>
       </c>
     </row>
     <row r="145" spans="3:5" x14ac:dyDescent="0.25">
@@ -25087,7 +25087,7 @@
         <v>67.512799958143006</v>
       </c>
       <c r="E145" s="28">
-        <v>325.14292150104001</v>
+        <v>216.49700301305501</v>
       </c>
     </row>
     <row r="146" spans="3:5" x14ac:dyDescent="0.25">
@@ -25098,7 +25098,7 @@
         <v>90.116803538374995</v>
       </c>
       <c r="E146" s="28">
-        <v>21.525148142831</v>
+        <v>18.496547988665998</v>
       </c>
     </row>
     <row r="147" spans="3:5" x14ac:dyDescent="0.25">
@@ -25109,7 +25109,7 @@
         <v>141.574626315686</v>
       </c>
       <c r="E147" s="28">
-        <v>43.758601338237</v>
+        <v>188.39991871705899</v>
       </c>
     </row>
     <row r="148" spans="3:5" x14ac:dyDescent="0.25">
@@ -25120,7 +25120,7 @@
         <v>211.88289937062299</v>
       </c>
       <c r="E148" s="28">
-        <v>259.41015728210101</v>
+        <v>154.24303060543301</v>
       </c>
     </row>
     <row r="149" spans="3:5" x14ac:dyDescent="0.25">
@@ -25131,7 +25131,7 @@
         <v>285.55418976049901</v>
       </c>
       <c r="E149" s="28">
-        <v>112.659105426943</v>
+        <v>83.895297401918</v>
       </c>
     </row>
     <row r="150" spans="3:5" x14ac:dyDescent="0.25">
@@ -25142,7 +25142,7 @@
         <v>146.90376271147201</v>
       </c>
       <c r="E150" s="28">
-        <v>22.307680382447</v>
+        <v>0.61000000000200005</v>
       </c>
     </row>
     <row r="151" spans="3:5" x14ac:dyDescent="0.25">
@@ -25153,7 +25153,7 @@
         <v>120.142793774412</v>
       </c>
       <c r="E151" s="28">
-        <v>102.940546397546</v>
+        <v>0.61000000000200005</v>
       </c>
     </row>
     <row r="152" spans="3:5" x14ac:dyDescent="0.25">
@@ -25164,7 +25164,7 @@
         <v>47.801488569710997</v>
       </c>
       <c r="E152" s="28">
-        <v>158.365067423304</v>
+        <v>642.44802396483999</v>
       </c>
     </row>
     <row r="153" spans="3:5" x14ac:dyDescent="0.25">
@@ -25175,7 +25175,7 @@
         <v>87.237326942303</v>
       </c>
       <c r="E153" s="28">
-        <v>59.033438484168997</v>
+        <v>350.933662554215</v>
       </c>
     </row>
     <row r="154" spans="3:5" x14ac:dyDescent="0.25">
@@ -25186,7 +25186,7 @@
         <v>1.6650813773190001</v>
       </c>
       <c r="E154" s="28">
-        <v>50.333786722684003</v>
+        <v>390.88488462737399</v>
       </c>
     </row>
     <row r="155" spans="3:5" x14ac:dyDescent="0.25">
@@ -25197,7 +25197,7 @@
         <v>202.42245933313299</v>
       </c>
       <c r="E155" s="28">
-        <v>108.949634216216</v>
+        <v>0.61000000000200005</v>
       </c>
     </row>
     <row r="156" spans="3:5" x14ac:dyDescent="0.25">
@@ -25208,7 +25208,7 @@
         <v>189.21032043170001</v>
       </c>
       <c r="E156" s="28">
-        <v>212.56609459635999</v>
+        <v>51.621800812936002</v>
       </c>
     </row>
     <row r="157" spans="3:5" x14ac:dyDescent="0.25">
@@ -25219,7 +25219,7 @@
         <v>214.32333962369901</v>
       </c>
       <c r="E157" s="28">
-        <v>155.48571704233299</v>
+        <v>30.594511071402</v>
       </c>
     </row>
     <row r="158" spans="3:5" x14ac:dyDescent="0.25">
@@ -25230,7 +25230,7 @@
         <v>136.952002071658</v>
       </c>
       <c r="E158" s="28">
-        <v>87.247674293702005</v>
+        <v>327.43482256148201</v>
       </c>
     </row>
     <row r="159" spans="3:5" x14ac:dyDescent="0.25">
@@ -25241,7 +25241,7 @@
         <v>132.02241804203101</v>
       </c>
       <c r="E159" s="28">
-        <v>120.652997919272</v>
+        <v>112.400079375319</v>
       </c>
     </row>
     <row r="160" spans="3:5" x14ac:dyDescent="0.25">
@@ -25252,7 +25252,7 @@
         <v>80.610125564724996</v>
       </c>
       <c r="E160" s="28">
-        <v>0.71166666666900003</v>
+        <v>378.58578213304799</v>
       </c>
     </row>
     <row r="161" spans="3:5" x14ac:dyDescent="0.25">
@@ -25263,7 +25263,7 @@
         <v>192.35021286848701</v>
       </c>
       <c r="E161" s="28">
-        <v>281.46660645998099</v>
+        <v>1.5153867203319999</v>
       </c>
     </row>
     <row r="162" spans="3:5" x14ac:dyDescent="0.25">
@@ -25274,7 +25274,7 @@
         <v>167.91069930322499</v>
       </c>
       <c r="E162" s="28">
-        <v>51.527037280420998</v>
+        <v>121.64481457541299</v>
       </c>
     </row>
     <row r="163" spans="3:5" x14ac:dyDescent="0.25">
@@ -25285,7 +25285,7 @@
         <v>27.808851241214999</v>
       </c>
       <c r="E163" s="28">
-        <v>0.61000000000200005</v>
+        <v>143.20572884119801</v>
       </c>
     </row>
     <row r="164" spans="3:5" x14ac:dyDescent="0.25">
@@ -25296,7 +25296,7 @@
         <v>95.510428608875998</v>
       </c>
       <c r="E164" s="28">
-        <v>282.97288460686298</v>
+        <v>25.434009486699999</v>
       </c>
     </row>
     <row r="165" spans="3:5" x14ac:dyDescent="0.25">
@@ -25307,7 +25307,7 @@
         <v>55.727304654712</v>
       </c>
       <c r="E165" s="28">
-        <v>109.156262151685</v>
+        <v>157.12082944257099</v>
       </c>
     </row>
     <row r="166" spans="3:5" x14ac:dyDescent="0.25">
@@ -25318,7 +25318,7 @@
         <v>104.314060123026</v>
       </c>
       <c r="E166" s="28">
-        <v>168.12906759650201</v>
+        <v>9.3543739261429995</v>
       </c>
     </row>
     <row r="167" spans="3:5" x14ac:dyDescent="0.25">
@@ -25329,7 +25329,7 @@
         <v>55.528647000587</v>
       </c>
       <c r="E167" s="28">
-        <v>198.947138758607</v>
+        <v>99.008836339864004</v>
       </c>
     </row>
     <row r="168" spans="3:5" x14ac:dyDescent="0.25">
@@ -25340,7 +25340,7 @@
         <v>0.71166666666900003</v>
       </c>
       <c r="E168" s="28">
-        <v>191.30658566908201</v>
+        <v>178.556380385311</v>
       </c>
     </row>
     <row r="169" spans="3:5" x14ac:dyDescent="0.25">
@@ -25351,7 +25351,7 @@
         <v>157.28523529220001</v>
       </c>
       <c r="E169" s="28">
-        <v>37.442470160055002</v>
+        <v>8.1919314623239998</v>
       </c>
     </row>
     <row r="170" spans="3:5" x14ac:dyDescent="0.25">
@@ -25362,7 +25362,7 @@
         <v>67.300044652615995</v>
       </c>
       <c r="E170" s="28">
-        <v>77.991088654687999</v>
+        <v>0.71166666666900003</v>
       </c>
     </row>
     <row r="171" spans="3:5" x14ac:dyDescent="0.25">
@@ -25373,7 +25373,7 @@
         <v>30.737796979702001</v>
       </c>
       <c r="E171" s="28">
-        <v>105.080956537849</v>
+        <v>64.322927091099004</v>
       </c>
     </row>
     <row r="172" spans="3:5" x14ac:dyDescent="0.25">
@@ -25384,7 +25384,7 @@
         <v>124.079778475879</v>
       </c>
       <c r="E172" s="28">
-        <v>111.087036499365</v>
+        <v>35.611800757551997</v>
       </c>
     </row>
     <row r="173" spans="3:5" x14ac:dyDescent="0.25">
@@ -25395,7 +25395,7 @@
         <v>176.70707973102199</v>
       </c>
       <c r="E173" s="28">
-        <v>255.099242025135</v>
+        <v>31.564665847339</v>
       </c>
     </row>
     <row r="174" spans="3:5" x14ac:dyDescent="0.25">
@@ -25406,7 +25406,7 @@
         <v>9.8446942829990007</v>
       </c>
       <c r="E174" s="28">
-        <v>175.15176389385601</v>
+        <v>320.49127747214999</v>
       </c>
     </row>
     <row r="175" spans="3:5" x14ac:dyDescent="0.25">
@@ -25417,7 +25417,7 @@
         <v>30.366612783413998</v>
       </c>
       <c r="E175" s="28">
-        <v>286.33468649625701</v>
+        <v>89.224470233572006</v>
       </c>
     </row>
     <row r="176" spans="3:5" x14ac:dyDescent="0.25">
@@ -25428,7 +25428,7 @@
         <v>52.205084371754999</v>
       </c>
       <c r="E176" s="28">
-        <v>7.7030592252819998</v>
+        <v>0.61000000000200005</v>
       </c>
     </row>
     <row r="177" spans="3:5" x14ac:dyDescent="0.25">
@@ -25439,7 +25439,7 @@
         <v>22.100999714918999</v>
       </c>
       <c r="E177" s="28">
-        <v>138.647508215876</v>
+        <v>107.40519999867099</v>
       </c>
     </row>
     <row r="178" spans="3:5" x14ac:dyDescent="0.25">
@@ -25450,7 +25450,7 @@
         <v>138.88092443527401</v>
       </c>
       <c r="E178" s="28">
-        <v>194.291429728932</v>
+        <v>67.943946252418996</v>
       </c>
     </row>
     <row r="179" spans="3:5" x14ac:dyDescent="0.25">
@@ -25461,7 +25461,7 @@
         <v>157.815934833759</v>
       </c>
       <c r="E179" s="28">
-        <v>61.832382555960002</v>
+        <v>192.87208342201799</v>
       </c>
     </row>
     <row r="180" spans="3:5" x14ac:dyDescent="0.25">
@@ -25473,7 +25473,7 @@
         <v>45.716699041277003</v>
       </c>
       <c r="E180" s="28">
-        <v>282.39883202883198</v>
+        <v>126.099084046963</v>
       </c>
     </row>
     <row r="181" spans="3:5" x14ac:dyDescent="0.25">
@@ -25481,7 +25481,7 @@
         <v>40.567478679734997</v>
       </c>
       <c r="E181" s="28">
-        <v>128.498936162489</v>
+        <v>138.485643348618</v>
       </c>
     </row>
     <row r="182" spans="3:5" x14ac:dyDescent="0.25">
@@ -25489,7 +25489,7 @@
         <v>127.253320338761</v>
       </c>
       <c r="E182" s="28">
-        <v>92.427889171074</v>
+        <v>129.25829534973201</v>
       </c>
     </row>
     <row r="183" spans="3:5" x14ac:dyDescent="0.25">
@@ -25497,7 +25497,7 @@
         <v>67.646901385668002</v>
       </c>
       <c r="E183" s="28">
-        <v>147.349760088761</v>
+        <v>185.737794448475</v>
       </c>
     </row>
     <row r="184" spans="3:5" x14ac:dyDescent="0.25">
@@ -25505,7 +25505,7 @@
         <v>143.73737927092299</v>
       </c>
       <c r="E184" s="28">
-        <v>16.066166861103</v>
+        <v>264.967840942951</v>
       </c>
     </row>
     <row r="185" spans="3:5" x14ac:dyDescent="0.25">
@@ -25513,7 +25513,7 @@
         <v>131.463592582042</v>
       </c>
       <c r="E185" s="28">
-        <v>0.61000000000200005</v>
+        <v>109.30971868922801</v>
       </c>
     </row>
     <row r="186" spans="3:5" x14ac:dyDescent="0.25">
@@ -25521,7 +25521,7 @@
         <v>411.56920541205898</v>
       </c>
       <c r="E186" s="28">
-        <v>191.37784707455199</v>
+        <v>93.524196097946003</v>
       </c>
     </row>
     <row r="187" spans="3:5" x14ac:dyDescent="0.25">
@@ -25529,7 +25529,7 @@
         <v>10.875369910738</v>
       </c>
       <c r="E187" s="28">
-        <v>46.355301956886997</v>
+        <v>160.317336003847</v>
       </c>
     </row>
     <row r="188" spans="3:5" x14ac:dyDescent="0.25">
@@ -25537,7 +25537,7 @@
         <v>43.016632342327</v>
       </c>
       <c r="E188" s="28">
-        <v>90.407025433588998</v>
+        <v>191.49618127039901</v>
       </c>
     </row>
     <row r="189" spans="3:5" x14ac:dyDescent="0.25">
@@ -25545,7 +25545,7 @@
         <v>238.00633226493801</v>
       </c>
       <c r="E189" s="28">
-        <v>217.6719198058</v>
+        <v>56.043285749997999</v>
       </c>
     </row>
     <row r="190" spans="3:5" x14ac:dyDescent="0.25">
@@ -25553,7 +25553,7 @@
         <v>235.38281924892499</v>
       </c>
       <c r="E190" s="28">
-        <v>98.338845153931999</v>
+        <v>31.356257018794999</v>
       </c>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.25">
@@ -25561,7 +25561,7 @@
         <v>106.47459762667999</v>
       </c>
       <c r="E191" s="28">
-        <v>241.27747078329901</v>
+        <v>127.916787063755</v>
       </c>
     </row>
     <row r="192" spans="3:5" x14ac:dyDescent="0.25">
@@ -25569,7 +25569,7 @@
         <v>0.97335107358200001</v>
       </c>
       <c r="E192" s="28">
-        <v>84.519100707467004</v>
+        <v>102.178388456089</v>
       </c>
     </row>
     <row r="193" spans="4:5" x14ac:dyDescent="0.25">
@@ -25577,7 +25577,7 @@
         <v>66.433568088553002</v>
       </c>
       <c r="E193" s="28">
-        <v>380.78727521651501</v>
+        <v>96.437998096277994</v>
       </c>
     </row>
     <row r="194" spans="4:5" x14ac:dyDescent="0.25">
@@ -25585,7 +25585,7 @@
         <v>170.173144158908</v>
       </c>
       <c r="E194" s="28">
-        <v>185.06480661114099</v>
+        <v>95.456208421135997</v>
       </c>
     </row>
     <row r="195" spans="4:5" x14ac:dyDescent="0.25">
@@ -25593,7 +25593,7 @@
         <v>236.42226923726301</v>
       </c>
       <c r="E195" s="28">
-        <v>121.530860863485</v>
+        <v>137.55709762510699</v>
       </c>
     </row>
     <row r="196" spans="4:5" x14ac:dyDescent="0.25">
@@ -25601,7 +25601,7 @@
         <v>167.55639476013599</v>
       </c>
       <c r="E196" s="28">
-        <v>105.25450984935701</v>
+        <v>84.969860224499996</v>
       </c>
     </row>
     <row r="197" spans="4:5" x14ac:dyDescent="0.25">
@@ -25609,7 +25609,7 @@
         <v>119.818670563582</v>
       </c>
       <c r="E197" s="28">
-        <v>116.034381423694</v>
+        <v>161.003122291381</v>
       </c>
     </row>
     <row r="198" spans="4:5" x14ac:dyDescent="0.25">
@@ -25617,7 +25617,7 @@
         <v>14.513606362420999</v>
       </c>
       <c r="E198" s="28">
-        <v>14.45601135131</v>
+        <v>252.44015474596699</v>
       </c>
     </row>
     <row r="199" spans="4:5" x14ac:dyDescent="0.25">
@@ -25625,7 +25625,7 @@
         <v>0.61000000000200005</v>
       </c>
       <c r="E199" s="28">
-        <v>171.600901363753</v>
+        <v>58.344945374786001</v>
       </c>
     </row>
     <row r="200" spans="4:5" x14ac:dyDescent="0.25">
@@ -25633,7 +25633,7 @@
         <v>168.610366510549</v>
       </c>
       <c r="E200" s="28">
-        <v>168.500062595218</v>
+        <v>269.16956133210402</v>
       </c>
     </row>
     <row r="201" spans="4:5" x14ac:dyDescent="0.25">
@@ -25641,7 +25641,7 @@
         <v>129.990104045046</v>
       </c>
       <c r="E201" s="28">
-        <v>174.19478175489101</v>
+        <v>60.960446921657997</v>
       </c>
     </row>
     <row r="202" spans="4:5" x14ac:dyDescent="0.25">
@@ -25649,7 +25649,7 @@
         <v>74.402421639311996</v>
       </c>
       <c r="E202" s="28">
-        <v>148.35458706539299</v>
+        <v>86.287811569669998</v>
       </c>
     </row>
     <row r="203" spans="4:5" x14ac:dyDescent="0.25">
@@ -25657,7 +25657,7 @@
         <v>216.052734011208</v>
       </c>
       <c r="E203" s="28">
-        <v>1053.07866154777</v>
+        <v>89.624159257019002</v>
       </c>
     </row>
     <row r="204" spans="4:5" x14ac:dyDescent="0.25">
@@ -25665,7 +25665,7 @@
         <v>83.184970280952001</v>
       </c>
       <c r="E204" s="28">
-        <v>84.337095623620996</v>
+        <v>114.126912616829</v>
       </c>
     </row>
     <row r="205" spans="4:5" x14ac:dyDescent="0.25">
@@ -25673,7 +25673,7 @@
         <v>257.18113240785601</v>
       </c>
       <c r="E205" s="28">
-        <v>0.813333333336</v>
+        <v>33.468881676480997</v>
       </c>
     </row>
     <row r="206" spans="4:5" x14ac:dyDescent="0.25">
@@ -25681,7 +25681,7 @@
         <v>136.630553267018</v>
       </c>
       <c r="E206" s="28">
-        <v>213.44555609382701</v>
+        <v>0.61000000000200005</v>
       </c>
     </row>
     <row r="207" spans="4:5" x14ac:dyDescent="0.25">
@@ -25689,7 +25689,7 @@
         <v>53.605047806213001</v>
       </c>
       <c r="E207" s="28">
-        <v>18.199116649023001</v>
+        <v>39.575195017506999</v>
       </c>
     </row>
     <row r="208" spans="4:5" x14ac:dyDescent="0.25">
@@ -25697,7 +25697,7 @@
         <v>80.625052930970995</v>
       </c>
       <c r="E208" s="28">
-        <v>333.45725830936999</v>
+        <v>62.852008036188998</v>
       </c>
     </row>
     <row r="209" spans="4:5" x14ac:dyDescent="0.25">
@@ -25705,7 +25705,7 @@
         <v>85.487818072671999</v>
       </c>
       <c r="E209" s="28">
-        <v>22.088035486820001</v>
+        <v>102.09964849156199</v>
       </c>
     </row>
     <row r="210" spans="4:5" x14ac:dyDescent="0.25">
@@ -25713,7 +25713,7 @@
         <v>40.001485370148004</v>
       </c>
       <c r="E210" s="28">
-        <v>201.08968725403</v>
+        <v>196.80811835475899</v>
       </c>
     </row>
     <row r="211" spans="4:5" x14ac:dyDescent="0.25">
@@ -25721,7 +25721,7 @@
         <v>77.773231856538004</v>
       </c>
       <c r="E211" s="28">
-        <v>204.367345154307</v>
+        <v>235.56809020557</v>
       </c>
     </row>
     <row r="212" spans="4:5" x14ac:dyDescent="0.25">
@@ -25729,7 +25729,7 @@
         <v>150.01659167064599</v>
       </c>
       <c r="E212" s="28">
-        <v>79.417457793455995</v>
+        <v>145.21993759558299</v>
       </c>
     </row>
     <row r="213" spans="4:5" x14ac:dyDescent="0.25">
@@ -25737,7 +25737,7 @@
         <v>115.748031865258</v>
       </c>
       <c r="E213" s="28">
-        <v>222.615222971013</v>
+        <v>33.262654231680997</v>
       </c>
     </row>
     <row r="214" spans="4:5" x14ac:dyDescent="0.25">
@@ -25745,7 +25745,7 @@
         <v>84.863097697214997</v>
       </c>
       <c r="E214" s="28">
-        <v>0.61000000000200005</v>
+        <v>157.080543207327</v>
       </c>
     </row>
     <row r="215" spans="4:5" x14ac:dyDescent="0.25">
@@ -25753,7 +25753,7 @@
         <v>189.05637121758301</v>
       </c>
       <c r="E215" s="28">
-        <v>0.71166666666900003</v>
+        <v>76.531316758363005</v>
       </c>
     </row>
     <row r="216" spans="4:5" x14ac:dyDescent="0.25">
@@ -25761,7 +25761,7 @@
         <v>24.972788390209999</v>
       </c>
       <c r="E216" s="28">
-        <v>5.0335144111670003</v>
+        <v>0.61000000000200005</v>
       </c>
     </row>
     <row r="217" spans="4:5" x14ac:dyDescent="0.25">
@@ -25769,7 +25769,7 @@
         <v>101.200315212494</v>
       </c>
       <c r="E217" s="28">
-        <v>110.077340312356</v>
+        <v>181.546264682622</v>
       </c>
     </row>
     <row r="218" spans="4:5" x14ac:dyDescent="0.25">
@@ -25777,7 +25777,7 @@
         <v>626.93285893818404</v>
       </c>
       <c r="E218" s="28">
-        <v>135.129171560039</v>
+        <v>91.510616996736005</v>
       </c>
     </row>
     <row r="219" spans="4:5" x14ac:dyDescent="0.25">
@@ -25785,7 +25785,7 @@
         <v>384.93702560032699</v>
       </c>
       <c r="E219" s="28">
-        <v>74.070070075478</v>
+        <v>136.342552323007</v>
       </c>
     </row>
     <row r="220" spans="4:5" x14ac:dyDescent="0.25">
@@ -25793,7 +25793,7 @@
         <v>87.461628977180993</v>
       </c>
       <c r="E220" s="28">
-        <v>95.062891851024006</v>
+        <v>40.618139114146999</v>
       </c>
     </row>
     <row r="221" spans="4:5" x14ac:dyDescent="0.25">
@@ -25801,7 +25801,7 @@
         <v>71.945486670465996</v>
       </c>
       <c r="E221" s="28">
-        <v>368.43037149692401</v>
+        <v>25.990940395951</v>
       </c>
     </row>
     <row r="222" spans="4:5" x14ac:dyDescent="0.25">
@@ -25809,7 +25809,7 @@
         <v>69.655569773172004</v>
       </c>
       <c r="E222" s="28">
-        <v>24.376651484730001</v>
+        <v>45.961788421611999</v>
       </c>
     </row>
     <row r="223" spans="4:5" x14ac:dyDescent="0.25">
@@ -25817,7 +25817,7 @@
         <v>139.33851614153301</v>
       </c>
       <c r="E223" s="28">
-        <v>77.417416898447001</v>
+        <v>41.753246457095997</v>
       </c>
     </row>
     <row r="224" spans="4:5" x14ac:dyDescent="0.25">
@@ -25825,7 +25825,7 @@
         <v>134.86072657055999</v>
       </c>
       <c r="E224" s="28">
-        <v>125.784348270706</v>
+        <v>25.597659093028</v>
       </c>
     </row>
     <row r="225" spans="4:5" x14ac:dyDescent="0.25">
@@ -25833,7 +25833,7 @@
         <v>17.968655800985001</v>
       </c>
       <c r="E225" s="28">
-        <v>406.22720451807402</v>
+        <v>0.71166666666900003</v>
       </c>
     </row>
     <row r="226" spans="4:5" x14ac:dyDescent="0.25">
@@ -25841,7 +25841,7 @@
         <v>107.865428767353</v>
       </c>
       <c r="E226" s="28">
-        <v>170.968141450774</v>
+        <v>47.642997921293002</v>
       </c>
     </row>
     <row r="227" spans="4:5" x14ac:dyDescent="0.25">
@@ -25849,7 +25849,7 @@
         <v>138.24956824493199</v>
       </c>
       <c r="E227" s="28">
-        <v>522.35213205361094</v>
+        <v>60.338861991736998</v>
       </c>
     </row>
     <row r="228" spans="4:5" x14ac:dyDescent="0.25">
@@ -25857,7 +25857,7 @@
         <v>103.44439657389201</v>
       </c>
       <c r="E228" s="28">
-        <v>0.61000000000200005</v>
+        <v>123.76637794903399</v>
       </c>
     </row>
     <row r="229" spans="4:5" x14ac:dyDescent="0.25">
@@ -25865,7 +25865,7 @@
         <v>226.287387624568</v>
       </c>
       <c r="E229" s="28">
-        <v>47.231611375709001</v>
+        <v>45.033452779329998</v>
       </c>
     </row>
     <row r="230" spans="4:5" x14ac:dyDescent="0.25">
@@ -25873,7 +25873,7 @@
         <v>276.62401321836302</v>
       </c>
       <c r="E230" s="28">
-        <v>168.37126639322301</v>
+        <v>0.61000000000200005</v>
       </c>
     </row>
     <row r="231" spans="4:5" x14ac:dyDescent="0.25">
@@ -25881,7 +25881,7 @@
         <v>498.83101858017397</v>
       </c>
       <c r="E231" s="28">
-        <v>269.29150741679399</v>
+        <v>24.030991140726002</v>
       </c>
     </row>
     <row r="232" spans="4:5" x14ac:dyDescent="0.25">
@@ -25889,7 +25889,7 @@
         <v>149.10945112473601</v>
       </c>
       <c r="E232" s="28">
-        <v>222.78045184211501</v>
+        <v>326.62153359377999</v>
       </c>
     </row>
     <row r="233" spans="4:5" x14ac:dyDescent="0.25">
@@ -25897,7 +25897,7 @@
         <v>7.6546612249830002</v>
       </c>
       <c r="E233" s="28">
-        <v>340.37825747293198</v>
+        <v>103.41041720798999</v>
       </c>
     </row>
     <row r="234" spans="4:5" x14ac:dyDescent="0.25">
@@ -25905,7 +25905,7 @@
         <v>68.985235533228007</v>
       </c>
       <c r="E234" s="28">
-        <v>148.39400173879099</v>
+        <v>8.0520200328959994</v>
       </c>
     </row>
     <row r="235" spans="4:5" x14ac:dyDescent="0.25">
@@ -25913,7 +25913,7 @@
         <v>0.61000000000200005</v>
       </c>
       <c r="E235" s="28">
-        <v>20.942990806097999</v>
+        <v>153.073872266466</v>
       </c>
     </row>
     <row r="236" spans="4:5" x14ac:dyDescent="0.25">
@@ -25921,7 +25921,7 @@
         <v>185.53150190415101</v>
       </c>
       <c r="E236" s="28">
-        <v>73.919390879816007</v>
+        <v>40.882046474589998</v>
       </c>
     </row>
     <row r="237" spans="4:5" x14ac:dyDescent="0.25">
@@ -25929,7 +25929,7 @@
         <v>298.99091278831099</v>
       </c>
       <c r="E237" s="28">
-        <v>97.655268422115</v>
+        <v>49.020601652408999</v>
       </c>
     </row>
     <row r="238" spans="4:5" x14ac:dyDescent="0.25">
@@ -25937,7 +25937,7 @@
         <v>116.07719558063</v>
       </c>
       <c r="E238" s="28">
-        <v>58.542926316865</v>
+        <v>18.802844983858002</v>
       </c>
     </row>
     <row r="239" spans="4:5" x14ac:dyDescent="0.25">
@@ -25945,7 +25945,7 @@
         <v>63.035714747435001</v>
       </c>
       <c r="E239" s="28">
-        <v>128.71917849744401</v>
+        <v>78.877022619903997</v>
       </c>
     </row>
     <row r="240" spans="4:5" x14ac:dyDescent="0.25">
@@ -25953,7 +25953,7 @@
         <v>193.97855499152999</v>
       </c>
       <c r="E240" s="28">
-        <v>113.71266090432199</v>
+        <v>258.04876558086403</v>
       </c>
     </row>
     <row r="241" spans="4:5" x14ac:dyDescent="0.25">
@@ -25961,7 +25961,7 @@
         <v>24.780154013815</v>
       </c>
       <c r="E241" s="28">
-        <v>230.250152831257</v>
+        <v>351.034792013833</v>
       </c>
     </row>
     <row r="242" spans="4:5" x14ac:dyDescent="0.25">
@@ -25969,7 +25969,7 @@
         <v>74.061593952204007</v>
       </c>
       <c r="E242" s="28">
-        <v>0.61000000000200005</v>
+        <v>60.690381578183</v>
       </c>
     </row>
     <row r="243" spans="4:5" x14ac:dyDescent="0.25">
@@ -25977,7 +25977,7 @@
         <v>105.388635633894</v>
       </c>
       <c r="E243" s="28">
-        <v>132.52544351043599</v>
+        <v>327.09674350358301</v>
       </c>
     </row>
     <row r="244" spans="4:5" x14ac:dyDescent="0.25">
@@ -25985,7 +25985,7 @@
         <v>75.677450500776999</v>
       </c>
       <c r="E244" s="28">
-        <v>156.23676572534001</v>
+        <v>189.34517734324001</v>
       </c>
     </row>
     <row r="245" spans="4:5" x14ac:dyDescent="0.25">
@@ -25993,7 +25993,7 @@
         <v>209.88003918208099</v>
       </c>
       <c r="E245" s="28">
-        <v>65.924832543031997</v>
+        <v>100.38890155792301</v>
       </c>
     </row>
     <row r="246" spans="4:5" x14ac:dyDescent="0.25">
@@ -26001,7 +26001,7 @@
         <v>52.706533353951997</v>
       </c>
       <c r="E246" s="28">
-        <v>45.628008318177002</v>
+        <v>429.89401671367199</v>
       </c>
     </row>
     <row r="247" spans="4:5" x14ac:dyDescent="0.25">
@@ -26009,7 +26009,7 @@
         <v>119.89269560866499</v>
       </c>
       <c r="E247" s="28">
-        <v>435.27464640462102</v>
+        <v>52.215093313061999</v>
       </c>
     </row>
     <row r="248" spans="4:5" x14ac:dyDescent="0.25">
@@ -26017,7 +26017,7 @@
         <v>267.27947187598897</v>
       </c>
       <c r="E248" s="28">
-        <v>217.632828873314</v>
+        <v>111.34398724656199</v>
       </c>
     </row>
     <row r="249" spans="4:5" x14ac:dyDescent="0.25">
@@ -26025,7 +26025,7 @@
         <v>163.50991647116001</v>
       </c>
       <c r="E249" s="28">
-        <v>29.358511308352</v>
+        <v>117.266519681356</v>
       </c>
     </row>
     <row r="250" spans="4:5" x14ac:dyDescent="0.25">
@@ -26033,7 +26033,7 @@
         <v>176.82530519889599</v>
       </c>
       <c r="E250" s="28">
-        <v>257.402696160056</v>
+        <v>104.805180100309</v>
       </c>
     </row>
     <row r="251" spans="4:5" x14ac:dyDescent="0.25">
@@ -26041,7 +26041,7 @@
         <v>108.129759652755</v>
       </c>
       <c r="E251" s="28">
-        <v>228.17216958117899</v>
+        <v>979.94257265497595</v>
       </c>
     </row>
     <row r="252" spans="4:5" x14ac:dyDescent="0.25">
@@ -26049,7 +26049,7 @@
         <v>114.325702746411</v>
       </c>
       <c r="E252" s="28">
-        <v>383.66951579411699</v>
+        <v>251.320512933456</v>
       </c>
     </row>
     <row r="253" spans="4:5" x14ac:dyDescent="0.25">
@@ -26057,7 +26057,7 @@
         <v>140.970696727167</v>
       </c>
       <c r="E253" s="28">
-        <v>192.97526262533</v>
+        <v>98.271523713679997</v>
       </c>
     </row>
     <row r="254" spans="4:5" x14ac:dyDescent="0.25">
@@ -26065,7 +26065,7 @@
         <v>51.157326162737</v>
       </c>
       <c r="E254" s="28">
-        <v>101.69178772284199</v>
+        <v>64.469663541398006</v>
       </c>
     </row>
     <row r="255" spans="4:5" x14ac:dyDescent="0.25">
@@ -26073,7 +26073,7 @@
         <v>9.4861066554590003</v>
       </c>
       <c r="E255" s="28">
-        <v>203.545305290345</v>
+        <v>0.71166666666900003</v>
       </c>
     </row>
     <row r="256" spans="4:5" x14ac:dyDescent="0.25">
@@ -26081,7 +26081,7 @@
         <v>117.267083675085</v>
       </c>
       <c r="E256" s="28">
-        <v>90.326249272542</v>
+        <v>341.92482124365603</v>
       </c>
     </row>
     <row r="257" spans="4:5" x14ac:dyDescent="0.25">
@@ -26089,7 +26089,7 @@
         <v>315.202101057628</v>
       </c>
       <c r="E257" s="28">
-        <v>193.27583420282801</v>
+        <v>104.97211384475099</v>
       </c>
     </row>
     <row r="258" spans="4:5" x14ac:dyDescent="0.25">
@@ -26097,7 +26097,7 @@
         <v>10.956411441026001</v>
       </c>
       <c r="E258" s="28">
-        <v>184.07602457331799</v>
+        <v>97.786300229725995</v>
       </c>
     </row>
     <row r="259" spans="4:5" x14ac:dyDescent="0.25">
@@ -26105,7 +26105,7 @@
         <v>50.965848912444002</v>
       </c>
       <c r="E259" s="28">
-        <v>19.174763032676999</v>
+        <v>50.661563855910003</v>
       </c>
     </row>
     <row r="260" spans="4:5" x14ac:dyDescent="0.25">
@@ -26113,7 +26113,7 @@
         <v>81.166300158932003</v>
       </c>
       <c r="E260" s="28">
-        <v>160.436634218503</v>
+        <v>6.4074433696039996</v>
       </c>
     </row>
     <row r="261" spans="4:5" x14ac:dyDescent="0.25">
@@ -26121,7 +26121,7 @@
         <v>132.57328685587501</v>
       </c>
       <c r="E261" s="28">
-        <v>70.171505513906993</v>
+        <v>14.883410850511</v>
       </c>
     </row>
     <row r="262" spans="4:5" x14ac:dyDescent="0.25">
@@ -26129,7 +26129,7 @@
         <v>87.610854576142003</v>
       </c>
       <c r="E262" s="28">
-        <v>12.431999405974</v>
+        <v>179.55135279610101</v>
       </c>
     </row>
     <row r="263" spans="4:5" x14ac:dyDescent="0.25">
@@ -26137,7 +26137,7 @@
         <v>150.45572662015999</v>
       </c>
       <c r="E263" s="28">
-        <v>287.92555308056097</v>
+        <v>338.38360120083797</v>
       </c>
     </row>
     <row r="264" spans="4:5" x14ac:dyDescent="0.25">
@@ -26145,7 +26145,7 @@
         <v>348.02621290341</v>
       </c>
       <c r="E264" s="28">
-        <v>99.607180584467997</v>
+        <v>53.877972758026999</v>
       </c>
     </row>
     <row r="265" spans="4:5" x14ac:dyDescent="0.25">
@@ -26153,7 +26153,7 @@
         <v>596.43242451757601</v>
       </c>
       <c r="E265" s="28">
-        <v>184.24833932205499</v>
+        <v>136.439443601129</v>
       </c>
     </row>
     <row r="266" spans="4:5" x14ac:dyDescent="0.25">
@@ -26161,7 +26161,7 @@
         <v>305.961657527537</v>
       </c>
       <c r="E266" s="28">
-        <v>5.4587980044529996</v>
+        <v>172.434011612375</v>
       </c>
     </row>
     <row r="267" spans="4:5" x14ac:dyDescent="0.25">
@@ -26169,7 +26169,7 @@
         <v>242.04498451424899</v>
       </c>
       <c r="E267" s="28">
-        <v>63.558919002487997</v>
+        <v>166.616657765534</v>
       </c>
     </row>
     <row r="268" spans="4:5" x14ac:dyDescent="0.25">
@@ -26177,7 +26177,7 @@
         <v>36.472518902520001</v>
       </c>
       <c r="E268" s="28">
-        <v>0.71166666666900003</v>
+        <v>87.796371149283999</v>
       </c>
     </row>
     <row r="269" spans="4:5" x14ac:dyDescent="0.25">
@@ -26185,7 +26185,7 @@
         <v>76.020900748114997</v>
       </c>
       <c r="E269" s="28">
-        <v>84.927350587912997</v>
+        <v>67.870461566261</v>
       </c>
     </row>
     <row r="270" spans="4:5" x14ac:dyDescent="0.25">
@@ -26193,7 +26193,7 @@
         <v>101.65630778628901</v>
       </c>
       <c r="E270" s="28">
-        <v>181.21568073280699</v>
+        <v>157.384458084572</v>
       </c>
     </row>
     <row r="271" spans="4:5" x14ac:dyDescent="0.25">
@@ -26201,7 +26201,7 @@
         <v>278.40599838297999</v>
       </c>
       <c r="E271" s="28">
-        <v>4.8531366623989998</v>
+        <v>245.456842281821</v>
       </c>
     </row>
     <row r="272" spans="4:5" x14ac:dyDescent="0.25">
@@ -26209,7 +26209,7 @@
         <v>0.61000000000200005</v>
       </c>
       <c r="E272" s="28">
-        <v>117.952570272495</v>
+        <v>0.61000000000200005</v>
       </c>
     </row>
     <row r="273" spans="4:5" x14ac:dyDescent="0.25">
@@ -26217,7 +26217,7 @@
         <v>0.813333333336</v>
       </c>
       <c r="E273" s="28">
-        <v>0.50833333333499997</v>
+        <v>36.765520443226997</v>
       </c>
     </row>
     <row r="274" spans="4:5" x14ac:dyDescent="0.25">
@@ -26225,7 +26225,7 @@
         <v>81.984519329929</v>
       </c>
       <c r="E274" s="28">
-        <v>334.40537279395102</v>
+        <v>68.524843174376997</v>
       </c>
     </row>
     <row r="275" spans="4:5" x14ac:dyDescent="0.25">
@@ -26233,7 +26233,7 @@
         <v>136.298990678645</v>
       </c>
       <c r="E275" s="28">
-        <v>104.958690579229</v>
+        <v>14.811995309868999</v>
       </c>
     </row>
     <row r="276" spans="4:5" x14ac:dyDescent="0.25">
@@ -26241,7 +26241,7 @@
         <v>67.703877328079997</v>
       </c>
       <c r="E276" s="28">
-        <v>175.111875002278</v>
+        <v>162.876047100064</v>
       </c>
     </row>
     <row r="277" spans="4:5" x14ac:dyDescent="0.25">
@@ -26249,7 +26249,7 @@
         <v>203.07008692175501</v>
       </c>
       <c r="E277" s="28">
-        <v>140.528661925346</v>
+        <v>0.406666666668</v>
       </c>
     </row>
     <row r="278" spans="4:5" x14ac:dyDescent="0.25">
@@ -26257,7 +26257,7 @@
         <v>16.139243601147001</v>
       </c>
       <c r="E278" s="28">
-        <v>288.28977212449001</v>
+        <v>4.7760373284600002</v>
       </c>
     </row>
     <row r="279" spans="4:5" x14ac:dyDescent="0.25">
@@ -26265,7 +26265,7 @@
         <v>288.611289151709</v>
       </c>
       <c r="E279" s="28">
-        <v>390.090643646177</v>
+        <v>341.62154060366402</v>
       </c>
     </row>
     <row r="280" spans="4:5" x14ac:dyDescent="0.25">
@@ -26273,7 +26273,7 @@
         <v>54.531672422291997</v>
       </c>
       <c r="E280" s="28">
-        <v>68.686351167048997</v>
+        <v>86.547308609902004</v>
       </c>
     </row>
     <row r="281" spans="4:5" x14ac:dyDescent="0.25">
@@ -26281,7 +26281,7 @@
         <v>189.47982602302201</v>
       </c>
       <c r="E281" s="28">
-        <v>57.049517205161997</v>
+        <v>772.37418603027504</v>
       </c>
     </row>
     <row r="282" spans="4:5" x14ac:dyDescent="0.25">
@@ -26289,7 +26289,7 @@
         <v>27.613501252489002</v>
       </c>
       <c r="E282" s="28">
-        <v>203.60970875227801</v>
+        <v>105.230057061927</v>
       </c>
     </row>
     <row r="283" spans="4:5" x14ac:dyDescent="0.25">
@@ -26297,7 +26297,7 @@
         <v>1.473610675207</v>
       </c>
       <c r="E283" s="28">
-        <v>264.04169906060901</v>
+        <v>0.71166666666900003</v>
       </c>
     </row>
     <row r="284" spans="4:5" x14ac:dyDescent="0.25">
@@ -26305,7 +26305,7 @@
         <v>0.71166666666900003</v>
       </c>
       <c r="E284" s="28">
-        <v>265.73575820277699</v>
+        <v>115.712892909158</v>
       </c>
     </row>
     <row r="285" spans="4:5" x14ac:dyDescent="0.25">
@@ -26313,7 +26313,7 @@
         <v>0.61000000000200005</v>
       </c>
       <c r="E285" s="28">
-        <v>48.902226190626003</v>
+        <v>0.61000000000200005</v>
       </c>
     </row>
     <row r="286" spans="4:5" x14ac:dyDescent="0.25">
@@ -26321,7 +26321,7 @@
         <v>68.518522592040995</v>
       </c>
       <c r="E286" s="28">
-        <v>0.61000000000200005</v>
+        <v>0.50833333333499997</v>
       </c>
     </row>
     <row r="287" spans="4:5" x14ac:dyDescent="0.25">
@@ -26329,7 +26329,7 @@
         <v>150.71288594820601</v>
       </c>
       <c r="E287" s="28">
-        <v>121.944464383341</v>
+        <v>47.373139734789</v>
       </c>
     </row>
     <row r="288" spans="4:5" x14ac:dyDescent="0.25">
@@ -26337,7 +26337,7 @@
         <v>378.42088643202197</v>
       </c>
       <c r="E288" s="28">
-        <v>7.0187516276709996</v>
+        <v>214.264040490637</v>
       </c>
     </row>
     <row r="289" spans="4:5" x14ac:dyDescent="0.25">
@@ -26345,7 +26345,7 @@
         <v>265.71086949458498</v>
       </c>
       <c r="E289" s="28">
-        <v>60.165754607775</v>
+        <v>45.930963908734</v>
       </c>
     </row>
     <row r="290" spans="4:5" x14ac:dyDescent="0.25">
@@ -26353,7 +26353,7 @@
         <v>92.824183991387002</v>
       </c>
       <c r="E290" s="28">
-        <v>26.207313974331999</v>
+        <v>0.61000000000200005</v>
       </c>
     </row>
     <row r="291" spans="4:5" x14ac:dyDescent="0.25">
@@ -26361,7 +26361,7 @@
         <v>482.62354634600501</v>
       </c>
       <c r="E291" s="28">
-        <v>0.406666666668</v>
+        <v>183.599373798307</v>
       </c>
     </row>
     <row r="292" spans="4:5" x14ac:dyDescent="0.25">
@@ -26369,7 +26369,7 @@
         <v>201.896538815414</v>
       </c>
       <c r="E292" s="28">
-        <v>0.61000000000200005</v>
+        <v>419.69758056048403</v>
       </c>
     </row>
     <row r="293" spans="4:5" x14ac:dyDescent="0.25">
@@ -26377,7 +26377,7 @@
         <v>8.9322940805149997</v>
       </c>
       <c r="E293" s="28">
-        <v>145.27084960362001</v>
+        <v>43.502905657294001</v>
       </c>
     </row>
     <row r="294" spans="4:5" x14ac:dyDescent="0.25">
@@ -26385,7 +26385,7 @@
         <v>9.667507891763</v>
       </c>
       <c r="E294" s="28">
-        <v>29.983384804473999</v>
+        <v>0.61000000000200005</v>
       </c>
     </row>
     <row r="295" spans="4:5" x14ac:dyDescent="0.25">
@@ -26393,7 +26393,7 @@
         <v>86.145587607680994</v>
       </c>
       <c r="E295" s="28">
-        <v>0.71166666666900003</v>
+        <v>48.680284094374002</v>
       </c>
     </row>
     <row r="296" spans="4:5" x14ac:dyDescent="0.25">
@@ -26401,7 +26401,7 @@
         <v>169.440624297287</v>
       </c>
       <c r="E296" s="28">
-        <v>186.683973504725</v>
+        <v>160.025309125077</v>
       </c>
     </row>
     <row r="297" spans="4:5" x14ac:dyDescent="0.25">
@@ -26409,7 +26409,7 @@
         <v>35.947251468135001</v>
       </c>
       <c r="E297" s="28">
-        <v>144.477786731897</v>
+        <v>239.48849496018201</v>
       </c>
     </row>
     <row r="298" spans="4:5" x14ac:dyDescent="0.25">
@@ -26417,7 +26417,7 @@
         <v>106.290797533141</v>
       </c>
       <c r="E298" s="28">
-        <v>0.50833333333499997</v>
+        <v>197.72601288602601</v>
       </c>
     </row>
     <row r="299" spans="4:5" x14ac:dyDescent="0.25">
@@ -26425,7 +26425,7 @@
         <v>49.708926530870002</v>
       </c>
       <c r="E299" s="28">
-        <v>134.24748733764901</v>
+        <v>151.786985792613</v>
       </c>
     </row>
     <row r="300" spans="4:5" x14ac:dyDescent="0.25">
@@ -26433,7 +26433,7 @@
         <v>0.50833333333499997</v>
       </c>
       <c r="E300" s="28">
-        <v>196.302735409664</v>
+        <v>22.862068429655999</v>
       </c>
     </row>
     <row r="301" spans="4:5" x14ac:dyDescent="0.25">
@@ -26441,7 +26441,7 @@
         <v>5.0116629544439997</v>
       </c>
       <c r="E301" s="28">
-        <v>70.052438876655003</v>
+        <v>38.765733947325003</v>
       </c>
     </row>
     <row r="302" spans="4:5" x14ac:dyDescent="0.25">
@@ -26449,7 +26449,7 @@
         <v>38.288272992453997</v>
       </c>
       <c r="E302" s="28">
-        <v>32.631516720973003</v>
+        <v>0.61000000000200005</v>
       </c>
     </row>
     <row r="303" spans="4:5" x14ac:dyDescent="0.25">
@@ -26457,7 +26457,7 @@
         <v>290.56059720424201</v>
       </c>
       <c r="E303" s="28">
-        <v>37.817192250771001</v>
+        <v>13.858372783833</v>
       </c>
     </row>
     <row r="304" spans="4:5" x14ac:dyDescent="0.25">
@@ -26465,7 +26465,7 @@
         <v>78.875968592253002</v>
       </c>
       <c r="E304" s="28">
-        <v>342.65785628776302</v>
+        <v>232.862277386465</v>
       </c>
     </row>
     <row r="305" spans="4:5" x14ac:dyDescent="0.25">
@@ -26473,7 +26473,7 @@
         <v>0.50833333333499997</v>
       </c>
       <c r="E305" s="28">
-        <v>0.61000000000200005</v>
+        <v>220.266429688307</v>
       </c>
     </row>
     <row r="306" spans="4:5" x14ac:dyDescent="0.25">
@@ -26481,7 +26481,7 @@
         <v>84.321330108717007</v>
       </c>
       <c r="E306" s="28">
-        <v>2.3465455950490002</v>
+        <v>83.171151022670998</v>
       </c>
     </row>
     <row r="307" spans="4:5" x14ac:dyDescent="0.25">
@@ -26489,7 +26489,7 @@
         <v>83.309990981341997</v>
       </c>
       <c r="E307" s="28">
-        <v>3.0131103635950001</v>
+        <v>150.31034729608899</v>
       </c>
     </row>
     <row r="308" spans="4:5" x14ac:dyDescent="0.25">
@@ -26497,7 +26497,7 @@
         <v>55.634495645031002</v>
       </c>
       <c r="E308" s="28">
-        <v>172.87295435075001</v>
+        <v>207.191465324343</v>
       </c>
     </row>
     <row r="309" spans="4:5" x14ac:dyDescent="0.25">
@@ -26505,7 +26505,7 @@
         <v>191.68093477911501</v>
       </c>
       <c r="E309" s="28">
-        <v>0.61000000000200005</v>
+        <v>256.01044732653901</v>
       </c>
     </row>
     <row r="310" spans="4:5" x14ac:dyDescent="0.25">
@@ -26513,7 +26513,7 @@
         <v>33.060863381628003</v>
       </c>
       <c r="E310" s="28">
-        <v>9.4325444962820004</v>
+        <v>234.64357130464299</v>
       </c>
     </row>
     <row r="311" spans="4:5" x14ac:dyDescent="0.25">
@@ -26521,7 +26521,7 @@
         <v>156.51269289990799</v>
       </c>
       <c r="E311" s="28">
-        <v>142.70749684607799</v>
+        <v>155.05741699851501</v>
       </c>
     </row>
     <row r="312" spans="4:5" x14ac:dyDescent="0.25">
@@ -26529,7 +26529,7 @@
         <v>0.71166666666900003</v>
       </c>
       <c r="E312" s="28">
-        <v>65.593912044556006</v>
+        <v>68.547868754643005</v>
       </c>
     </row>
     <row r="313" spans="4:5" x14ac:dyDescent="0.25">
@@ -26537,7 +26537,7 @@
         <v>255.61030810366901</v>
       </c>
       <c r="E313" s="28">
-        <v>81.372138340869995</v>
+        <v>0.71166666666900003</v>
       </c>
     </row>
     <row r="314" spans="4:5" x14ac:dyDescent="0.25">
@@ -26545,7 +26545,7 @@
         <v>226.29704131282</v>
       </c>
       <c r="E314" s="28">
-        <v>208.60600942132399</v>
+        <v>72.504423032798002</v>
       </c>
     </row>
     <row r="315" spans="4:5" x14ac:dyDescent="0.25">
@@ -26553,7 +26553,7 @@
         <v>0.71166666666900003</v>
       </c>
       <c r="E315" s="28">
-        <v>90.355904896397007</v>
+        <v>24.334692415414999</v>
       </c>
     </row>
     <row r="316" spans="4:5" x14ac:dyDescent="0.25">
@@ -26561,7 +26561,7 @@
         <v>233.48772333540001</v>
       </c>
       <c r="E316" s="28">
-        <v>270.33903227703797</v>
+        <v>113.789113423437</v>
       </c>
     </row>
     <row r="317" spans="4:5" x14ac:dyDescent="0.25">
@@ -26569,7 +26569,7 @@
         <v>88.453196018903995</v>
       </c>
       <c r="E317" s="28">
-        <v>258.38667300916001</v>
+        <v>80.174252108972993</v>
       </c>
     </row>
     <row r="318" spans="4:5" x14ac:dyDescent="0.25">
@@ -26577,7 +26577,7 @@
         <v>123.528139512601</v>
       </c>
       <c r="E318" s="28">
-        <v>228.755685174089</v>
+        <v>33.725106859588003</v>
       </c>
     </row>
     <row r="319" spans="4:5" x14ac:dyDescent="0.25">
@@ -26585,7 +26585,7 @@
         <v>30.149350126047999</v>
       </c>
       <c r="E319" s="28">
-        <v>122.358035451788</v>
+        <v>118.487698816052</v>
       </c>
     </row>
     <row r="320" spans="4:5" x14ac:dyDescent="0.25">
@@ -26593,7 +26593,7 @@
         <v>141.498579384251</v>
       </c>
       <c r="E320" s="28">
-        <v>38.871349433912002</v>
+        <v>202.574142958615</v>
       </c>
     </row>
     <row r="321" spans="4:5" x14ac:dyDescent="0.25">
@@ -26601,7 +26601,7 @@
         <v>137.039955737719</v>
       </c>
       <c r="E321" s="28">
-        <v>108.680568404707</v>
+        <v>127.79893038467</v>
       </c>
     </row>
     <row r="322" spans="4:5" x14ac:dyDescent="0.25">
@@ -26609,7 +26609,7 @@
         <v>182.93972719333601</v>
       </c>
       <c r="E322" s="28">
-        <v>82.766536983471994</v>
+        <v>28.415043110313999</v>
       </c>
     </row>
     <row r="323" spans="4:5" x14ac:dyDescent="0.25">
@@ -26617,7 +26617,7 @@
         <v>49.894371093830998</v>
       </c>
       <c r="E323" s="28">
-        <v>119.882835871963</v>
+        <v>60.508523560147999</v>
       </c>
     </row>
     <row r="324" spans="4:5" x14ac:dyDescent="0.25">
@@ -26625,7 +26625,7 @@
         <v>41.139190822289002</v>
       </c>
       <c r="E324" s="28">
-        <v>138.04116112278101</v>
+        <v>99.747480984424996</v>
       </c>
     </row>
     <row r="325" spans="4:5" x14ac:dyDescent="0.25">
@@ -26633,7 +26633,7 @@
         <v>76.312158392228</v>
       </c>
       <c r="E325" s="28">
-        <v>235.707210047594</v>
+        <v>155.92482507015399</v>
       </c>
     </row>
     <row r="326" spans="4:5" x14ac:dyDescent="0.25">
@@ -26641,7 +26641,7 @@
         <v>67.942830621544005</v>
       </c>
       <c r="E326" s="28">
-        <v>254.57504381191299</v>
+        <v>59.394636486068002</v>
       </c>
     </row>
     <row r="327" spans="4:5" x14ac:dyDescent="0.25">
@@ -26649,7 +26649,7 @@
         <v>332.15831171563099</v>
       </c>
       <c r="E327" s="28">
-        <v>214.214299232499</v>
+        <v>55.485011068249001</v>
       </c>
     </row>
     <row r="328" spans="4:5" x14ac:dyDescent="0.25">
@@ -26657,7 +26657,7 @@
         <v>0.71166666666900003</v>
       </c>
       <c r="E328" s="28">
-        <v>201.830703135151</v>
+        <v>37.799003718469002</v>
       </c>
     </row>
     <row r="329" spans="4:5" x14ac:dyDescent="0.25">
@@ -26665,7 +26665,7 @@
         <v>332.41693547022999</v>
       </c>
       <c r="E329" s="28">
-        <v>0.71166666666900003</v>
+        <v>290.30666505601403</v>
       </c>
     </row>
     <row r="330" spans="4:5" x14ac:dyDescent="0.25">
@@ -26673,7 +26673,7 @@
         <v>37.414028865900001</v>
       </c>
       <c r="E330" s="28">
-        <v>106.762793901694</v>
+        <v>89.887168827411003</v>
       </c>
     </row>
     <row r="331" spans="4:5" x14ac:dyDescent="0.25">
@@ -26681,7 +26681,7 @@
         <v>64.190004209007</v>
       </c>
       <c r="E331" s="28">
-        <v>45.807328020192998</v>
+        <v>405.884217743276</v>
       </c>
     </row>
     <row r="332" spans="4:5" x14ac:dyDescent="0.25">
@@ -26689,7 +26689,7 @@
         <v>98.454284250813998</v>
       </c>
       <c r="E332" s="28">
-        <v>150.99221723578199</v>
+        <v>0.61000000000200005</v>
       </c>
     </row>
     <row r="333" spans="4:5" x14ac:dyDescent="0.25">
@@ -26697,7 +26697,7 @@
         <v>266.34185130009098</v>
       </c>
       <c r="E333" s="28">
-        <v>121.872565736393</v>
+        <v>69.885878732969005</v>
       </c>
     </row>
     <row r="334" spans="4:5" x14ac:dyDescent="0.25">
@@ -26705,7 +26705,7 @@
         <v>107.30594087387399</v>
       </c>
       <c r="E334" s="28">
-        <v>174.71389229488099</v>
+        <v>15.492416321028999</v>
       </c>
     </row>
     <row r="335" spans="4:5" x14ac:dyDescent="0.25">
@@ -26713,7 +26713,7 @@
         <v>94.716892559925995</v>
       </c>
       <c r="E335" s="28">
-        <v>85.180955124072995</v>
+        <v>164.42831219989199</v>
       </c>
     </row>
     <row r="336" spans="4:5" x14ac:dyDescent="0.25">
@@ -26721,7 +26721,7 @@
         <v>64.266862715078005</v>
       </c>
       <c r="E336" s="28">
-        <v>378.702621972538</v>
+        <v>51.806656836507997</v>
       </c>
     </row>
     <row r="337" spans="4:5" x14ac:dyDescent="0.25">
@@ -26729,7 +26729,7 @@
         <v>79.603767354669998</v>
       </c>
       <c r="E337" s="28">
-        <v>138.69905174842299</v>
+        <v>167.271014252946</v>
       </c>
     </row>
     <row r="338" spans="4:5" x14ac:dyDescent="0.25">
@@ -26737,7 +26737,7 @@
         <v>130.56935937748099</v>
       </c>
       <c r="E338" s="28">
-        <v>170.69127809863201</v>
+        <v>70.059029336372006</v>
       </c>
     </row>
     <row r="339" spans="4:5" x14ac:dyDescent="0.25">
@@ -26745,7 +26745,7 @@
         <v>27.295830714590998</v>
       </c>
       <c r="E339" s="28">
-        <v>169.53669162459701</v>
+        <v>236.692513934239</v>
       </c>
     </row>
     <row r="340" spans="4:5" x14ac:dyDescent="0.25">
@@ -26753,7 +26753,7 @@
         <v>64.049436822013007</v>
       </c>
       <c r="E340" s="28">
-        <v>43.490204621785999</v>
+        <v>108.806339021761</v>
       </c>
     </row>
     <row r="341" spans="4:5" x14ac:dyDescent="0.25">
@@ -26761,7 +26761,7 @@
         <v>83.969617251523005</v>
       </c>
       <c r="E341" s="28">
-        <v>187.85923379366099</v>
+        <v>62.195985351910998</v>
       </c>
     </row>
     <row r="342" spans="4:5" x14ac:dyDescent="0.25">
@@ -26769,7 +26769,7 @@
         <v>0.71166666666900003</v>
       </c>
       <c r="E342" s="28">
-        <v>77.259857821097995</v>
+        <v>19.527173836330999</v>
       </c>
     </row>
     <row r="343" spans="4:5" x14ac:dyDescent="0.25">
@@ -26777,7 +26777,7 @@
         <v>110.57594704786401</v>
       </c>
       <c r="E343" s="28">
-        <v>53.418065340266999</v>
+        <v>149.49619801803399</v>
       </c>
     </row>
     <row r="344" spans="4:5" x14ac:dyDescent="0.25">
@@ -26785,7 +26785,7 @@
         <v>51.056096318192999</v>
       </c>
       <c r="E344" s="28">
-        <v>60.896407516216001</v>
+        <v>181.87864466030501</v>
       </c>
     </row>
     <row r="345" spans="4:5" x14ac:dyDescent="0.25">
@@ -26793,7 +26793,7 @@
         <v>148.974943544057</v>
       </c>
       <c r="E345" s="28">
-        <v>16.440208411023999</v>
+        <v>46.578454697418003</v>
       </c>
     </row>
     <row r="346" spans="4:5" x14ac:dyDescent="0.25">
@@ -26801,7 +26801,7 @@
         <v>45.619041141766999</v>
       </c>
       <c r="E346" s="28">
-        <v>91.908738095158</v>
+        <v>126.115492578212</v>
       </c>
     </row>
     <row r="347" spans="4:5" x14ac:dyDescent="0.25">
@@ -26809,7 +26809,7 @@
         <v>288.193233571088</v>
       </c>
       <c r="E347" s="28">
-        <v>256.946540786242</v>
+        <v>139.563939055384</v>
       </c>
     </row>
     <row r="348" spans="4:5" x14ac:dyDescent="0.25">
@@ -26817,7 +26817,7 @@
         <v>96.372668236772995</v>
       </c>
       <c r="E348" s="28">
-        <v>33.663553460926998</v>
+        <v>77.501238222153006</v>
       </c>
     </row>
     <row r="349" spans="4:5" x14ac:dyDescent="0.25">
@@ -26825,7 +26825,7 @@
         <v>37.187565114298003</v>
       </c>
       <c r="E349" s="28">
-        <v>0.61000000000200005</v>
+        <v>83.754697472710006</v>
       </c>
     </row>
     <row r="350" spans="4:5" x14ac:dyDescent="0.25">
@@ -26833,7 +26833,7 @@
         <v>234.15027976847401</v>
       </c>
       <c r="E350" s="28">
-        <v>166.504778030913</v>
+        <v>124.83262265621801</v>
       </c>
     </row>
     <row r="351" spans="4:5" x14ac:dyDescent="0.25">
@@ -26841,7 +26841,7 @@
         <v>227.58193314936099</v>
       </c>
       <c r="E351" s="28">
-        <v>183.85830165716999</v>
+        <v>184.96903173692499</v>
       </c>
     </row>
     <row r="352" spans="4:5" x14ac:dyDescent="0.25">
@@ -26849,7 +26849,7 @@
         <v>19.378734024452999</v>
       </c>
       <c r="E352" s="28">
-        <v>24.182868781596</v>
+        <v>15.839027976429</v>
       </c>
     </row>
     <row r="353" spans="4:5" x14ac:dyDescent="0.25">
@@ -26857,7 +26857,7 @@
         <v>62.087997820067002</v>
       </c>
       <c r="E353" s="28">
-        <v>69.666547828166003</v>
+        <v>184.99394823618101</v>
       </c>
     </row>
     <row r="354" spans="4:5" x14ac:dyDescent="0.25">
@@ -26865,7 +26865,7 @@
         <v>124.06871384717</v>
       </c>
       <c r="E354" s="28">
-        <v>144.80415183579899</v>
+        <v>184.971250583673</v>
       </c>
     </row>
     <row r="355" spans="4:5" x14ac:dyDescent="0.25">
@@ -26873,7 +26873,7 @@
         <v>0.50833333333499997</v>
       </c>
       <c r="E355" s="28">
-        <v>478.121074703521</v>
+        <v>136.21071024144999</v>
       </c>
     </row>
     <row r="356" spans="4:5" x14ac:dyDescent="0.25">
@@ -26881,7 +26881,7 @@
         <v>0.61000000000200005</v>
       </c>
       <c r="E356" s="28">
-        <v>0.813333333336</v>
+        <v>43.984891001179001</v>
       </c>
     </row>
     <row r="357" spans="4:5" x14ac:dyDescent="0.25">
@@ -26889,7 +26889,7 @@
         <v>233.21507499109299</v>
       </c>
       <c r="E357" s="28">
-        <v>37.217368320010003</v>
+        <v>0.71166666666900003</v>
       </c>
     </row>
     <row r="358" spans="4:5" x14ac:dyDescent="0.25">
@@ -26897,7 +26897,7 @@
         <v>132.556003578131</v>
       </c>
       <c r="E358" s="28">
-        <v>273.017984054919</v>
+        <v>316.59133284557299</v>
       </c>
     </row>
     <row r="359" spans="4:5" x14ac:dyDescent="0.25">
@@ -26905,7 +26905,7 @@
         <v>71.666227396596994</v>
       </c>
       <c r="E359" s="28">
-        <v>203.92216495380899</v>
+        <v>106.43848223281201</v>
       </c>
     </row>
     <row r="360" spans="4:5" x14ac:dyDescent="0.25">
@@ -26913,7 +26913,7 @@
         <v>217.135777500709</v>
       </c>
       <c r="E360" s="28">
-        <v>17.496090278286999</v>
+        <v>48.719275300402003</v>
       </c>
     </row>
     <row r="361" spans="4:5" x14ac:dyDescent="0.25">
@@ -26921,7 +26921,7 @@
         <v>266.41838853765699</v>
       </c>
       <c r="E361" s="28">
-        <v>14.299160870766</v>
+        <v>232.12099775731599</v>
       </c>
     </row>
     <row r="362" spans="4:5" x14ac:dyDescent="0.25">
@@ -26929,7 +26929,7 @@
         <v>0.71166666666900003</v>
       </c>
       <c r="E362" s="28">
-        <v>120.52948672842101</v>
+        <v>106.080369317727</v>
       </c>
     </row>
     <row r="363" spans="4:5" x14ac:dyDescent="0.25">
@@ -26937,7 +26937,7 @@
         <v>68.331741248404995</v>
       </c>
       <c r="E363" s="28">
-        <v>174.71137354292401</v>
+        <v>391.11202021126701</v>
       </c>
     </row>
     <row r="364" spans="4:5" x14ac:dyDescent="0.25">
@@ -26945,7 +26945,7 @@
         <v>0.61000000000200005</v>
       </c>
       <c r="E364" s="28">
-        <v>148.75733366410901</v>
+        <v>87.100317278258998</v>
       </c>
     </row>
     <row r="365" spans="4:5" x14ac:dyDescent="0.25">
@@ -26953,7 +26953,7 @@
         <v>53.553669933838002</v>
       </c>
       <c r="E365" s="28">
-        <v>162.391892565901</v>
+        <v>70.296348413469005</v>
       </c>
     </row>
     <row r="366" spans="4:5" x14ac:dyDescent="0.25">
@@ -26961,7 +26961,7 @@
         <v>78.484763992336994</v>
       </c>
       <c r="E366" s="28">
-        <v>65.223525492090999</v>
+        <v>52.556250718106</v>
       </c>
     </row>
     <row r="367" spans="4:5" x14ac:dyDescent="0.25">
@@ -26969,7 +26969,7 @@
         <v>86.570151183492996</v>
       </c>
       <c r="E367" s="28">
-        <v>121.02452086330101</v>
+        <v>248.84963399198</v>
       </c>
     </row>
     <row r="368" spans="4:5" x14ac:dyDescent="0.25">
@@ -26977,7 +26977,7 @@
         <v>136.72099226057199</v>
       </c>
       <c r="E368" s="28">
-        <v>24.707714016063999</v>
+        <v>104.53347026302001</v>
       </c>
     </row>
     <row r="369" spans="4:5" x14ac:dyDescent="0.25">
@@ -26985,7 +26985,7 @@
         <v>85.783673037122995</v>
       </c>
       <c r="E369" s="28">
-        <v>66.651762604477995</v>
+        <v>113.04198502950899</v>
       </c>
     </row>
     <row r="370" spans="4:5" x14ac:dyDescent="0.25">
@@ -26993,7 +26993,7 @@
         <v>136.49032775674399</v>
       </c>
       <c r="E370" s="28">
-        <v>121.246015031944</v>
+        <v>200.67139597699199</v>
       </c>
     </row>
     <row r="371" spans="4:5" x14ac:dyDescent="0.25">
@@ -27001,7 +27001,7 @@
         <v>266.59903143947503</v>
       </c>
       <c r="E371" s="28">
-        <v>130.27817939904199</v>
+        <v>116.81591916678499</v>
       </c>
     </row>
     <row r="372" spans="4:5" x14ac:dyDescent="0.25">
@@ -27009,7 +27009,7 @@
         <v>201.77534916411199</v>
       </c>
       <c r="E372" s="28">
-        <v>33.664295128855002</v>
+        <v>126.823749627173</v>
       </c>
     </row>
     <row r="373" spans="4:5" x14ac:dyDescent="0.25">
@@ -27017,7 +27017,7 @@
         <v>307.85501735870997</v>
       </c>
       <c r="E373" s="28">
-        <v>188.093426476757</v>
+        <v>110.288691403862</v>
       </c>
     </row>
     <row r="374" spans="4:5" x14ac:dyDescent="0.25">
@@ -27025,7 +27025,7 @@
         <v>9.6576683022589993</v>
       </c>
       <c r="E374" s="28">
-        <v>68.675663582463997</v>
+        <v>67.649782742856999</v>
       </c>
     </row>
     <row r="375" spans="4:5" x14ac:dyDescent="0.25">
@@ -27033,7 +27033,7 @@
         <v>35.061674454563999</v>
       </c>
       <c r="E375" s="28">
-        <v>25.836325840452002</v>
+        <v>58.356973697378997</v>
       </c>
     </row>
     <row r="376" spans="4:5" x14ac:dyDescent="0.25">
@@ -27041,7 +27041,7 @@
         <v>162.06278319988101</v>
       </c>
       <c r="E376" s="28">
-        <v>43.685972481115002</v>
+        <v>47.495817508233003</v>
       </c>
     </row>
     <row r="377" spans="4:5" x14ac:dyDescent="0.25">
@@ -27049,7 +27049,7 @@
         <v>0.61000000000200005</v>
       </c>
       <c r="E377" s="28">
-        <v>173.05086194319301</v>
+        <v>185.745887874321</v>
       </c>
     </row>
     <row r="378" spans="4:5" x14ac:dyDescent="0.25">
@@ -27057,7 +27057,7 @@
         <v>173.84374889441099</v>
       </c>
       <c r="E378" s="28">
-        <v>68.776682002415001</v>
+        <v>158.93494903068299</v>
       </c>
     </row>
     <row r="379" spans="4:5" x14ac:dyDescent="0.25">
@@ -27065,7 +27065,7 @@
         <v>147.946099387033</v>
       </c>
       <c r="E379" s="28">
-        <v>16.368721337002999</v>
+        <v>3.4965378942190002</v>
       </c>
     </row>
     <row r="380" spans="4:5" x14ac:dyDescent="0.25">
@@ -27073,7 +27073,7 @@
         <v>41.430420661196003</v>
       </c>
       <c r="E380" s="28">
-        <v>105.463640045091</v>
+        <v>160.33009776697699</v>
       </c>
     </row>
     <row r="381" spans="4:5" x14ac:dyDescent="0.25">
@@ -27081,7 +27081,7 @@
         <v>236.52662665872001</v>
       </c>
       <c r="E381" s="28">
-        <v>0.61000000000200005</v>
+        <v>414.09919968436299</v>
       </c>
     </row>
     <row r="382" spans="4:5" x14ac:dyDescent="0.25">
@@ -27089,7 +27089,7 @@
         <v>287.23228450641699</v>
       </c>
       <c r="E382" s="28">
-        <v>57.935290098903998</v>
+        <v>73.449681947518997</v>
       </c>
     </row>
     <row r="383" spans="4:5" x14ac:dyDescent="0.25">
@@ -27097,7 +27097,7 @@
         <v>23.989346559474001</v>
       </c>
       <c r="E383" s="28">
-        <v>21.343571047310999</v>
+        <v>103.863574402117</v>
       </c>
     </row>
     <row r="384" spans="4:5" x14ac:dyDescent="0.25">
@@ -27105,7 +27105,7 @@
         <v>240.000720007366</v>
       </c>
       <c r="E384" s="28">
-        <v>112.76293787947699</v>
+        <v>45.598556041434001</v>
       </c>
     </row>
     <row r="385" spans="4:5" x14ac:dyDescent="0.25">
@@ -27113,7 +27113,7 @@
         <v>114.01302439338799</v>
       </c>
       <c r="E385" s="28">
-        <v>45.567036636217999</v>
+        <v>90.035622207265007</v>
       </c>
     </row>
     <row r="386" spans="4:5" x14ac:dyDescent="0.25">
@@ -27121,7 +27121,7 @@
         <v>19.895305052876999</v>
       </c>
       <c r="E386" s="28">
-        <v>6.0965689529849998</v>
+        <v>332.20444672009</v>
       </c>
     </row>
     <row r="387" spans="4:5" x14ac:dyDescent="0.25">
@@ -27129,7 +27129,7 @@
         <v>38.002890155290999</v>
       </c>
       <c r="E387" s="28">
-        <v>355.93414885371499</v>
+        <v>123.286604755209</v>
       </c>
     </row>
     <row r="388" spans="4:5" x14ac:dyDescent="0.25">
@@ -27137,7 +27137,7 @@
         <v>166.787121234023</v>
       </c>
       <c r="E388" s="28">
-        <v>22.498192299568998</v>
+        <v>187.33967731965299</v>
       </c>
     </row>
     <row r="389" spans="4:5" x14ac:dyDescent="0.25">
@@ -27145,7 +27145,7 @@
         <v>141.14215849279199</v>
       </c>
       <c r="E389" s="28">
-        <v>159.559930735363</v>
+        <v>48.616814848715997</v>
       </c>
     </row>
     <row r="390" spans="4:5" x14ac:dyDescent="0.25">
@@ -27153,7 +27153,7 @@
         <v>233.467383380222</v>
       </c>
       <c r="E390" s="28">
-        <v>52.000752462024998</v>
+        <v>472.86287446276299</v>
       </c>
     </row>
     <row r="391" spans="4:5" x14ac:dyDescent="0.25">
@@ -27161,7 +27161,7 @@
         <v>109.466388954745</v>
       </c>
       <c r="E391" s="28">
-        <v>373.88951396929502</v>
+        <v>272.91151133397301</v>
       </c>
     </row>
     <row r="392" spans="4:5" x14ac:dyDescent="0.25">
@@ -27169,7 +27169,7 @@
         <v>387.68896056196598</v>
       </c>
       <c r="E392" s="28">
-        <v>163.62608326082301</v>
+        <v>53.259085657447997</v>
       </c>
     </row>
     <row r="393" spans="4:5" x14ac:dyDescent="0.25">
@@ -27177,7 +27177,7 @@
         <v>229.229676492799</v>
       </c>
       <c r="E393" s="28">
-        <v>414.57078064890101</v>
+        <v>90.066062255278993</v>
       </c>
     </row>
     <row r="394" spans="4:5" x14ac:dyDescent="0.25">
@@ -27185,7 +27185,7 @@
         <v>221.14979634649799</v>
       </c>
       <c r="E394" s="28">
-        <v>117.907122715987</v>
+        <v>236.20379866645399</v>
       </c>
     </row>
     <row r="395" spans="4:5" x14ac:dyDescent="0.25">
@@ -27193,7 +27193,7 @@
         <v>122.72499605986</v>
       </c>
       <c r="E395" s="28">
-        <v>207.259931167487</v>
+        <v>74.040099054823997</v>
       </c>
     </row>
     <row r="396" spans="4:5" x14ac:dyDescent="0.25">
@@ -27201,7 +27201,7 @@
         <v>52.103777391339001</v>
       </c>
       <c r="E396" s="28">
-        <v>167.48398373990401</v>
+        <v>83.522800404910996</v>
       </c>
     </row>
     <row r="397" spans="4:5" x14ac:dyDescent="0.25">
@@ -27209,7 +27209,7 @@
         <v>25.683315473684001</v>
       </c>
       <c r="E397" s="28">
-        <v>162.104360212584</v>
+        <v>33.131216993206003</v>
       </c>
     </row>
     <row r="398" spans="4:5" x14ac:dyDescent="0.25">
@@ -27217,7 +27217,7 @@
         <v>46.869827811915997</v>
       </c>
       <c r="E398" s="28">
-        <v>179.569315334203</v>
+        <v>45.037489455276003</v>
       </c>
     </row>
     <row r="399" spans="4:5" x14ac:dyDescent="0.25">
@@ -27225,7 +27225,7 @@
         <v>136.72054263662</v>
       </c>
       <c r="E399" s="28">
-        <v>241.08361856322901</v>
+        <v>247.25749121914799</v>
       </c>
     </row>
     <row r="400" spans="4:5" x14ac:dyDescent="0.25">
@@ -27233,7 +27233,7 @@
         <v>168.01122895959</v>
       </c>
       <c r="E400" s="28">
-        <v>162.51924546909001</v>
+        <v>167.38446353557001</v>
       </c>
     </row>
     <row r="401" spans="4:5" x14ac:dyDescent="0.25">
@@ -27241,7 +27241,7 @@
         <v>217.02835013695801</v>
       </c>
       <c r="E401" s="28">
-        <v>0.61000000000200005</v>
+        <v>35.405543206882001</v>
       </c>
     </row>
     <row r="402" spans="4:5" x14ac:dyDescent="0.25">
@@ -27249,7 +27249,7 @@
         <v>100.664956911319</v>
       </c>
       <c r="E402" s="28">
-        <v>72.201294648174994</v>
+        <v>132.96167051674601</v>
       </c>
     </row>
     <row r="403" spans="4:5" x14ac:dyDescent="0.25">
@@ -27257,7 +27257,7 @@
         <v>144.42905125483301</v>
       </c>
       <c r="E403" s="28">
-        <v>180.54158237198399</v>
+        <v>19.116571387019999</v>
       </c>
     </row>
     <row r="404" spans="4:5" x14ac:dyDescent="0.25">
@@ -27265,7 +27265,7 @@
         <v>145.55296749401001</v>
       </c>
       <c r="E404" s="28">
-        <v>101.24199570158601</v>
+        <v>61.989126912434998</v>
       </c>
     </row>
     <row r="405" spans="4:5" x14ac:dyDescent="0.25">
@@ -27273,7 +27273,7 @@
         <v>169.80803661907001</v>
       </c>
       <c r="E405" s="28">
-        <v>8.982309113166</v>
+        <v>440.15156751087397</v>
       </c>
     </row>
     <row r="406" spans="4:5" x14ac:dyDescent="0.25">
@@ -27281,7 +27281,7 @@
         <v>123.76383675537301</v>
       </c>
       <c r="E406" s="28">
-        <v>199.24317771325201</v>
+        <v>36.157411189725003</v>
       </c>
     </row>
     <row r="407" spans="4:5" x14ac:dyDescent="0.25">
@@ -27289,7 +27289,7 @@
         <v>101.021561024409</v>
       </c>
       <c r="E407" s="28">
-        <v>112.50419482274</v>
+        <v>90.996701829154006</v>
       </c>
     </row>
     <row r="408" spans="4:5" x14ac:dyDescent="0.25">
@@ -27297,7 +27297,7 @@
         <v>177.78194113230899</v>
       </c>
       <c r="E408" s="28">
-        <v>69.168505820191001</v>
+        <v>221.02220901541901</v>
       </c>
     </row>
     <row r="409" spans="4:5" x14ac:dyDescent="0.25">
@@ -27305,7 +27305,7 @@
         <v>251.063023192542</v>
       </c>
       <c r="E409" s="28">
-        <v>0.61000000000200005</v>
+        <v>223.52475597090401</v>
       </c>
     </row>
     <row r="410" spans="4:5" x14ac:dyDescent="0.25">
@@ -27313,7 +27313,7 @@
         <v>121.61157878367101</v>
       </c>
       <c r="E410" s="28">
-        <v>188.94768314501101</v>
+        <v>236.740109327281</v>
       </c>
     </row>
     <row r="411" spans="4:5" x14ac:dyDescent="0.25">
@@ -27321,7 +27321,7 @@
         <v>93.126817855539002</v>
       </c>
       <c r="E411" s="28">
-        <v>161.607637504324</v>
+        <v>52.903418336911997</v>
       </c>
     </row>
     <row r="412" spans="4:5" x14ac:dyDescent="0.25">
@@ -27329,7 +27329,7 @@
         <v>47.332508534741002</v>
       </c>
       <c r="E412" s="28">
-        <v>91.686108594112994</v>
+        <v>229.786291612355</v>
       </c>
     </row>
     <row r="413" spans="4:5" x14ac:dyDescent="0.25">
@@ -27337,7 +27337,7 @@
         <v>100.84319407723601</v>
       </c>
       <c r="E413" s="28">
-        <v>0.71166666666900003</v>
+        <v>347.46027863583902</v>
       </c>
     </row>
     <row r="414" spans="4:5" x14ac:dyDescent="0.25">
@@ -27345,7 +27345,7 @@
         <v>130.86999998270099</v>
       </c>
       <c r="E414" s="28">
-        <v>47.621622015804</v>
+        <v>127.561628608253</v>
       </c>
     </row>
     <row r="415" spans="4:5" x14ac:dyDescent="0.25">
@@ -27353,7 +27353,7 @@
         <v>315.89834849087498</v>
       </c>
       <c r="E415" s="28">
-        <v>279.75337881012501</v>
+        <v>60.307426463995</v>
       </c>
     </row>
     <row r="416" spans="4:5" x14ac:dyDescent="0.25">
@@ -27361,7 +27361,7 @@
         <v>97.545131172699996</v>
       </c>
       <c r="E416" s="28">
-        <v>3.0587103575780001</v>
+        <v>174.769868771826</v>
       </c>
     </row>
     <row r="417" spans="4:5" x14ac:dyDescent="0.25">
@@ -27369,7 +27369,7 @@
         <v>218.89865145357501</v>
       </c>
       <c r="E417" s="28">
-        <v>154.32849748049401</v>
+        <v>93.111438059147005</v>
       </c>
     </row>
     <row r="418" spans="4:5" x14ac:dyDescent="0.25">
@@ -27377,7 +27377,7 @@
         <v>165.34611076495199</v>
       </c>
       <c r="E418" s="28">
-        <v>107.39794611853</v>
+        <v>168.856412673145</v>
       </c>
     </row>
     <row r="419" spans="4:5" x14ac:dyDescent="0.25">
@@ -27385,7 +27385,7 @@
         <v>108.43387133939299</v>
       </c>
       <c r="E419" s="28">
-        <v>110.07707163610699</v>
+        <v>113.63636624565299</v>
       </c>
     </row>
     <row r="420" spans="4:5" x14ac:dyDescent="0.25">
@@ -27393,7 +27393,7 @@
         <v>226.357817486953</v>
       </c>
       <c r="E420" s="28">
-        <v>15.246322188138</v>
+        <v>108.373277548416</v>
       </c>
     </row>
     <row r="421" spans="4:5" x14ac:dyDescent="0.25">
@@ -27401,1180 +27401,1858 @@
         <v>83.134411609877006</v>
       </c>
       <c r="E421" s="28">
-        <v>263.68986963746102</v>
+        <v>79.286065607742003</v>
       </c>
     </row>
     <row r="422" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D422" s="28">
         <v>80.759008138048998</v>
       </c>
+      <c r="E422" s="28">
+        <v>0.61000000000200005</v>
+      </c>
     </row>
     <row r="423" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D423" s="28">
         <v>144.067062788199</v>
       </c>
+      <c r="E423" s="28">
+        <v>43.72567937398</v>
+      </c>
     </row>
     <row r="424" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D424" s="28">
         <v>110.560331143716</v>
       </c>
+      <c r="E424" s="28">
+        <v>0.71166666666900003</v>
+      </c>
     </row>
     <row r="425" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D425" s="28">
         <v>289.87344828698099</v>
       </c>
+      <c r="E425" s="28">
+        <v>9.1899448256060001</v>
+      </c>
     </row>
     <row r="426" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D426" s="28">
         <v>42.367925620217001</v>
       </c>
+      <c r="E426" s="28">
+        <v>61.128352168897003</v>
+      </c>
     </row>
     <row r="427" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D427" s="28">
         <v>75.750478137995998</v>
       </c>
+      <c r="E427" s="28">
+        <v>97.067975219816006</v>
+      </c>
     </row>
     <row r="428" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D428" s="28">
         <v>153.66939174375801</v>
       </c>
+      <c r="E428" s="28">
+        <v>232.90431343194601</v>
+      </c>
     </row>
     <row r="429" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D429" s="28">
         <v>166.37014149716799</v>
       </c>
+      <c r="E429" s="28">
+        <v>197.663769211344</v>
+      </c>
     </row>
     <row r="430" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D430" s="28">
         <v>83.675265451577999</v>
       </c>
+      <c r="E430" s="28">
+        <v>78.380509667179993</v>
+      </c>
     </row>
     <row r="431" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D431" s="28">
         <v>229.64422445468099</v>
       </c>
+      <c r="E431" s="28">
+        <v>70.428402548993006</v>
+      </c>
     </row>
     <row r="432" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D432" s="28">
         <v>360.828031181293</v>
       </c>
-    </row>
-    <row r="433" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E432" s="28">
+        <v>281.93924007039698</v>
+      </c>
+    </row>
+    <row r="433" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D433" s="28">
         <v>170.57369740069799</v>
       </c>
-    </row>
-    <row r="434" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E433" s="28">
+        <v>141.33635116208899</v>
+      </c>
+    </row>
+    <row r="434" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D434" s="28">
         <v>145.159671802101</v>
       </c>
-    </row>
-    <row r="435" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E434" s="28">
+        <v>258.81440906795598</v>
+      </c>
+    </row>
+    <row r="435" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D435" s="28">
         <v>510.49971960140101</v>
       </c>
-    </row>
-    <row r="436" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E435" s="28">
+        <v>59.191810989182002</v>
+      </c>
+    </row>
+    <row r="436" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D436" s="28">
         <v>313.49382348537699</v>
       </c>
-    </row>
-    <row r="437" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E436" s="28">
+        <v>14.594580829167001</v>
+      </c>
+    </row>
+    <row r="437" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D437" s="28">
         <v>48.282941362838002</v>
       </c>
-    </row>
-    <row r="438" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E437" s="28">
+        <v>101.71923041861901</v>
+      </c>
+    </row>
+    <row r="438" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D438" s="28">
         <v>4.8175539363070001</v>
       </c>
-    </row>
-    <row r="439" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E438" s="28">
+        <v>259.07054090180901</v>
+      </c>
+    </row>
+    <row r="439" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D439" s="28">
         <v>131.18122248550301</v>
       </c>
-    </row>
-    <row r="440" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E439" s="28">
+        <v>97.160979139836002</v>
+      </c>
+    </row>
+    <row r="440" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D440" s="28">
         <v>93.902618414366003</v>
       </c>
-    </row>
-    <row r="441" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E440" s="28">
+        <v>157.254139488921</v>
+      </c>
+    </row>
+    <row r="441" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D441" s="28">
         <v>54.373142116746997</v>
       </c>
-    </row>
-    <row r="442" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E441" s="28">
+        <v>99.394643464443007</v>
+      </c>
+    </row>
+    <row r="442" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D442" s="28">
         <v>121.796983657194</v>
       </c>
-    </row>
-    <row r="443" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E442" s="28">
+        <v>82.261218035024996</v>
+      </c>
+    </row>
+    <row r="443" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D443" s="28">
         <v>98.296094766264005</v>
       </c>
-    </row>
-    <row r="444" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E443" s="28">
+        <v>166.724470625131</v>
+      </c>
+    </row>
+    <row r="444" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D444" s="28">
         <v>57.466795981609998</v>
       </c>
-    </row>
-    <row r="445" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E444" s="28">
+        <v>58.600725105644997</v>
+      </c>
+    </row>
+    <row r="445" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D445" s="28">
         <v>304.23536380064297</v>
       </c>
-    </row>
-    <row r="446" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E445" s="28">
+        <v>43.796690490071001</v>
+      </c>
+    </row>
+    <row r="446" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D446" s="28">
         <v>0.71166666666900003</v>
       </c>
-    </row>
-    <row r="447" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E446" s="28">
+        <v>107.379704100623</v>
+      </c>
+    </row>
+    <row r="447" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D447" s="28">
         <v>103.621875438701</v>
       </c>
-    </row>
-    <row r="448" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E447" s="28">
+        <v>375.86708702723899</v>
+      </c>
+    </row>
+    <row r="448" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D448" s="28">
         <v>0.61000000000200005</v>
       </c>
-    </row>
-    <row r="449" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E448" s="28">
+        <v>304.24830408533597</v>
+      </c>
+    </row>
+    <row r="449" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D449" s="28">
         <v>128.73626442526401</v>
       </c>
-    </row>
-    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E449" s="28">
+        <v>216.50644844302499</v>
+      </c>
+    </row>
+    <row r="450" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D450" s="28">
         <v>53.825017931752001</v>
       </c>
-    </row>
-    <row r="451" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E450" s="28">
+        <v>348.46908128371098</v>
+      </c>
+    </row>
+    <row r="451" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D451" s="28">
         <v>106.60894343063001</v>
       </c>
-    </row>
-    <row r="452" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E451" s="28">
+        <v>173.778328149229</v>
+      </c>
+    </row>
+    <row r="452" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D452" s="28">
         <v>131.04028812059499</v>
       </c>
-    </row>
-    <row r="453" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E452" s="28">
+        <v>90.739740150098996</v>
+      </c>
+    </row>
+    <row r="453" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D453" s="28">
         <v>159.695641526835</v>
       </c>
-    </row>
-    <row r="454" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E453" s="28">
+        <v>106.092336701921</v>
+      </c>
+    </row>
+    <row r="454" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D454" s="28">
         <v>5.6246628968619996</v>
       </c>
-    </row>
-    <row r="455" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E454" s="28">
+        <v>0.61000000000200005</v>
+      </c>
+    </row>
+    <row r="455" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D455" s="28">
         <v>93.215803902462994</v>
       </c>
-    </row>
-    <row r="456" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E455" s="28">
+        <v>137.456596918885</v>
+      </c>
+    </row>
+    <row r="456" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D456" s="28">
         <v>317.34858194282401</v>
       </c>
-    </row>
-    <row r="457" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E456" s="28">
+        <v>162.35674754073301</v>
+      </c>
+    </row>
+    <row r="457" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D457" s="28">
         <v>32.676296972152002</v>
       </c>
-    </row>
-    <row r="458" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E457" s="28">
+        <v>159.44430148600699</v>
+      </c>
+    </row>
+    <row r="458" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D458" s="28">
         <v>14.198653618345</v>
       </c>
-    </row>
-    <row r="459" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E458" s="28">
+        <v>21.670623555519001</v>
+      </c>
+    </row>
+    <row r="459" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D459" s="28">
         <v>62.382100535836003</v>
       </c>
-    </row>
-    <row r="460" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E459" s="28">
+        <v>28.372501136848001</v>
+      </c>
+    </row>
+    <row r="460" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D460" s="28">
         <v>158.159383458593</v>
       </c>
-    </row>
-    <row r="461" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E460" s="28">
+        <v>0.61000000000200005</v>
+      </c>
+    </row>
+    <row r="461" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D461" s="28">
         <v>247.66013501453901</v>
       </c>
-    </row>
-    <row r="462" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E461" s="28">
+        <v>171.41494471768101</v>
+      </c>
+    </row>
+    <row r="462" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D462" s="28">
         <v>52.544008954437999</v>
       </c>
-    </row>
-    <row r="463" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E462" s="28">
+        <v>142.982757483169</v>
+      </c>
+    </row>
+    <row r="463" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D463" s="28">
         <v>271.28971825253097</v>
       </c>
-    </row>
-    <row r="464" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E463" s="28">
+        <v>0.71166666666900003</v>
+      </c>
+    </row>
+    <row r="464" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D464" s="28">
         <v>264.32244551390301</v>
       </c>
-    </row>
-    <row r="465" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E464" s="28">
+        <v>148.09110265014499</v>
+      </c>
+    </row>
+    <row r="465" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D465" s="28">
         <v>152.496472638152</v>
       </c>
-    </row>
-    <row r="466" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E465" s="28">
+        <v>37.543212537759999</v>
+      </c>
+    </row>
+    <row r="466" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D466" s="28">
         <v>80.781573877819994</v>
       </c>
-    </row>
-    <row r="467" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E466" s="28">
+        <v>54.080807735134997</v>
+      </c>
+    </row>
+    <row r="467" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D467" s="28">
         <v>0.61000000000200005</v>
       </c>
-    </row>
-    <row r="468" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E467" s="28">
+        <v>4.3209989995019997</v>
+      </c>
+    </row>
+    <row r="468" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D468" s="28">
         <v>266.74928115058998</v>
       </c>
-    </row>
-    <row r="469" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E468" s="28">
+        <v>101.539959560393</v>
+      </c>
+    </row>
+    <row r="469" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D469" s="28">
         <v>46.023406011851002</v>
       </c>
-    </row>
-    <row r="470" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E469" s="28">
+        <v>0.84440473862599996</v>
+      </c>
+    </row>
+    <row r="470" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D470" s="28">
         <v>17.661429389453001</v>
       </c>
-    </row>
-    <row r="471" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E470" s="28">
+        <v>21.739660792955</v>
+      </c>
+    </row>
+    <row r="471" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D471" s="28">
         <v>225.78169009353999</v>
       </c>
-    </row>
-    <row r="472" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E471" s="28">
+        <v>72.311104473501999</v>
+      </c>
+    </row>
+    <row r="472" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D472" s="28">
         <v>171.30649936895401</v>
       </c>
-    </row>
-    <row r="473" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E472" s="28">
+        <v>214.93631648132299</v>
+      </c>
+    </row>
+    <row r="473" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D473" s="28">
         <v>46.029324057620002</v>
       </c>
-    </row>
-    <row r="474" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E473" s="28">
+        <v>10.832915124689</v>
+      </c>
+    </row>
+    <row r="474" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D474" s="28">
         <v>138.96996195020699</v>
       </c>
-    </row>
-    <row r="475" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E474" s="28">
+        <v>3.0041825494209999</v>
+      </c>
+    </row>
+    <row r="475" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D475" s="28">
         <v>25.186036165280001</v>
       </c>
-    </row>
-    <row r="476" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E475" s="28">
+        <v>55.774938942275</v>
+      </c>
+    </row>
+    <row r="476" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D476" s="28">
         <v>78.600471321111002</v>
       </c>
-    </row>
-    <row r="477" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E476" s="28">
+        <v>178.21728580434001</v>
+      </c>
+    </row>
+    <row r="477" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D477" s="28">
         <v>60.115010845226998</v>
       </c>
-    </row>
-    <row r="478" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E477" s="28">
+        <v>142.54915810767</v>
+      </c>
+    </row>
+    <row r="478" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D478" s="28">
         <v>0.71166666666900003</v>
       </c>
-    </row>
-    <row r="479" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E478" s="28">
+        <v>235.403394564915</v>
+      </c>
+    </row>
+    <row r="479" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D479" s="28">
         <v>141.08190262643001</v>
       </c>
-    </row>
-    <row r="480" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E479" s="28">
+        <v>169.13424203330999</v>
+      </c>
+    </row>
+    <row r="480" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D480" s="28">
         <v>55.180543093086001</v>
       </c>
-    </row>
-    <row r="481" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E480" s="28">
+        <v>90.308398699239007</v>
+      </c>
+    </row>
+    <row r="481" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D481" s="28">
         <v>102.402414912514</v>
       </c>
-    </row>
-    <row r="482" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E481" s="28">
+        <v>177.24615671832899</v>
+      </c>
+    </row>
+    <row r="482" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D482" s="28">
         <v>6.9698349474979997</v>
       </c>
-    </row>
-    <row r="483" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E482" s="28">
+        <v>229.79590712500701</v>
+      </c>
+    </row>
+    <row r="483" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D483" s="28">
         <v>214.42679292248599</v>
       </c>
-    </row>
-    <row r="484" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E483" s="28">
+        <v>102.45937636519599</v>
+      </c>
+    </row>
+    <row r="484" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D484" s="28">
         <v>91.852419177491996</v>
       </c>
-    </row>
-    <row r="485" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E484" s="28">
+        <v>55.736256619926003</v>
+      </c>
+    </row>
+    <row r="485" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D485" s="28">
         <v>102.113734399786</v>
       </c>
-    </row>
-    <row r="486" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E485" s="28">
+        <v>171.34349556043799</v>
+      </c>
+    </row>
+    <row r="486" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D486" s="28">
         <v>412.79612349938702</v>
       </c>
-    </row>
-    <row r="487" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E486" s="28">
+        <v>130.20813400699501</v>
+      </c>
+    </row>
+    <row r="487" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D487" s="28">
         <v>33.976389502335998</v>
       </c>
-    </row>
-    <row r="488" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E487" s="28">
+        <v>138.15005317412101</v>
+      </c>
+    </row>
+    <row r="488" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D488" s="28">
         <v>133.401482952544</v>
       </c>
-    </row>
-    <row r="489" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E488" s="28">
+        <v>182.77829962531999</v>
+      </c>
+    </row>
+    <row r="489" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D489" s="28">
         <v>80.052185468656006</v>
       </c>
-    </row>
-    <row r="490" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E489" s="28">
+        <v>81.855470615306004</v>
+      </c>
+    </row>
+    <row r="490" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D490" s="28">
         <v>393.45151359130602</v>
       </c>
-    </row>
-    <row r="491" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E490" s="28">
+        <v>39.031294506517</v>
+      </c>
+    </row>
+    <row r="491" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D491" s="28">
         <v>119.29163096198</v>
       </c>
-    </row>
-    <row r="492" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E491" s="28">
+        <v>108.60754274176399</v>
+      </c>
+    </row>
+    <row r="492" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D492" s="28">
         <v>162.40435057964501</v>
       </c>
-    </row>
-    <row r="493" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E492" s="28">
+        <v>134.535062607659</v>
+      </c>
+    </row>
+    <row r="493" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D493" s="28">
         <v>131.04477567809701</v>
       </c>
-    </row>
-    <row r="494" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E493" s="28">
+        <v>233.91422151523699</v>
+      </c>
+    </row>
+    <row r="494" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D494" s="28">
         <v>116.09256330281001</v>
       </c>
-    </row>
-    <row r="495" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E494" s="28">
+        <v>170.362563508286</v>
+      </c>
+    </row>
+    <row r="495" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D495" s="28">
         <v>43.219334993320999</v>
       </c>
-    </row>
-    <row r="496" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E495" s="28">
+        <v>108.084507104729</v>
+      </c>
+    </row>
+    <row r="496" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D496" s="28">
         <v>152.20881315122</v>
       </c>
-    </row>
-    <row r="497" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E496" s="28">
+        <v>171.238592174605</v>
+      </c>
+    </row>
+    <row r="497" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D497" s="28">
         <v>122.01311770239499</v>
       </c>
-    </row>
-    <row r="498" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E497" s="28">
+        <v>175.534194676559</v>
+      </c>
+    </row>
+    <row r="498" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D498" s="28">
         <v>38.681235823828999</v>
       </c>
-    </row>
-    <row r="499" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E498" s="28">
+        <v>0.71166666666900003</v>
+      </c>
+    </row>
+    <row r="499" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D499" s="28">
         <v>43.684170794776001</v>
       </c>
-    </row>
-    <row r="500" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E499" s="28">
+        <v>193.94011329206799</v>
+      </c>
+    </row>
+    <row r="500" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D500" s="28">
         <v>106.820604625212</v>
       </c>
-    </row>
-    <row r="501" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E500" s="28">
+        <v>162.578565287191</v>
+      </c>
+    </row>
+    <row r="501" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D501" s="28">
         <v>234.587860242586</v>
       </c>
-    </row>
-    <row r="502" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E501" s="28">
+        <v>81.917224601827996</v>
+      </c>
+    </row>
+    <row r="502" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D502" s="28">
         <v>194.22536729972501</v>
       </c>
-    </row>
-    <row r="503" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E502" s="28">
+        <v>227.38447222023299</v>
+      </c>
+    </row>
+    <row r="503" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D503" s="28">
         <v>36.182510735680999</v>
       </c>
-    </row>
-    <row r="504" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E503" s="28">
+        <v>0.71166666666900003</v>
+      </c>
+    </row>
+    <row r="504" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D504" s="28">
         <v>23.591126033678002</v>
       </c>
-    </row>
-    <row r="505" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E504" s="28">
+        <v>0.813333333336</v>
+      </c>
+    </row>
+    <row r="505" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D505" s="28">
         <v>1.099274507037</v>
       </c>
-    </row>
-    <row r="506" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E505" s="28">
+        <v>7.4549907414150001</v>
+      </c>
+    </row>
+    <row r="506" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D506" s="28">
         <v>116.13855526058499</v>
       </c>
-    </row>
-    <row r="507" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E506" s="28">
+        <v>36.953767578921003</v>
+      </c>
+    </row>
+    <row r="507" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D507" s="28">
         <v>143.75434599941701</v>
       </c>
-    </row>
-    <row r="508" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E507" s="28">
+        <v>85.051584801548998</v>
+      </c>
+    </row>
+    <row r="508" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D508" s="28">
         <v>0.71166666666900003</v>
       </c>
-    </row>
-    <row r="509" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E508" s="28">
+        <v>235.724988622079</v>
+      </c>
+    </row>
+    <row r="509" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D509" s="28">
         <v>132.50544675062901</v>
       </c>
-    </row>
-    <row r="510" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E509" s="28">
+        <v>150.90633344938399</v>
+      </c>
+    </row>
+    <row r="510" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D510" s="28">
         <v>237.23798227166299</v>
       </c>
-    </row>
-    <row r="511" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E510" s="28">
+        <v>170.33077110598899</v>
+      </c>
+    </row>
+    <row r="511" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D511" s="28">
         <v>119.190681058961</v>
       </c>
-    </row>
-    <row r="512" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E511" s="28">
+        <v>0.71166666666900003</v>
+      </c>
+    </row>
+    <row r="512" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D512" s="28">
         <v>0.61000000000200005</v>
       </c>
-    </row>
-    <row r="513" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E512" s="28">
+        <v>200.43728639823499</v>
+      </c>
+    </row>
+    <row r="513" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D513" s="28">
         <v>28.503184360559001</v>
       </c>
-    </row>
-    <row r="514" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E513" s="28">
+        <v>80.815804912447007</v>
+      </c>
+    </row>
+    <row r="514" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D514" s="28">
         <v>174.31947452687601</v>
       </c>
-    </row>
-    <row r="515" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E514" s="28">
+        <v>50.519808604159998</v>
+      </c>
+    </row>
+    <row r="515" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D515" s="28">
         <v>50.449448556847997</v>
       </c>
-    </row>
-    <row r="516" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E515" s="28">
+        <v>99.380210731931001</v>
+      </c>
+    </row>
+    <row r="516" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D516" s="28">
         <v>117.567208326577</v>
       </c>
-    </row>
-    <row r="517" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E516" s="28">
+        <v>47.729484970290002</v>
+      </c>
+    </row>
+    <row r="517" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D517" s="28">
         <v>364.77253843495401</v>
       </c>
-    </row>
-    <row r="518" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E517" s="28">
+        <v>208.784315424368</v>
+      </c>
+    </row>
+    <row r="518" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D518" s="28">
         <v>239.93743303537801</v>
       </c>
-    </row>
-    <row r="519" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E518" s="28">
+        <v>39.965487620040001</v>
+      </c>
+    </row>
+    <row r="519" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D519" s="28">
         <v>384.94079108846</v>
       </c>
-    </row>
-    <row r="520" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E519" s="28">
+        <v>91.763010087162996</v>
+      </c>
+    </row>
+    <row r="520" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D520" s="28">
         <v>0.61000000000200005</v>
       </c>
-    </row>
-    <row r="521" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E520" s="28">
+        <v>77.714250768089002</v>
+      </c>
+    </row>
+    <row r="521" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D521" s="28">
         <v>49.874816975066999</v>
       </c>
-    </row>
-    <row r="522" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E521" s="28">
+        <v>72.790904049811004</v>
+      </c>
+    </row>
+    <row r="522" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D522" s="28">
         <v>46.593210210568998</v>
       </c>
-    </row>
-    <row r="523" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E522" s="28">
+        <v>58.815181036129999</v>
+      </c>
+    </row>
+    <row r="523" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D523" s="28">
         <v>122.382750505761</v>
       </c>
-    </row>
-    <row r="524" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E523" s="28">
+        <v>121.924167232032</v>
+      </c>
+    </row>
+    <row r="524" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D524" s="28">
         <v>76.471090426485006</v>
       </c>
-    </row>
-    <row r="525" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E524" s="28">
+        <v>0.71166666666900003</v>
+      </c>
+    </row>
+    <row r="525" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D525" s="28">
         <v>39.156765543170003</v>
       </c>
-    </row>
-    <row r="526" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E525" s="28">
+        <v>158.95048336989899</v>
+      </c>
+    </row>
+    <row r="526" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D526" s="28">
         <v>217.10372904906799</v>
       </c>
-    </row>
-    <row r="527" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E526" s="28">
+        <v>70.849608596568004</v>
+      </c>
+    </row>
+    <row r="527" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D527" s="28">
         <v>7.7030583282110001</v>
       </c>
-    </row>
-    <row r="528" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E527" s="28">
+        <v>173.09550273078301</v>
+      </c>
+    </row>
+    <row r="528" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D528" s="28">
         <v>88.248342384528002</v>
       </c>
-    </row>
-    <row r="529" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E528" s="28">
+        <v>114.291264708673</v>
+      </c>
+    </row>
+    <row r="529" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D529" s="28">
         <v>419.65274504064598</v>
       </c>
-    </row>
-    <row r="530" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E529" s="28">
+        <v>88.961130579726998</v>
+      </c>
+    </row>
+    <row r="530" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D530" s="28">
         <v>64.755206911065997</v>
       </c>
-    </row>
-    <row r="531" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E530" s="28">
+        <v>76.422745521381998</v>
+      </c>
+    </row>
+    <row r="531" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D531" s="28">
         <v>204.58652426158801</v>
       </c>
-    </row>
-    <row r="532" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E531" s="28">
+        <v>28.212722355179</v>
+      </c>
+    </row>
+    <row r="532" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D532" s="28">
         <v>186.87784784206801</v>
       </c>
-    </row>
-    <row r="533" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E532" s="28">
+        <v>106.70573377321701</v>
+      </c>
+    </row>
+    <row r="533" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D533" s="28">
         <v>156.66167231690801</v>
       </c>
-    </row>
-    <row r="534" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E533" s="28">
+        <v>180.46687406031</v>
+      </c>
+    </row>
+    <row r="534" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D534" s="28">
         <v>149.02039619657401</v>
       </c>
-    </row>
-    <row r="535" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E534" s="28">
+        <v>11.818863688781001</v>
+      </c>
+    </row>
+    <row r="535" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D535" s="28">
         <v>238.40465371453899</v>
       </c>
-    </row>
-    <row r="536" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E535" s="28">
+        <v>1.473610675207</v>
+      </c>
+    </row>
+    <row r="536" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D536" s="28">
         <v>0.71166666666900003</v>
       </c>
-    </row>
-    <row r="537" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E536" s="28">
+        <v>0.71166666666900003</v>
+      </c>
+    </row>
+    <row r="537" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D537" s="28">
         <v>60.041326568145998</v>
       </c>
-    </row>
-    <row r="538" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E537" s="28">
+        <v>164.88884608532601</v>
+      </c>
+    </row>
+    <row r="538" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D538" s="28">
         <v>98.845203045809001</v>
       </c>
-    </row>
-    <row r="539" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E538" s="28">
+        <v>0.61000000000200005</v>
+      </c>
+    </row>
+    <row r="539" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D539" s="28">
         <v>29.538213048033001</v>
       </c>
-    </row>
-    <row r="540" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E539" s="28">
+        <v>98.894014398378999</v>
+      </c>
+    </row>
+    <row r="540" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D540" s="28">
         <v>66.32200788534</v>
       </c>
-    </row>
-    <row r="541" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E540" s="28">
+        <v>68.191591596367005</v>
+      </c>
+    </row>
+    <row r="541" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D541" s="28">
         <v>69.350987292178999</v>
       </c>
-    </row>
-    <row r="542" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E541" s="28">
+        <v>21.591845570770001</v>
+      </c>
+    </row>
+    <row r="542" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D542" s="28">
         <v>29.852981642633001</v>
       </c>
-    </row>
-    <row r="543" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E542" s="28">
+        <v>81.661285765930998</v>
+      </c>
+    </row>
+    <row r="543" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D543" s="28">
         <v>149.439425005765</v>
       </c>
-    </row>
-    <row r="544" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E543" s="28">
+        <v>52.722532619531997</v>
+      </c>
+    </row>
+    <row r="544" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D544" s="28">
         <v>107.575607597835</v>
       </c>
-    </row>
-    <row r="545" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E544" s="28">
+        <v>45.603549371154003</v>
+      </c>
+    </row>
+    <row r="545" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D545" s="28">
         <v>36.087023242204999</v>
       </c>
-    </row>
-    <row r="546" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E545" s="28">
+        <v>47.751771807120001</v>
+      </c>
+    </row>
+    <row r="546" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D546" s="28">
         <v>203.36294017210801</v>
       </c>
-    </row>
-    <row r="547" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E546" s="28">
+        <v>354.49407405701999</v>
+      </c>
+    </row>
+    <row r="547" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D547" s="28">
         <v>73.803116029578007</v>
       </c>
-    </row>
-    <row r="548" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E547" s="28">
+        <v>50.745775347489001</v>
+      </c>
+    </row>
+    <row r="548" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D548" s="28">
         <v>135.69947790349499</v>
       </c>
-    </row>
-    <row r="549" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E548" s="28">
+        <v>18.203580608343</v>
+      </c>
+    </row>
+    <row r="549" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D549" s="28">
         <v>524.10722867496997</v>
       </c>
-    </row>
-    <row r="550" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E549" s="28">
+        <v>181.67287583128299</v>
+      </c>
+    </row>
+    <row r="550" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D550" s="28">
         <v>93.352549981205001</v>
       </c>
-    </row>
-    <row r="551" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E550" s="28">
+        <v>77.566910568387001</v>
+      </c>
+    </row>
+    <row r="551" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D551" s="28">
         <v>187.34989407192299</v>
       </c>
-    </row>
-    <row r="552" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E551" s="28">
+        <v>141.992037201649</v>
+      </c>
+    </row>
+    <row r="552" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D552" s="28">
         <v>221.960144361716</v>
       </c>
-    </row>
-    <row r="553" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E552" s="28">
+        <v>40.338541332882002</v>
+      </c>
+    </row>
+    <row r="553" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D553" s="28">
         <v>76.211055804157994</v>
       </c>
-    </row>
-    <row r="554" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E553" s="28">
+        <v>9.412035853191</v>
+      </c>
+    </row>
+    <row r="554" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D554" s="28">
         <v>198.118662920112</v>
       </c>
-    </row>
-    <row r="555" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E554" s="28">
+        <v>100.340741230818</v>
+      </c>
+    </row>
+    <row r="555" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D555" s="28">
         <v>128.67491208451099</v>
       </c>
-    </row>
-    <row r="556" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E555" s="28">
+        <v>87.028670378043998</v>
+      </c>
+    </row>
+    <row r="556" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D556" s="28">
         <v>130.79904537576499</v>
       </c>
-    </row>
-    <row r="557" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E556" s="28">
+        <v>193.80520379724501</v>
+      </c>
+    </row>
+    <row r="557" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D557" s="28">
         <v>212.625405373044</v>
       </c>
-    </row>
-    <row r="558" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E557" s="28">
+        <v>211.09466797289099</v>
+      </c>
+    </row>
+    <row r="558" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D558" s="28">
         <v>203.34406022240699</v>
       </c>
-    </row>
-    <row r="559" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E558" s="28">
+        <v>44.321427489577999</v>
+      </c>
+    </row>
+    <row r="559" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D559" s="28">
         <v>0.50833333333499997</v>
       </c>
-    </row>
-    <row r="560" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E559" s="28">
+        <v>168.80173962053601</v>
+      </c>
+    </row>
+    <row r="560" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D560" s="28">
         <v>39.109268541573002</v>
       </c>
-    </row>
-    <row r="561" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E560" s="28">
+        <v>227.10576880259899</v>
+      </c>
+    </row>
+    <row r="561" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D561" s="28">
         <v>86.048261526478996</v>
       </c>
-    </row>
-    <row r="562" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E561" s="28">
+        <v>0.71166666666900003</v>
+      </c>
+    </row>
+    <row r="562" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D562" s="28">
         <v>174.827117082646</v>
       </c>
-    </row>
-    <row r="563" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E562" s="28">
+        <v>125.772870619335</v>
+      </c>
+    </row>
+    <row r="563" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D563" s="28">
         <v>383.13671491132698</v>
       </c>
-    </row>
-    <row r="564" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E563" s="28">
+        <v>74.602981472699994</v>
+      </c>
+    </row>
+    <row r="564" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D564" s="28">
         <v>233.900537751315</v>
       </c>
-    </row>
-    <row r="565" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E564" s="28">
+        <v>156.922017297667</v>
+      </c>
+    </row>
+    <row r="565" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D565" s="28">
         <v>149.68469316182501</v>
       </c>
-    </row>
-    <row r="566" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E565" s="28">
+        <v>139.60044145033899</v>
+      </c>
+    </row>
+    <row r="566" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D566" s="28">
         <v>0.68309495156900002</v>
       </c>
-    </row>
-    <row r="567" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E566" s="28">
+        <v>293.83032136529499</v>
+      </c>
+    </row>
+    <row r="567" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D567" s="28">
         <v>173.960315941717</v>
       </c>
-    </row>
-    <row r="568" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E567" s="28">
+        <v>130.84247377039301</v>
+      </c>
+    </row>
+    <row r="568" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D568" s="28">
         <v>173.82033412704999</v>
       </c>
-    </row>
-    <row r="569" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E568" s="28">
+        <v>262.05029786709798</v>
+      </c>
+    </row>
+    <row r="569" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D569" s="28">
         <v>312.53401713153102</v>
       </c>
-    </row>
-    <row r="570" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E569" s="28">
+        <v>0.30500000000100003</v>
+      </c>
+    </row>
+    <row r="570" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D570" s="28">
         <v>37.076801175459003</v>
       </c>
-    </row>
-    <row r="571" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E570" s="28">
+        <v>325.30705340389602</v>
+      </c>
+    </row>
+    <row r="571" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D571" s="28">
         <v>27.719947419156998</v>
       </c>
-    </row>
-    <row r="572" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E571" s="28">
+        <v>144.582297116142</v>
+      </c>
+    </row>
+    <row r="572" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D572" s="28">
         <v>35.798038489032002</v>
       </c>
-    </row>
-    <row r="573" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E572" s="28">
+        <v>159.565721924467</v>
+      </c>
+    </row>
+    <row r="573" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D573" s="28">
         <v>69.994975314664003</v>
       </c>
-    </row>
-    <row r="574" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E573" s="28">
+        <v>17.151272111851</v>
+      </c>
+    </row>
+    <row r="574" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D574" s="28">
         <v>54.476110751649998</v>
       </c>
-    </row>
-    <row r="575" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E574" s="28">
+        <v>18.239973656911999</v>
+      </c>
+    </row>
+    <row r="575" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D575" s="28">
         <v>93.029509916123004</v>
       </c>
-    </row>
-    <row r="576" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E575" s="28">
+        <v>29.446332031103999</v>
+      </c>
+    </row>
+    <row r="576" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D576" s="28">
         <v>46.048889243026998</v>
       </c>
-    </row>
-    <row r="577" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E576" s="28">
+        <v>108.40070238391699</v>
+      </c>
+    </row>
+    <row r="577" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D577" s="28">
         <v>209.06036961378501</v>
       </c>
-    </row>
-    <row r="578" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E577" s="28">
+        <v>337.54711610212598</v>
+      </c>
+    </row>
+    <row r="578" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D578" s="28">
         <v>151.981387224656</v>
       </c>
-    </row>
-    <row r="579" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E578" s="28">
+        <v>52.822557797298003</v>
+      </c>
+    </row>
+    <row r="579" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D579" s="28">
         <v>30.484814596701</v>
       </c>
-    </row>
-    <row r="580" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E579" s="28">
+        <v>212.64337650602999</v>
+      </c>
+    </row>
+    <row r="580" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D580" s="28">
         <v>80.630196240009994</v>
       </c>
-    </row>
-    <row r="581" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E580" s="28">
+        <v>141.06930448440301</v>
+      </c>
+    </row>
+    <row r="581" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D581" s="28">
         <v>114.820846352457</v>
       </c>
-    </row>
-    <row r="582" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E581" s="28">
+        <v>124.786006727108</v>
+      </c>
+    </row>
+    <row r="582" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D582" s="28">
         <v>106.933670190698</v>
       </c>
-    </row>
-    <row r="583" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E582" s="28">
+        <v>149.038375573564</v>
+      </c>
+    </row>
+    <row r="583" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D583" s="28">
         <v>51.961579413928</v>
       </c>
-    </row>
-    <row r="584" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E583" s="28">
+        <v>116.515812033361</v>
+      </c>
+    </row>
+    <row r="584" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D584" s="28">
         <v>400.242797871638</v>
       </c>
-    </row>
-    <row r="585" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E584" s="28">
+        <v>171.28014589732399</v>
+      </c>
+    </row>
+    <row r="585" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D585" s="28">
         <v>214.34031359933701</v>
       </c>
-    </row>
-    <row r="586" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E585" s="28">
+        <v>51.668788939085999</v>
+      </c>
+    </row>
+    <row r="586" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D586" s="28">
         <v>141.10870834425501</v>
       </c>
-    </row>
-    <row r="587" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E586" s="28">
+        <v>278.44263499160502</v>
+      </c>
+    </row>
+    <row r="587" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D587" s="28">
         <v>193.104035196345</v>
       </c>
-    </row>
-    <row r="588" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E587" s="28">
+        <v>96.219414749845996</v>
+      </c>
+    </row>
+    <row r="588" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D588" s="28">
         <v>0.813333333336</v>
       </c>
-    </row>
-    <row r="589" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E588" s="28">
+        <v>287.89848591143499</v>
+      </c>
+    </row>
+    <row r="589" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D589" s="28">
         <v>177.18278756254199</v>
       </c>
-    </row>
-    <row r="590" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E589" s="28">
+        <v>63.304660133661002</v>
+      </c>
+    </row>
+    <row r="590" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D590" s="28">
         <v>197.57874031108599</v>
       </c>
-    </row>
-    <row r="591" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E590" s="28">
+        <v>117.955234614479</v>
+      </c>
+    </row>
+    <row r="591" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D591" s="28">
         <v>274.00317117936203</v>
       </c>
-    </row>
-    <row r="592" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E591" s="28">
+        <v>202.00901904873601</v>
+      </c>
+    </row>
+    <row r="592" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D592" s="28">
         <v>104.828847857014</v>
       </c>
-    </row>
-    <row r="593" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E592" s="28">
+        <v>25.026696201394</v>
+      </c>
+    </row>
+    <row r="593" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D593" s="28">
         <v>55.458663596340003</v>
       </c>
-    </row>
-    <row r="594" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E593" s="28">
+        <v>0.61000000000200005</v>
+      </c>
+    </row>
+    <row r="594" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D594" s="28">
         <v>206.89996467639199</v>
       </c>
-    </row>
-    <row r="595" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E594" s="28">
+        <v>0.71166666666900003</v>
+      </c>
+    </row>
+    <row r="595" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D595" s="28">
         <v>62.455703900663003</v>
       </c>
-    </row>
-    <row r="596" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E595" s="28">
+        <v>345.77364740900703</v>
+      </c>
+    </row>
+    <row r="596" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D596" s="28">
         <v>131.98568518433899</v>
       </c>
-    </row>
-    <row r="597" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E596" s="28">
+        <v>15.755755711851</v>
+      </c>
+    </row>
+    <row r="597" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D597" s="28">
         <v>224.75639876626201</v>
       </c>
-    </row>
-    <row r="598" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E597" s="28">
+        <v>124.432277520935</v>
+      </c>
+    </row>
+    <row r="598" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D598" s="28">
         <v>215.580377503351</v>
       </c>
-    </row>
-    <row r="599" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E598" s="28">
+        <v>137.91047232351499</v>
+      </c>
+    </row>
+    <row r="599" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D599" s="28">
         <v>19.463732853873001</v>
       </c>
-    </row>
-    <row r="600" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E599" s="28">
+        <v>60.018761675950998</v>
+      </c>
+    </row>
+    <row r="600" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D600" s="28">
         <v>0.71166666666900003</v>
       </c>
-    </row>
-    <row r="601" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E600" s="28">
+        <v>84.624160361265993</v>
+      </c>
+    </row>
+    <row r="601" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D601" s="28">
         <v>159.47473841895101</v>
       </c>
-    </row>
-    <row r="602" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E601" s="28">
+        <v>30.859531586018001</v>
+      </c>
+    </row>
+    <row r="602" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D602" s="28">
         <v>239.79036205408499</v>
       </c>
-    </row>
-    <row r="603" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E602" s="28">
+        <v>61.722381529638</v>
+      </c>
+    </row>
+    <row r="603" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D603" s="28">
         <v>91.067088119565</v>
       </c>
-    </row>
-    <row r="604" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E603" s="28">
+        <v>141.98034537515801</v>
+      </c>
+    </row>
+    <row r="604" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D604" s="28">
         <v>218.892698371412</v>
       </c>
-    </row>
-    <row r="605" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E604" s="28">
+        <v>160.31429471782599</v>
+      </c>
+    </row>
+    <row r="605" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D605" s="28">
         <v>31.721430679234999</v>
       </c>
-    </row>
-    <row r="606" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E605" s="28">
+        <v>93.814715200326006</v>
+      </c>
+    </row>
+    <row r="606" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D606" s="28">
         <v>92.189364329426994</v>
       </c>
-    </row>
-    <row r="607" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E606" s="28">
+        <v>296.56076740815098</v>
+      </c>
+    </row>
+    <row r="607" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D607" s="28">
         <v>36.951940775856997</v>
       </c>
-    </row>
-    <row r="608" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E607" s="28">
+        <v>0.71166666666900003</v>
+      </c>
+    </row>
+    <row r="608" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D608" s="28">
         <v>247.89780558748799</v>
       </c>
-    </row>
-    <row r="609" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E608" s="28">
+        <v>269.37892096925702</v>
+      </c>
+    </row>
+    <row r="609" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D609" s="28">
         <v>18.074288941532998</v>
       </c>
-    </row>
-    <row r="610" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E609" s="28">
+        <v>10.974255958846999</v>
+      </c>
+    </row>
+    <row r="610" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D610" s="28">
         <v>89.598850561475999</v>
       </c>
-    </row>
-    <row r="611" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E610" s="28">
+        <v>0.71166666666900003</v>
+      </c>
+    </row>
+    <row r="611" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D611" s="28">
         <v>71.408845835042996</v>
       </c>
-    </row>
-    <row r="612" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E611" s="28">
+        <v>31.828935105599999</v>
+      </c>
+    </row>
+    <row r="612" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D612" s="28">
         <v>0.813333333336</v>
       </c>
-    </row>
-    <row r="613" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E612" s="28">
+        <v>203.71096238393</v>
+      </c>
+    </row>
+    <row r="613" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D613" s="28">
         <v>0.61000000000200005</v>
       </c>
-    </row>
-    <row r="614" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E613" s="28">
+        <v>6.3205402130310002</v>
+      </c>
+    </row>
+    <row r="614" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D614" s="28">
         <v>116.92435670233201</v>
       </c>
-    </row>
-    <row r="615" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E614" s="28">
+        <v>0.61000000000200005</v>
+      </c>
+    </row>
+    <row r="615" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D615" s="28">
         <v>209.46026254715699</v>
       </c>
-    </row>
-    <row r="616" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E615" s="28">
+        <v>131.00234516146699</v>
+      </c>
+    </row>
+    <row r="616" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D616" s="28">
         <v>418.19967992985897</v>
       </c>
-    </row>
-    <row r="617" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E616" s="28">
+        <v>0.71166666666900003</v>
+      </c>
+    </row>
+    <row r="617" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D617" s="28">
         <v>79.520487211757001</v>
       </c>
-    </row>
-    <row r="618" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E617" s="28">
+        <v>139.878348124864</v>
+      </c>
+    </row>
+    <row r="618" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D618" s="28">
         <v>111.229648174167</v>
       </c>
-    </row>
-    <row r="619" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E618" s="28">
+        <v>115.220127211132</v>
+      </c>
+    </row>
+    <row r="619" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D619" s="28">
         <v>55.645944321370997</v>
       </c>
-    </row>
-    <row r="620" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E619" s="28">
+        <v>260.38593659083602</v>
+      </c>
+    </row>
+    <row r="620" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D620" s="28">
         <v>33.417269508068998</v>
       </c>
-    </row>
-    <row r="621" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E620" s="28">
+        <v>11.969494757754999</v>
+      </c>
+    </row>
+    <row r="621" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D621" s="28">
         <v>212.733035066355</v>
       </c>
-    </row>
-    <row r="622" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E621" s="28">
+        <v>136.058123407003</v>
+      </c>
+    </row>
+    <row r="622" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D622" s="28">
         <v>194.30142029017699</v>
       </c>
-    </row>
-    <row r="623" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E622" s="28">
+        <v>43.601640484965998</v>
+      </c>
+    </row>
+    <row r="623" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D623" s="28">
         <v>115.74029835391001</v>
       </c>
-    </row>
-    <row r="624" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E623" s="28">
+        <v>56.640086839478997</v>
+      </c>
+    </row>
+    <row r="624" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D624" s="28">
         <v>110.834130584242</v>
       </c>
-    </row>
-    <row r="625" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E624" s="28">
+        <v>112.51453902898299</v>
+      </c>
+    </row>
+    <row r="625" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D625" s="28">
         <v>117.468843468918</v>
       </c>
-    </row>
-    <row r="626" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E625" s="28">
+        <v>133.34956434534101</v>
+      </c>
+    </row>
+    <row r="626" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D626" s="28">
         <v>320.42575297831098</v>
       </c>
-    </row>
-    <row r="627" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E626" s="28">
+        <v>177.92711362085399</v>
+      </c>
+    </row>
+    <row r="627" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D627" s="28">
         <v>8.0062248816629999</v>
       </c>
-    </row>
-    <row r="628" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E627" s="28">
+        <v>28.595383568228002</v>
+      </c>
+    </row>
+    <row r="628" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D628" s="28">
         <v>44.767323177748999</v>
       </c>
-    </row>
-    <row r="629" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E628" s="28">
+        <v>124.44633721179601</v>
+      </c>
+    </row>
+    <row r="629" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D629" s="28">
         <v>170.96477830462999</v>
       </c>
-    </row>
-    <row r="630" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E629" s="28">
+        <v>43.687856949712</v>
+      </c>
+    </row>
+    <row r="630" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D630" s="28">
         <v>57.648110394497003</v>
       </c>
-    </row>
-    <row r="631" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E630" s="28">
+        <v>300.66602816422301</v>
+      </c>
+    </row>
+    <row r="631" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D631" s="28">
         <v>107.938849665909</v>
       </c>
-    </row>
-    <row r="632" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E631" s="28">
+        <v>73.413426606832999</v>
+      </c>
+    </row>
+    <row r="632" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D632" s="28">
         <v>93.866490948693993</v>
       </c>
-    </row>
-    <row r="633" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E632" s="28">
+        <v>34.553925236429002</v>
+      </c>
+    </row>
+    <row r="633" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D633" s="28">
         <v>54.428379235066998</v>
       </c>
-    </row>
-    <row r="634" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E633" s="28">
+        <v>208.37824883015301</v>
+      </c>
+    </row>
+    <row r="634" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D634" s="28">
         <v>171.61218144468299</v>
       </c>
-    </row>
-    <row r="635" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E634" s="28">
+        <v>87.558692689929003</v>
+      </c>
+    </row>
+    <row r="635" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D635" s="28">
         <v>0.61000000000200005</v>
       </c>
-    </row>
-    <row r="636" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E635" s="28">
+        <v>160.18990135527099</v>
+      </c>
+    </row>
+    <row r="636" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D636" s="28">
         <v>196.19774252583801</v>
       </c>
-    </row>
-    <row r="637" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E636" s="28">
+        <v>56.196702479811002</v>
+      </c>
+    </row>
+    <row r="637" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D637" s="28">
         <v>79.121593743109003</v>
       </c>
-    </row>
-    <row r="638" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E637" s="28">
+        <v>151.441085114109</v>
+      </c>
+    </row>
+    <row r="638" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D638" s="28">
         <v>0.71166666666900003</v>
       </c>
-    </row>
-    <row r="639" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E638" s="28">
+        <v>37.944416945981999</v>
+      </c>
+    </row>
+    <row r="639" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D639" s="28">
         <v>206.292820242164</v>
       </c>
-    </row>
-    <row r="640" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E639" s="28">
+        <v>46.512937788294998</v>
+      </c>
+    </row>
+    <row r="640" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D640" s="28">
         <v>190.13675509697799</v>
       </c>
-    </row>
-    <row r="641" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E640" s="28">
+        <v>95.036183411332999</v>
+      </c>
+    </row>
+    <row r="641" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D641" s="28">
         <v>60.303916262005004</v>
       </c>
-    </row>
-    <row r="642" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E641" s="28">
+        <v>185.98407367361699</v>
+      </c>
+    </row>
+    <row r="642" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D642" s="28">
         <v>304.08283579695302</v>
       </c>
-    </row>
-    <row r="643" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E642" s="28">
+        <v>0.71166666666900003</v>
+      </c>
+    </row>
+    <row r="643" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D643" s="28">
         <v>288.23026490569401</v>
       </c>
-    </row>
-    <row r="644" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E643" s="28">
+        <v>107.17311164879401</v>
+      </c>
+    </row>
+    <row r="644" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D644" s="28">
         <v>127.02705844197899</v>
       </c>
-    </row>
-    <row r="645" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E644" s="28">
+        <v>138.83188107750999</v>
+      </c>
+    </row>
+    <row r="645" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D645" s="28">
         <v>206.18783542955001</v>
       </c>
-    </row>
-    <row r="646" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E645" s="28">
+        <v>0.61000000000200005</v>
+      </c>
+    </row>
+    <row r="646" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D646" s="28">
         <v>0.61000000000200005</v>
       </c>
-    </row>
-    <row r="647" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E646" s="28">
+        <v>209.503639176511</v>
+      </c>
+    </row>
+    <row r="647" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D647" s="28">
         <v>73.341050867503</v>
       </c>
-    </row>
-    <row r="648" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E647" s="28">
+        <v>119.639002926917</v>
+      </c>
+    </row>
+    <row r="648" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D648" s="28">
         <v>143.69300589958999</v>
       </c>
     </row>
-    <row r="649" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D649" s="28">
         <v>38.04183927975</v>
       </c>
     </row>
-    <row r="650" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D650" s="28">
         <v>51.840647715586002</v>
       </c>
     </row>
-    <row r="651" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D651" s="28">
         <v>78.782171220866999</v>
       </c>
     </row>
-    <row r="652" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D652" s="28">
         <v>87.543765323849001</v>
       </c>
     </row>
-    <row r="653" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D653" s="28">
         <v>97.984528407232006</v>
       </c>
     </row>
-    <row r="654" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D654" s="28">
         <v>17.440017329035001</v>
       </c>
     </row>
-    <row r="655" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D655" s="28">
         <v>168.28286160437301</v>
       </c>
     </row>
-    <row r="656" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D656" s="28">
         <v>119.070160165313</v>
       </c>
@@ -44524,7 +45202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE560BB-010F-4538-8606-72D35C2079F1}">
   <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -46645,19 +47323,19 @@
       <c r="G103" s="28"/>
     </row>
     <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="39"/>
+      <c r="A108" s="44"/>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="39"/>
+      <c r="A109" s="44"/>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="39"/>
+      <c r="A110" s="44"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="39"/>
+      <c r="A111" s="44"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="39"/>
+      <c r="A112" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -48585,363 +49263,363 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="44">
+      <c r="B2" s="37">
         <v>0.406666666668</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="33">
         <v>0.406666666668</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="33">
         <v>87.436393806940998</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="34">
         <v>250.09296160712199</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="36">
         <v>655.28547836164603</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="44">
+      <c r="B3" s="37">
         <v>0.406666666668</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="33">
         <v>184.578324422208</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="34">
         <v>55.696932691256002</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="36">
         <v>4087.1148103248602</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="44">
+      <c r="B4" s="37">
         <v>0.406666666668</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="33">
         <v>210.840393233296</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="34">
         <v>176.45556663527199</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="36">
         <v>4126.67146411467</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="44">
+      <c r="B5" s="37">
         <v>0.406666666668</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="33">
         <v>110.311281170382</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="33">
         <v>45.27214752135</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="34">
         <v>312.73053741213101</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="36">
         <v>2379.3352547640902</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="44">
+      <c r="B6" s="37">
         <v>0.406666666668</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="33">
         <v>66.634162536689004</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="34">
         <v>63.651510017919001</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="36">
         <v>4154.4538241390001</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="44">
+      <c r="B7" s="37">
         <v>0.406666666668</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="33">
         <v>154.614846213524</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="34">
         <v>58.960814161080002</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="36">
         <v>2607.6981729571398</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="44">
+      <c r="B8" s="37">
         <v>0.406666666668</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="33">
         <v>113.15620945111</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="33">
         <v>222.67954919611799</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="34">
         <v>7.6642678499479997</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="36">
         <v>5308.2221052776604</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="44">
+      <c r="B9" s="37">
         <v>0.406666666668</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="33">
         <v>33.696513207873998</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="33">
         <v>78.599566052674007</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="34">
         <v>178.823888662808</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="36">
         <v>421.980966458328</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="28"/>
-      <c r="C10" s="40">
+      <c r="C10" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="33">
         <v>30.642872555421999</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="34">
         <v>226.64794878262501</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="36">
         <v>4195.1749899176102</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="28"/>
-      <c r="C11" s="40">
+      <c r="C11" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="33">
         <v>1.2604497537929999</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="34">
         <v>331.05062641088699</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="36">
         <v>3997.7461100102901</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="28"/>
-      <c r="C12" s="40">
+      <c r="C12" s="33">
         <v>0.406666666668</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="33">
         <v>33.360520638086001</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="34">
         <v>260.81205845457703</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="36">
         <v>2892.65018454244</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="28"/>
-      <c r="C13" s="40">
+      <c r="C13" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="33">
         <v>131.14995814922</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="34">
         <v>60.590890876339003</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="36">
         <v>4880.8893986461899</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="28"/>
-      <c r="C14" s="40">
+      <c r="C14" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="33">
         <v>103.456745708874</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="34">
         <v>67.381188754283997</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="36">
         <v>2678.1647008825298</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="28"/>
-      <c r="C15" s="40">
+      <c r="C15" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="33">
         <v>0.813333333336</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="34">
         <v>92.636252996430002</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="36">
         <v>734.86927591021401</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
-      <c r="C16" s="40">
+      <c r="C16" s="33">
         <v>95.678212007157001</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="33">
         <v>122.452699723423</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="34">
         <v>175.928690668314</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="36">
         <v>2099.8203003578301</v>
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="28"/>
-      <c r="C17" s="40">
+      <c r="C17" s="33">
         <v>75.810779305322995</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="33">
         <v>114.265521586603</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="34">
         <v>311.64399519077398</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="36">
         <v>2422.8303138598799</v>
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" s="28"/>
-      <c r="C18" s="40">
+      <c r="C18" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="33">
         <v>267.82792769581198</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="34">
         <v>237.544772872142</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="36">
         <v>8054.5788923947503</v>
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="28"/>
-      <c r="C19" s="40">
+      <c r="C19" s="33">
         <v>156.30260621395999</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="33">
         <v>29.170763040049</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="34">
         <v>69.098917665715007</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="36">
         <v>3713.7577391128102</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
-      <c r="C20" s="40">
+      <c r="C20" s="33">
         <v>0.406666666668</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="33">
         <v>163.51303762204799</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="34">
         <v>331.541508233554</v>
       </c>
-      <c r="F20" s="43">
+      <c r="F20" s="36">
         <v>2031.06967010057</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>
-      <c r="C21" s="40">
+      <c r="C21" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="33">
         <v>92.559133586751997</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="34">
         <v>1.4233333333380001</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F21" s="36">
         <v>7.8785933977629998</v>
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" s="28"/>
-      <c r="C22" s="40">
+      <c r="C22" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="33">
         <v>254.23426845159</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="34">
         <v>125.415347195034</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F22" s="36">
         <v>2927.0111982560502</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" s="28"/>
-      <c r="C23" s="40">
+      <c r="C23" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="33">
         <v>108.34635403481001</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="34">
         <v>247.44443087251699</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="36">
         <v>1154.48513568609</v>
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" s="28"/>
-      <c r="C24" s="40">
+      <c r="C24" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="33">
         <v>149.418054453536</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="34">
         <v>450.43177651501497</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F24" s="36">
         <v>5292.7913587865996</v>
       </c>
       <c r="I24" s="7" t="s">
@@ -48970,16 +49648,16 @@
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="28"/>
-      <c r="C25" s="40">
+      <c r="C25" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D25" s="33">
         <v>390.43292197448199</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="34">
         <v>202.774813275837</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="36">
         <v>1850.03033107396</v>
       </c>
       <c r="I25" s="7" t="s">
@@ -49008,948 +49686,948 @@
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" s="28"/>
-      <c r="C26" s="40">
+      <c r="C26" s="33">
         <v>0.406666666668</v>
       </c>
-      <c r="D26" s="40">
+      <c r="D26" s="33">
         <v>159.12073768594101</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="34">
         <v>1.869123941042</v>
       </c>
-      <c r="F26" s="43">
+      <c r="F26" s="36">
         <v>2370.6722244738098</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" s="28"/>
-      <c r="C27" s="40">
+      <c r="C27" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D27" s="40">
+      <c r="D27" s="33">
         <v>57.327654570245002</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="34">
         <v>103.713345870952</v>
       </c>
-      <c r="F27" s="43">
+      <c r="F27" s="36">
         <v>2810.0929567343601</v>
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" s="28"/>
-      <c r="C28" s="40">
+      <c r="C28" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D28" s="40">
+      <c r="D28" s="33">
         <v>159.73447435938201</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="34">
         <v>228.507179525846</v>
       </c>
-      <c r="F28" s="43">
+      <c r="F28" s="36">
         <v>2225.1921827911001</v>
       </c>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" s="28"/>
-      <c r="C29" s="40">
+      <c r="C29" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D29" s="40">
+      <c r="D29" s="33">
         <v>65.396935537176006</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="34">
         <v>58.829873000219003</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F29" s="36">
         <v>3096.2313912260302</v>
       </c>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" s="28"/>
-      <c r="C30" s="40">
+      <c r="C30" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="33">
         <v>179.77448834887099</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="34">
         <v>180.65286971922001</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="36">
         <v>2886.7431009427401</v>
       </c>
       <c r="AA30" s="7"/>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" s="28"/>
-      <c r="C31" s="40">
+      <c r="C31" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="33">
         <v>102.06707372027699</v>
       </c>
-      <c r="E31" s="41">
+      <c r="E31" s="34">
         <v>241.85561063503201</v>
       </c>
-      <c r="F31" s="43">
+      <c r="F31" s="36">
         <v>1742.6170603466801</v>
       </c>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" s="28"/>
-      <c r="C32" s="40">
+      <c r="C32" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="33">
         <v>292.23414330366597</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="34">
         <v>45.062121172440001</v>
       </c>
-      <c r="F32" s="43">
+      <c r="F32" s="36">
         <v>2123.1560622004299</v>
       </c>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" s="28"/>
-      <c r="C33" s="40">
+      <c r="C33" s="33">
         <v>153.79980291901001</v>
       </c>
-      <c r="D33" s="40">
+      <c r="D33" s="33">
         <v>138.59695510659699</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="34">
         <v>68.347284915651997</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="36">
         <v>4128.2440344019096</v>
       </c>
       <c r="Z33" s="7"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B34" s="28"/>
-      <c r="C34" s="40">
+      <c r="C34" s="33">
         <v>33.080808019609997</v>
       </c>
-      <c r="D34" s="40">
+      <c r="D34" s="33">
         <v>192.082001447236</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="34">
         <v>193.37227307137101</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="36">
         <v>1135.95549166859</v>
       </c>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" s="28"/>
-      <c r="C35" s="40">
+      <c r="C35" s="33">
         <v>139.01642215807999</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35" s="33">
         <v>87.079367786887005</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="34">
         <v>62.668967548863002</v>
       </c>
-      <c r="F35" s="43">
+      <c r="F35" s="36">
         <v>6382.5814739291</v>
       </c>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" s="28"/>
-      <c r="C36" s="40">
+      <c r="C36" s="33">
         <v>165.38132297555299</v>
       </c>
-      <c r="D36" s="40">
+      <c r="D36" s="33">
         <v>350.46075987571902</v>
       </c>
-      <c r="E36" s="41">
+      <c r="E36" s="34">
         <v>160.592284817208</v>
       </c>
-      <c r="F36" s="43">
+      <c r="F36" s="36">
         <v>2765.6378439320702</v>
       </c>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" s="28"/>
-      <c r="C37" s="40">
+      <c r="C37" s="33">
         <v>27.276247497960998</v>
       </c>
-      <c r="D37" s="40">
+      <c r="D37" s="33">
         <v>96.707607369485999</v>
       </c>
-      <c r="E37" s="41">
+      <c r="E37" s="34">
         <v>203.54471560762201</v>
       </c>
-      <c r="F37" s="43">
+      <c r="F37" s="36">
         <v>1203.99849465992</v>
       </c>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B38" s="28"/>
-      <c r="C38" s="40">
+      <c r="C38" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D38" s="40">
+      <c r="D38" s="33">
         <v>132.34025657224399</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="34">
         <v>285.53796812001599</v>
       </c>
-      <c r="F38" s="43">
+      <c r="F38" s="36">
         <v>7627.2637157008103</v>
       </c>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B39" s="28"/>
-      <c r="C39" s="40">
+      <c r="C39" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="33">
         <v>100.673930564828</v>
       </c>
-      <c r="E39" s="41">
+      <c r="E39" s="34">
         <v>44.883748065223003</v>
       </c>
-      <c r="F39" s="43">
+      <c r="F39" s="36">
         <v>3473.1528015333301</v>
       </c>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B40" s="28"/>
-      <c r="C40" s="40">
+      <c r="C40" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D40" s="33">
         <v>23.392576793202</v>
       </c>
-      <c r="E40" s="41">
+      <c r="E40" s="34">
         <v>18.948177587288999</v>
       </c>
-      <c r="F40" s="43">
+      <c r="F40" s="36">
         <v>7012.3444669861801</v>
       </c>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B41" s="28"/>
-      <c r="C41" s="40">
+      <c r="C41" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D41" s="33">
         <v>9.4883244944590004</v>
       </c>
-      <c r="E41" s="41">
+      <c r="E41" s="34">
         <v>26.610409123435002</v>
       </c>
-      <c r="F41" s="43">
+      <c r="F41" s="36">
         <v>3687.4077049841499</v>
       </c>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B42" s="28"/>
-      <c r="C42" s="40">
+      <c r="C42" s="33">
         <v>0.406666666668</v>
       </c>
-      <c r="D42" s="40">
+      <c r="D42" s="33">
         <v>43.243367125485001</v>
       </c>
-      <c r="E42" s="41">
+      <c r="E42" s="34">
         <v>217.11260618006301</v>
       </c>
-      <c r="F42" s="43">
+      <c r="F42" s="36">
         <v>2080.6288466138399</v>
       </c>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B43" s="28"/>
-      <c r="C43" s="40">
+      <c r="C43" s="33">
         <v>29.114383458519001</v>
       </c>
-      <c r="D43" s="40">
+      <c r="D43" s="33">
         <v>187.66047127968</v>
       </c>
-      <c r="E43" s="41">
+      <c r="E43" s="34">
         <v>486.27978324303001</v>
       </c>
-      <c r="F43" s="43">
+      <c r="F43" s="36">
         <v>2514.4847605986702</v>
       </c>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B44" s="28"/>
-      <c r="C44" s="40">
+      <c r="C44" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D44" s="40">
+      <c r="D44" s="33">
         <v>93.229633595729993</v>
       </c>
-      <c r="E44" s="41">
+      <c r="E44" s="34">
         <v>17.165649838421</v>
       </c>
-      <c r="F44" s="43">
+      <c r="F44" s="36">
         <v>2979.8627679695601</v>
       </c>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="28"/>
-      <c r="C45" s="40">
+      <c r="C45" s="33">
         <v>0.406666666668</v>
       </c>
-      <c r="D45" s="40">
+      <c r="D45" s="33">
         <v>98.316455384400001</v>
       </c>
-      <c r="E45" s="41">
+      <c r="E45" s="34">
         <v>42.336813207393</v>
       </c>
-      <c r="F45" s="43">
+      <c r="F45" s="36">
         <v>3458.8443913226401</v>
       </c>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B46" s="28"/>
-      <c r="C46" s="40">
+      <c r="C46" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D46" s="40">
+      <c r="D46" s="33">
         <v>0.71166666666900003</v>
       </c>
-      <c r="E46" s="41">
+      <c r="E46" s="34">
         <v>89.368656622892004</v>
       </c>
-      <c r="F46" s="43">
+      <c r="F46" s="36">
         <v>4095.55832394044</v>
       </c>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B47" s="28"/>
-      <c r="C47" s="40">
+      <c r="C47" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D47" s="40">
+      <c r="D47" s="33">
         <v>168.68094039041301</v>
       </c>
-      <c r="E47" s="41">
+      <c r="E47" s="34">
         <v>246.72222946520799</v>
       </c>
-      <c r="F47" s="43">
+      <c r="F47" s="36">
         <v>2371.80893852598</v>
       </c>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B48" s="28"/>
-      <c r="C48" s="40">
+      <c r="C48" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D48" s="40">
+      <c r="D48" s="33">
         <v>78.345589668257006</v>
       </c>
-      <c r="E48" s="41">
+      <c r="E48" s="34">
         <v>48.312987006352998</v>
       </c>
-      <c r="F48" s="43">
+      <c r="F48" s="36">
         <v>6907.4395345430803</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="28"/>
-      <c r="C49" s="40">
+      <c r="C49" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D49" s="40">
+      <c r="D49" s="33">
         <v>217.34648769064199</v>
       </c>
-      <c r="E49" s="41">
+      <c r="E49" s="34">
         <v>308.21663687047999</v>
       </c>
-      <c r="F49" s="43">
+      <c r="F49" s="36">
         <v>2905.9726518110601</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="28"/>
-      <c r="C50" s="40">
+      <c r="C50" s="33">
         <v>36.520098581325001</v>
       </c>
-      <c r="D50" s="40">
+      <c r="D50" s="33">
         <v>275.172064415298</v>
       </c>
-      <c r="E50" s="41">
+      <c r="E50" s="34">
         <v>201.253160983881</v>
       </c>
-      <c r="F50" s="43">
+      <c r="F50" s="36">
         <v>5541.0234249015502</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="28"/>
-      <c r="C51" s="40">
+      <c r="C51" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D51" s="40">
+      <c r="D51" s="33">
         <v>212.13283379601901</v>
       </c>
-      <c r="E51" s="41">
+      <c r="E51" s="34">
         <v>54.685188476924999</v>
       </c>
-      <c r="F51" s="43">
+      <c r="F51" s="36">
         <v>792.72936076353596</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="28"/>
-      <c r="C52" s="40">
+      <c r="C52" s="33">
         <v>90.695243929312994</v>
       </c>
-      <c r="D52" s="40">
+      <c r="D52" s="33">
         <v>41.633552105234997</v>
       </c>
-      <c r="E52" s="41">
+      <c r="E52" s="34">
         <v>26.806216322171998</v>
       </c>
-      <c r="F52" s="43">
+      <c r="F52" s="36">
         <v>5438.8241270082599</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="28"/>
-      <c r="C53" s="40">
+      <c r="C53" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D53" s="40">
+      <c r="D53" s="33">
         <v>346.83149631235</v>
       </c>
-      <c r="E53" s="41">
+      <c r="E53" s="34">
         <v>228.02306232203401</v>
       </c>
-      <c r="F53" s="43">
+      <c r="F53" s="36">
         <v>2229.15504523241</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="28"/>
-      <c r="C54" s="40">
+      <c r="C54" s="33">
         <v>8.7504044233790008</v>
       </c>
-      <c r="D54" s="40">
+      <c r="D54" s="33">
         <v>0.71166666666900003</v>
       </c>
-      <c r="E54" s="41">
+      <c r="E54" s="34">
         <v>235.32672677198201</v>
       </c>
-      <c r="F54" s="43">
+      <c r="F54" s="36">
         <v>3751.85422799669</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="28"/>
-      <c r="C55" s="40">
+      <c r="C55" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D55" s="40">
+      <c r="D55" s="33">
         <v>301.05274376500199</v>
       </c>
-      <c r="E55" s="41">
+      <c r="E55" s="34">
         <v>310.09662801133197</v>
       </c>
-      <c r="F55" s="43">
+      <c r="F55" s="36">
         <v>1489.3892495702401</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="28"/>
-      <c r="C56" s="40">
+      <c r="C56" s="33">
         <v>17.281824381831999</v>
       </c>
-      <c r="D56" s="40">
+      <c r="D56" s="33">
         <v>164.86065254410701</v>
       </c>
-      <c r="E56" s="41">
+      <c r="E56" s="34">
         <v>240.852616602317</v>
       </c>
-      <c r="F56" s="43">
+      <c r="F56" s="36">
         <v>5983.97725011492</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="28"/>
-      <c r="C57" s="40">
+      <c r="C57" s="33">
         <v>21.895567771024002</v>
       </c>
-      <c r="D57" s="40">
+      <c r="D57" s="33">
         <v>84.232411402142006</v>
       </c>
-      <c r="E57" s="41">
+      <c r="E57" s="34">
         <v>349.10961030841099</v>
       </c>
-      <c r="F57" s="43">
+      <c r="F57" s="36">
         <v>6543.6093282750899</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="28"/>
-      <c r="C58" s="40">
+      <c r="C58" s="33">
         <v>10.290950251851999</v>
       </c>
-      <c r="D58" s="40">
+      <c r="D58" s="33">
         <v>204.69723998669701</v>
       </c>
-      <c r="E58" s="41">
+      <c r="E58" s="34">
         <v>77.922086064850006</v>
       </c>
-      <c r="F58" s="43">
+      <c r="F58" s="36">
         <v>3771.9574561715799</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="28"/>
-      <c r="C59" s="40">
+      <c r="C59" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D59" s="40">
+      <c r="D59" s="33">
         <v>0.91500000000299997</v>
       </c>
-      <c r="E59" s="41">
+      <c r="E59" s="34">
         <v>14.058580287155999</v>
       </c>
-      <c r="F59" s="43">
+      <c r="F59" s="36">
         <v>3852.9891165434801</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="28"/>
-      <c r="C60" s="40">
+      <c r="C60" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D60" s="40">
+      <c r="D60" s="33">
         <v>25.602510144421998</v>
       </c>
-      <c r="E60" s="41">
+      <c r="E60" s="34">
         <v>168.83822412216099</v>
       </c>
-      <c r="F60" s="43">
+      <c r="F60" s="36">
         <v>3264.7917319743101</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="28"/>
-      <c r="C61" s="40">
+      <c r="C61" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D61" s="40">
+      <c r="D61" s="33">
         <v>69.608278180317001</v>
       </c>
-      <c r="E61" s="41">
+      <c r="E61" s="34">
         <v>57.163282007802998</v>
       </c>
-      <c r="F61" s="43">
+      <c r="F61" s="36">
         <v>695.92837218624004</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="28"/>
-      <c r="C62" s="40">
+      <c r="C62" s="33">
         <v>117.28995565932399</v>
       </c>
-      <c r="D62" s="40">
+      <c r="D62" s="33">
         <v>122.436734944256</v>
       </c>
-      <c r="E62" s="41">
+      <c r="E62" s="34">
         <v>304.77454297791201</v>
       </c>
-      <c r="F62" s="43">
+      <c r="F62" s="36">
         <v>3529.5778640594799</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="28"/>
-      <c r="C63" s="40">
+      <c r="C63" s="33">
         <v>29.335971849366</v>
       </c>
-      <c r="D63" s="40">
+      <c r="D63" s="33">
         <v>150.77137249215701</v>
       </c>
-      <c r="E63" s="41">
+      <c r="E63" s="34">
         <v>161.266628170844</v>
       </c>
-      <c r="F63" s="43">
+      <c r="F63" s="36">
         <v>1116.8966241974999</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="28"/>
-      <c r="C64" s="40">
+      <c r="C64" s="33">
         <v>9.8452909244650009</v>
       </c>
-      <c r="D64" s="40">
+      <c r="D64" s="33">
         <v>239.11206143872101</v>
       </c>
-      <c r="E64" s="41">
+      <c r="E64" s="34">
         <v>325.27277851690599</v>
       </c>
-      <c r="F64" s="43">
+      <c r="F64" s="36">
         <v>6400.5787856557699</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="28"/>
-      <c r="C65" s="40">
+      <c r="C65" s="33">
         <v>46.093754464973998</v>
       </c>
-      <c r="D65" s="40">
+      <c r="D65" s="33">
         <v>93.461166907220004</v>
       </c>
-      <c r="E65" s="41">
+      <c r="E65" s="34">
         <v>262.29572541806499</v>
       </c>
-      <c r="F65" s="43">
+      <c r="F65" s="36">
         <v>4901.2338346490696</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="28"/>
-      <c r="C66" s="40">
+      <c r="C66" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D66" s="40">
+      <c r="D66" s="33">
         <v>33.184923596975999</v>
       </c>
-      <c r="E66" s="41">
+      <c r="E66" s="34">
         <v>326.306459269919</v>
       </c>
-      <c r="F66" s="43">
+      <c r="F66" s="36">
         <v>2648.9125019302601</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="28"/>
-      <c r="C67" s="40">
+      <c r="C67" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D67" s="40">
+      <c r="D67" s="33">
         <v>91.176421038499001</v>
       </c>
-      <c r="E67" s="41">
+      <c r="E67" s="34">
         <v>85.435987863907997</v>
       </c>
-      <c r="F67" s="43">
+      <c r="F67" s="36">
         <v>5445.0791761617802</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="28"/>
-      <c r="C68" s="40">
+      <c r="C68" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D68" s="40">
+      <c r="D68" s="33">
         <v>91.065492005061003</v>
       </c>
-      <c r="E68" s="41">
+      <c r="E68" s="34">
         <v>247.942279875613</v>
       </c>
-      <c r="F68" s="43">
+      <c r="F68" s="36">
         <v>6224.7203521389802</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="28"/>
-      <c r="C69" s="40">
+      <c r="C69" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D69" s="40">
+      <c r="D69" s="33">
         <v>134.386109513279</v>
       </c>
-      <c r="E69" s="41">
+      <c r="E69" s="34">
         <v>405.30184326887598</v>
       </c>
-      <c r="F69" s="43">
+      <c r="F69" s="36">
         <v>2791.2688629979698</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="28"/>
-      <c r="C70" s="40">
+      <c r="C70" s="33">
         <v>18.923516381075999</v>
       </c>
-      <c r="D70" s="40">
+      <c r="D70" s="33">
         <v>267.47069715822403</v>
       </c>
-      <c r="E70" s="41">
+      <c r="E70" s="34">
         <v>184.12642942779601</v>
       </c>
-      <c r="F70" s="43">
+      <c r="F70" s="36">
         <v>1177.20020121977</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="28"/>
-      <c r="C71" s="40">
+      <c r="C71" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D71" s="40">
+      <c r="D71" s="33">
         <v>263.71545774104902</v>
       </c>
-      <c r="E71" s="41">
+      <c r="E71" s="34">
         <v>177.51290945812701</v>
       </c>
-      <c r="F71" s="43">
+      <c r="F71" s="36">
         <v>3272.6966539804698</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="28"/>
-      <c r="C72" s="40">
+      <c r="C72" s="33">
         <v>1.7070088911500001</v>
       </c>
-      <c r="D72" s="40">
+      <c r="D72" s="33">
         <v>55.752407066478</v>
       </c>
-      <c r="E72" s="41">
+      <c r="E72" s="34">
         <v>174.066398935249</v>
       </c>
-      <c r="F72" s="43">
+      <c r="F72" s="36">
         <v>4390.7022047564396</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="28"/>
-      <c r="C73" s="40">
+      <c r="C73" s="33">
         <v>0.406666666668</v>
       </c>
-      <c r="D73" s="40">
+      <c r="D73" s="33">
         <v>279.13115608910198</v>
       </c>
-      <c r="E73" s="41">
+      <c r="E73" s="34">
         <v>4.8395579726709999</v>
       </c>
-      <c r="F73" s="43">
+      <c r="F73" s="36">
         <v>1959.5437880939301</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="28"/>
-      <c r="C74" s="40">
+      <c r="C74" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D74" s="40">
+      <c r="D74" s="33">
         <v>231.19440780618501</v>
       </c>
-      <c r="E74" s="41">
+      <c r="E74" s="34">
         <v>274.20319000586699</v>
       </c>
-      <c r="F74" s="43">
+      <c r="F74" s="36">
         <v>2816.5380192216398</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="28"/>
-      <c r="C75" s="40">
+      <c r="C75" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D75" s="40">
+      <c r="D75" s="33">
         <v>63.156492192507997</v>
       </c>
-      <c r="E75" s="41">
+      <c r="E75" s="34">
         <v>182.35477272065401</v>
       </c>
-      <c r="F75" s="43">
+      <c r="F75" s="36">
         <v>4523.76504867722</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="28"/>
-      <c r="C76" s="40">
+      <c r="C76" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D76" s="40">
+      <c r="D76" s="33">
         <v>171.98933073845501</v>
       </c>
-      <c r="E76" s="41">
+      <c r="E76" s="34">
         <v>150.646987126959</v>
       </c>
-      <c r="F76" s="43">
+      <c r="F76" s="36">
         <v>2001.3611335364201</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="28"/>
-      <c r="C77" s="40">
+      <c r="C77" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D77" s="40">
+      <c r="D77" s="33">
         <v>201.004195575523</v>
       </c>
-      <c r="E77" s="41">
+      <c r="E77" s="34">
         <v>203.82821363250599</v>
       </c>
-      <c r="F77" s="43">
+      <c r="F77" s="36">
         <v>1875.6411642042999</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="28"/>
-      <c r="C78" s="40">
+      <c r="C78" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D78" s="40">
+      <c r="D78" s="33">
         <v>64.853745134050996</v>
       </c>
-      <c r="E78" s="41">
+      <c r="E78" s="34">
         <v>299.57965422119599</v>
       </c>
-      <c r="F78" s="43">
+      <c r="F78" s="36">
         <v>2253.8048977603198</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="28"/>
-      <c r="C79" s="40">
+      <c r="C79" s="33">
         <v>101.879000324511</v>
       </c>
-      <c r="D79" s="40">
+      <c r="D79" s="33">
         <v>93.418789483572994</v>
       </c>
-      <c r="E79" s="41">
+      <c r="E79" s="34">
         <v>132.017320097896</v>
       </c>
-      <c r="F79" s="43">
+      <c r="F79" s="36">
         <v>4998.0473158856703</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="28"/>
-      <c r="C80" s="40">
+      <c r="C80" s="33">
         <v>182.187607068067</v>
       </c>
-      <c r="D80" s="40">
+      <c r="D80" s="33">
         <v>220.089810402371</v>
       </c>
-      <c r="E80" s="41">
+      <c r="E80" s="34">
         <v>123.021124288831</v>
       </c>
-      <c r="F80" s="43">
+      <c r="F80" s="36">
         <v>572.09706963462804</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="28"/>
-      <c r="C81" s="40">
+      <c r="C81" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D81" s="40">
+      <c r="D81" s="33">
         <v>54.558839518341003</v>
       </c>
-      <c r="E81" s="41">
+      <c r="E81" s="34">
         <v>99.442854451214998</v>
       </c>
-      <c r="F81" s="43">
+      <c r="F81" s="36">
         <v>3157.0846209750698</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="28"/>
-      <c r="C82" s="40">
+      <c r="C82" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D82" s="40">
+      <c r="D82" s="33">
         <v>157.425506887561</v>
       </c>
-      <c r="E82" s="41">
+      <c r="E82" s="34">
         <v>68.097416101297995</v>
       </c>
-      <c r="F82" s="43">
+      <c r="F82" s="36">
         <v>3139.31357177473</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="28"/>
-      <c r="C83" s="40">
+      <c r="C83" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D83" s="40">
+      <c r="D83" s="33">
         <v>28.640703112682999</v>
       </c>
-      <c r="E83" s="41">
+      <c r="E83" s="34">
         <v>1.0166666666699999</v>
       </c>
-      <c r="F83" s="43">
+      <c r="F83" s="36">
         <v>5403.98954776336</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="28"/>
-      <c r="C84" s="40">
+      <c r="C84" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D84" s="40">
+      <c r="D84" s="33">
         <v>74.879614645074994</v>
       </c>
-      <c r="E84" s="41">
+      <c r="E84" s="34">
         <v>120.601248525366</v>
       </c>
-      <c r="F84" s="43">
+      <c r="F84" s="36">
         <v>3382.5678702792302</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="28"/>
-      <c r="C85" s="40">
+      <c r="C85" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D85" s="40">
+      <c r="D85" s="33">
         <v>119.175320902888</v>
       </c>
-      <c r="E85" s="41">
+      <c r="E85" s="34">
         <v>99.522924284861006</v>
       </c>
-      <c r="F85" s="43">
+      <c r="F85" s="36">
         <v>3949.2566508592099</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="28"/>
-      <c r="C86" s="40">
+      <c r="C86" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D86" s="40">
+      <c r="D86" s="33">
         <v>238.78503109151401</v>
       </c>
-      <c r="E86" s="41">
+      <c r="E86" s="34">
         <v>100.946849817154</v>
       </c>
-      <c r="F86" s="43">
+      <c r="F86" s="36">
         <v>3287.01872485896</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="28"/>
-      <c r="C87" s="40">
+      <c r="C87" s="33">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D87" s="40">
+      <c r="D87" s="33">
         <v>126.972315210313</v>
       </c>
-      <c r="E87" s="41">
+      <c r="E87" s="34">
         <v>58.207885526173001</v>
       </c>
-      <c r="F87" s="43">
+      <c r="F87" s="36">
         <v>4104.7926329915799</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="28"/>
-      <c r="C88" s="40">
+      <c r="C88" s="33">
         <v>160.08967396922199</v>
       </c>
-      <c r="D88" s="40">
+      <c r="D88" s="33">
         <v>103.309014309432</v>
       </c>
-      <c r="E88" s="41">
+      <c r="E88" s="34">
         <v>23.706928886707001</v>
       </c>
-      <c r="F88" s="43">
+      <c r="F88" s="36">
         <v>3729.1285866571802</v>
       </c>
     </row>
@@ -49958,13 +50636,13 @@
       <c r="C89" s="28">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D89" s="40">
+      <c r="D89" s="33">
         <v>273.06233055393102</v>
       </c>
-      <c r="E89" s="41">
+      <c r="E89" s="34">
         <v>128.46159969558201</v>
       </c>
-      <c r="F89" s="43">
+      <c r="F89" s="36">
         <v>3277.1221393543301</v>
       </c>
     </row>
@@ -49973,13 +50651,13 @@
       <c r="C90" s="28">
         <v>21.789564018377</v>
       </c>
-      <c r="D90" s="40">
+      <c r="D90" s="33">
         <v>132.52447143319799</v>
       </c>
-      <c r="E90" s="41">
+      <c r="E90" s="34">
         <v>13.108718594983999</v>
       </c>
-      <c r="F90" s="43">
+      <c r="F90" s="36">
         <v>4264.2051652938499</v>
       </c>
     </row>
@@ -49988,13 +50666,13 @@
       <c r="C91" s="28">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D91" s="40">
+      <c r="D91" s="33">
         <v>115.753648862123</v>
       </c>
-      <c r="E91" s="41">
+      <c r="E91" s="34">
         <v>171.497036478935</v>
       </c>
-      <c r="F91" s="43">
+      <c r="F91" s="36">
         <v>2092.8129180015098</v>
       </c>
     </row>
@@ -50003,13 +50681,13 @@
       <c r="C92" s="28">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D92" s="40">
+      <c r="D92" s="33">
         <v>152.139948549964</v>
       </c>
-      <c r="E92" s="41">
+      <c r="E92" s="34">
         <v>304.89662509580802</v>
       </c>
-      <c r="F92" s="43">
+      <c r="F92" s="36">
         <v>4354.1924553790104</v>
       </c>
     </row>
@@ -50018,13 +50696,13 @@
       <c r="C93" s="28">
         <v>112.500862500324</v>
       </c>
-      <c r="D93" s="40">
+      <c r="D93" s="33">
         <v>482.45087853223799</v>
       </c>
-      <c r="E93" s="41">
+      <c r="E93" s="34">
         <v>275.60847246113099</v>
       </c>
-      <c r="F93" s="43">
+      <c r="F93" s="36">
         <v>1289.94031046489</v>
       </c>
     </row>
@@ -50033,13 +50711,13 @@
       <c r="C94" s="28">
         <v>11.602086059326</v>
       </c>
-      <c r="D94" s="40">
+      <c r="D94" s="33">
         <v>37.699815808903999</v>
       </c>
-      <c r="E94" s="41">
+      <c r="E94" s="34">
         <v>267.05854666033503</v>
       </c>
-      <c r="F94" s="43">
+      <c r="F94" s="36">
         <v>5218.0755073747596</v>
       </c>
     </row>
@@ -50048,13 +50726,13 @@
       <c r="C95" s="28">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D95" s="40">
+      <c r="D95" s="33">
         <v>126.538864944913</v>
       </c>
-      <c r="E95" s="41">
+      <c r="E95" s="34">
         <v>119.057040688097</v>
       </c>
-      <c r="F95" s="43">
+      <c r="F95" s="36">
         <v>4587.9573233677602</v>
       </c>
     </row>
@@ -50063,13 +50741,13 @@
       <c r="C96" s="28">
         <v>97.788080912267006</v>
       </c>
-      <c r="D96" s="40">
+      <c r="D96" s="33">
         <v>54.55568008046</v>
       </c>
-      <c r="E96" s="41">
+      <c r="E96" s="34">
         <v>122.210372524044</v>
       </c>
-      <c r="F96" s="43">
+      <c r="F96" s="36">
         <v>2304.0162693849502</v>
       </c>
     </row>
@@ -50078,13 +50756,13 @@
       <c r="C97" s="28">
         <v>196.729593490806</v>
       </c>
-      <c r="D97" s="40">
+      <c r="D97" s="33">
         <v>50.125544825131001</v>
       </c>
-      <c r="E97" s="41">
+      <c r="E97" s="34">
         <v>236.597754564827</v>
       </c>
-      <c r="F97" s="43">
+      <c r="F97" s="36">
         <v>5571.7117639563703</v>
       </c>
     </row>
@@ -50093,13 +50771,13 @@
       <c r="C98" s="28">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D98" s="40">
+      <c r="D98" s="33">
         <v>54.512139406551</v>
       </c>
-      <c r="E98" s="41">
+      <c r="E98" s="34">
         <v>1.8300000000059999</v>
       </c>
-      <c r="F98" s="43">
+      <c r="F98" s="36">
         <v>4174.7324031058797</v>
       </c>
     </row>
@@ -50108,13 +50786,13 @@
       <c r="C99" s="28">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D99" s="40">
+      <c r="D99" s="33">
         <v>168.59346917802</v>
       </c>
-      <c r="E99" s="41">
+      <c r="E99" s="34">
         <v>354.30661885621799</v>
       </c>
-      <c r="F99" s="43">
+      <c r="F99" s="36">
         <v>4886.78390264274</v>
       </c>
     </row>
@@ -50123,13 +50801,13 @@
       <c r="C100" s="28">
         <v>0.50833333333499997</v>
       </c>
-      <c r="D100" s="40">
+      <c r="D100" s="33">
         <v>134.78976177774899</v>
       </c>
-      <c r="E100" s="41">
+      <c r="E100" s="34">
         <v>203.84633882647199</v>
       </c>
-      <c r="F100" s="43">
+      <c r="F100" s="36">
         <v>1694.8168950829099</v>
       </c>
     </row>
@@ -50138,22 +50816,22 @@
       <c r="C101" s="28">
         <v>119.95006219828601</v>
       </c>
-      <c r="D101" s="40">
+      <c r="D101" s="33">
         <v>169.33559647299501</v>
       </c>
-      <c r="E101" s="41">
+      <c r="E101" s="34">
         <v>319.30986083003398</v>
       </c>
-      <c r="F101" s="43">
+      <c r="F101" s="36">
         <v>4627.65229760486</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
-      <c r="D102" s="40"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="42"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="35"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="28"/>

--- a/Data Collections/Data Collection Sim 0.xlsx
+++ b/Data Collections/Data Collection Sim 0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umeer\Desktop\University\TrustChain-Simulator\Data Collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CEAE53-E0A2-4D1E-A631-5F58A5FB2A77}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ABFCFD-3EDA-48FD-8399-0596D0A78595}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -344,13 +344,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="#,##0.000000000000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000000000000"/>
     <numFmt numFmtId="166" formatCode="0.000000000000"/>
     <numFmt numFmtId="167" formatCode="0.00000000000"/>
-    <numFmt numFmtId="168" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -609,7 +608,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -673,7 +672,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -687,10 +685,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -17753,8 +17751,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5553074" y="595312"/>
-              <a:ext cx="4733925" cy="2867025"/>
+              <a:off x="5554979" y="591502"/>
+              <a:ext cx="4732020" cy="2842260"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17867,8 +17865,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5667375" y="12277725"/>
-              <a:ext cx="4733925" cy="2733675"/>
+              <a:off x="5669280" y="12184380"/>
+              <a:ext cx="4732020" cy="2735580"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18722,7 +18720,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4">
@@ -18766,7 +18764,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -18808,7 +18806,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -18854,7 +18852,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -18897,7 +18895,7 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -18943,7 +18941,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="4">
         <v>6</v>
       </c>
@@ -18989,7 +18987,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="4">
         <v>7</v>
       </c>
@@ -19035,7 +19033,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="5">
@@ -19083,7 +19081,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="5">
         <v>2</v>
       </c>
@@ -19129,7 +19127,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="5">
         <v>3</v>
       </c>
@@ -19175,7 +19173,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="5">
         <v>4</v>
       </c>
@@ -19219,7 +19217,7 @@
       <c r="T12" s="23"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="39" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="6">
@@ -19264,7 +19262,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="6">
         <v>2</v>
       </c>
@@ -19307,7 +19305,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="6">
         <v>3</v>
       </c>
@@ -19350,7 +19348,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="6">
         <v>4</v>
       </c>
@@ -19393,7 +19391,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="6">
         <v>5</v>
       </c>
@@ -19436,7 +19434,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="6">
         <v>6</v>
       </c>
@@ -19524,7 +19522,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="30">
@@ -19573,7 +19571,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="30">
         <v>2</v>
       </c>
@@ -19620,7 +19618,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="37" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="10">
@@ -19665,7 +19663,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="11">
         <v>2</v>
       </c>
@@ -19708,7 +19706,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="10">
         <v>3</v>
       </c>
@@ -19751,7 +19749,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="11">
         <v>4</v>
       </c>
@@ -19794,7 +19792,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="10">
         <v>5</v>
       </c>
@@ -19837,7 +19835,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="37" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="12">
@@ -19885,7 +19883,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="12">
         <v>2</v>
       </c>
@@ -19928,7 +19926,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="12">
         <v>3</v>
       </c>
@@ -19971,7 +19969,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="12">
         <v>4</v>
       </c>
@@ -20014,7 +20012,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="12">
         <v>5</v>
       </c>
@@ -20057,7 +20055,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="12">
         <v>6</v>
       </c>
@@ -20100,7 +20098,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="37" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="14">
@@ -20145,7 +20143,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="14">
         <v>2</v>
       </c>
@@ -20188,7 +20186,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="14">
         <v>3</v>
       </c>
@@ -20231,7 +20229,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="14">
         <v>4</v>
       </c>
@@ -20274,7 +20272,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="14">
         <v>5</v>
       </c>
@@ -20317,7 +20315,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="37" t="s">
         <v>92</v>
       </c>
       <c r="B38" s="20">
@@ -20358,7 +20356,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="20">
         <v>2</v>
       </c>
@@ -20397,7 +20395,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="20">
         <v>3</v>
       </c>
@@ -20436,7 +20434,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="20">
         <v>4</v>
       </c>
@@ -20475,7 +20473,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="20">
         <v>5</v>
       </c>
@@ -20514,7 +20512,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="37" t="s">
         <v>93</v>
       </c>
       <c r="B43" s="24">
@@ -20558,7 +20556,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="24">
         <v>2</v>
       </c>
@@ -20600,7 +20598,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="24">
         <v>3</v>
       </c>
@@ -20642,7 +20640,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="24">
         <v>4</v>
       </c>
@@ -20684,7 +20682,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="24">
         <v>5</v>
       </c>
@@ -20726,7 +20724,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="24">
         <v>6</v>
       </c>
@@ -21697,18 +21695,18 @@
       <c r="J41" t="s">
         <v>90</v>
       </c>
-      <c r="K41" s="43" t="s">
+      <c r="K41" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43" t="s">
+      <c r="L41" s="41"/>
+      <c r="M41" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43" t="s">
+      <c r="N41" s="41"/>
+      <c r="O41" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="P41" s="43"/>
+      <c r="P41" s="41"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42">
@@ -21735,18 +21733,18 @@
       <c r="J42">
         <v>10</v>
       </c>
-      <c r="K42" s="43">
+      <c r="K42" s="41">
         <v>1.2</v>
       </c>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43">
+      <c r="L42" s="41"/>
+      <c r="M42" s="41">
         <v>3</v>
       </c>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43">
+      <c r="N42" s="41"/>
+      <c r="O42" s="41">
         <v>1.7929999999999999</v>
       </c>
-      <c r="P42" s="43"/>
+      <c r="P42" s="41"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43">
@@ -21773,18 +21771,18 @@
       <c r="J43">
         <v>20</v>
       </c>
-      <c r="K43" s="43">
+      <c r="K43" s="41">
         <v>1.3</v>
       </c>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43">
+      <c r="L43" s="41"/>
+      <c r="M43" s="41">
         <v>4</v>
       </c>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43">
+      <c r="N43" s="41"/>
+      <c r="O43" s="41">
         <v>1.8839999999999999</v>
       </c>
-      <c r="P43" s="43"/>
+      <c r="P43" s="41"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44">
@@ -21811,18 +21809,18 @@
       <c r="J44">
         <v>50</v>
       </c>
-      <c r="K44" s="43">
+      <c r="K44" s="41">
         <v>2.36</v>
       </c>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43">
+      <c r="L44" s="41"/>
+      <c r="M44" s="41">
         <v>6</v>
       </c>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43">
+      <c r="N44" s="41"/>
+      <c r="O44" s="41">
         <v>2.2669999999999999</v>
       </c>
-      <c r="P44" s="43"/>
+      <c r="P44" s="41"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45">
@@ -21849,18 +21847,18 @@
       <c r="J45">
         <v>100</v>
       </c>
-      <c r="K45" s="43">
+      <c r="K45" s="41">
         <v>2.5499999999999998</v>
       </c>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43">
+      <c r="L45" s="41"/>
+      <c r="M45" s="41">
         <v>8</v>
       </c>
-      <c r="N45" s="43"/>
-      <c r="O45" s="43">
+      <c r="N45" s="41"/>
+      <c r="O45" s="41">
         <v>2.8820000000000001</v>
       </c>
-      <c r="P45" s="43"/>
+      <c r="P45" s="41"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46">
@@ -21887,12 +21885,12 @@
       <c r="J46">
         <v>500</v>
       </c>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="43"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47">
@@ -21919,18 +21917,18 @@
       <c r="J47">
         <v>1000</v>
       </c>
-      <c r="K47" s="43">
+      <c r="K47" s="41">
         <v>3.55</v>
       </c>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43">
+      <c r="L47" s="41"/>
+      <c r="M47" s="41">
         <v>12</v>
       </c>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43">
+      <c r="N47" s="41"/>
+      <c r="O47" s="41">
         <v>4.1079999999999997</v>
       </c>
-      <c r="P47" s="43"/>
+      <c r="P47" s="41"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48">
@@ -23040,6 +23038,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J40:P40"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
     <mergeCell ref="O47:P47"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="M43:N43"/>
@@ -23052,16 +23060,6 @@
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="M46:N46"/>
     <mergeCell ref="O46:P46"/>
-    <mergeCell ref="J40:P40"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23072,7 +23070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8ADDF3-F6DC-49DE-90F6-6F07047D1F12}">
   <dimension ref="A1:Q1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -47323,19 +47321,19 @@
       <c r="G103" s="28"/>
     </row>
     <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="44"/>
+      <c r="A108" s="43"/>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="44"/>
+      <c r="A109" s="43"/>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="44"/>
+      <c r="A110" s="43"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="44"/>
+      <c r="A111" s="43"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="44"/>
+      <c r="A112" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -49227,14 +49225,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DE4954-B822-463F-AF49-CD5C62D3DBE0}">
   <dimension ref="A1:AA105"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -49263,7 +49261,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="37">
+      <c r="B2" s="33">
         <v>0.406666666668</v>
       </c>
       <c r="C2" s="33">
@@ -49280,7 +49278,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="37">
+      <c r="B3" s="33">
         <v>0.406666666668</v>
       </c>
       <c r="C3" s="33">
@@ -49297,8 +49295,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="37">
-        <v>0.406666666668</v>
+      <c r="B4" s="33">
+        <v>44.855114553641997</v>
       </c>
       <c r="C4" s="33">
         <v>0.50833333333499997</v>
@@ -49314,7 +49312,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="37">
+      <c r="B5" s="33">
         <v>0.406666666668</v>
       </c>
       <c r="C5" s="33">
@@ -49331,8 +49329,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="37">
-        <v>0.406666666668</v>
+      <c r="B6" s="33">
+        <v>181.92077979172399</v>
       </c>
       <c r="C6" s="33">
         <v>0.50833333333499997</v>
@@ -49348,7 +49346,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="37">
+      <c r="B7" s="33">
         <v>0.406666666668</v>
       </c>
       <c r="C7" s="33">
@@ -49365,7 +49363,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="37">
+      <c r="B8" s="33">
         <v>0.406666666668</v>
       </c>
       <c r="C8" s="33">
@@ -49382,7 +49380,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="37">
+      <c r="B9" s="33">
         <v>0.406666666668</v>
       </c>
       <c r="C9" s="33">
@@ -49399,7 +49397,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
+      <c r="B10" s="33">
+        <v>0.406666666668</v>
+      </c>
       <c r="C10" s="33">
         <v>0.50833333333499997</v>
       </c>
@@ -49414,7 +49414,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
+      <c r="B11" s="33">
+        <v>0.406666666668</v>
+      </c>
       <c r="C11" s="33">
         <v>0.50833333333499997</v>
       </c>
@@ -49429,7 +49431,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="28"/>
+      <c r="B12" s="33">
+        <v>0.406666666668</v>
+      </c>
       <c r="C12" s="33">
         <v>0.406666666668</v>
       </c>
@@ -49444,7 +49448,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
+      <c r="B13" s="33">
+        <v>0.30500000000100003</v>
+      </c>
       <c r="C13" s="33">
         <v>0.50833333333499997</v>
       </c>
@@ -49459,7 +49465,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="28"/>
+      <c r="B14" s="33">
+        <v>36.394076976145001</v>
+      </c>
       <c r="C14" s="33">
         <v>0.50833333333499997</v>
       </c>
@@ -49474,7 +49482,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
+      <c r="B15" s="33">
+        <v>22.100444436389001</v>
+      </c>
       <c r="C15" s="33">
         <v>0.50833333333499997</v>
       </c>
@@ -49489,7 +49499,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
+      <c r="B16" s="33">
+        <v>0.406666666668</v>
+      </c>
       <c r="C16" s="33">
         <v>95.678212007157001</v>
       </c>
@@ -49504,7 +49516,9 @@
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
+      <c r="B17" s="33">
+        <v>41.417893529856997</v>
+      </c>
       <c r="C17" s="33">
         <v>75.810779305322995</v>
       </c>
@@ -49519,7 +49533,9 @@
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
+      <c r="B18" s="33">
+        <v>0.406666666668</v>
+      </c>
       <c r="C18" s="33">
         <v>0.50833333333499997</v>
       </c>
@@ -49534,7 +49550,9 @@
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
+      <c r="B19" s="33">
+        <v>32.247614029048997</v>
+      </c>
       <c r="C19" s="33">
         <v>156.30260621395999</v>
       </c>
@@ -49549,7 +49567,9 @@
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
+      <c r="B20" s="33">
+        <v>53.063883783317003</v>
+      </c>
       <c r="C20" s="33">
         <v>0.406666666668</v>
       </c>
@@ -49564,7 +49584,9 @@
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
+      <c r="B21" s="33">
+        <v>0.406666666668</v>
+      </c>
       <c r="C21" s="33">
         <v>0.50833333333499997</v>
       </c>
@@ -49579,7 +49601,9 @@
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
+      <c r="B22" s="33">
+        <v>0.406666666668</v>
+      </c>
       <c r="C22" s="33">
         <v>0.50833333333499997</v>
       </c>

--- a/Data Collections/Data Collection Sim 0.xlsx
+++ b/Data Collections/Data Collection Sim 0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\University\Thesis\TrustChain-Simulator\Data Collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170E1E94-21FE-428A-AC21-D84FC624CCC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0845A7F5-DB18-4663-B97A-43B5FA032FA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6252" yWindow="3024" windowWidth="17280" windowHeight="9024" activeTab="1" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="4656" yWindow="1776" windowWidth="17280" windowHeight="9024" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -24,10 +24,10 @@
     <sheet name="Set9" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$61</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$62:$E$161</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$5:$E$54</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$4</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$5:$E$54</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$61</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$62:$E$161</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
@@ -662,6 +662,7 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -675,13 +676,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="60% - Accent1" xfId="10" builtinId="32"/>
@@ -2960,7 +2960,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2998,7 +2998,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-BA23-47F0-8325-162A3EB2469F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -3026,7 +3026,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3064,7 +3064,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-92AE-4E86-80B1-3A198ACB5431}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -7055,8 +7055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891D42F-3971-43B5-986A-C0853C8465A0}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
@@ -7132,7 +7132,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="4">
@@ -7176,7 +7176,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -7218,7 +7218,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -7262,7 +7262,7 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -7305,7 +7305,7 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -7349,7 +7349,7 @@
       <c r="T6" s="25"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="4">
         <v>6</v>
       </c>
@@ -7393,7 +7393,7 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="4">
         <v>7</v>
       </c>
@@ -7437,7 +7437,7 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="47" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="5">
@@ -7483,7 +7483,7 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="5">
         <v>2</v>
       </c>
@@ -7527,7 +7527,7 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="5">
         <v>3</v>
       </c>
@@ -7571,7 +7571,7 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="5">
         <v>4</v>
       </c>
@@ -7615,7 +7615,7 @@
       <c r="T12" s="22"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="47" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="6">
@@ -7660,7 +7660,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="6">
         <v>2</v>
       </c>
@@ -7703,7 +7703,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="6">
         <v>3</v>
       </c>
@@ -7746,7 +7746,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="6">
         <v>4</v>
       </c>
@@ -7789,7 +7789,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="6">
         <v>5</v>
       </c>
@@ -7832,7 +7832,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="6">
         <v>6</v>
       </c>
@@ -7920,7 +7920,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="48" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="29">
@@ -7969,7 +7969,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="29">
         <v>2</v>
       </c>
@@ -8016,7 +8016,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="45" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="10">
@@ -8061,7 +8061,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="11">
         <v>2</v>
       </c>
@@ -8104,7 +8104,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="10">
         <v>3</v>
       </c>
@@ -8147,7 +8147,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="11">
         <v>4</v>
       </c>
@@ -8190,7 +8190,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="10">
         <v>5</v>
       </c>
@@ -8233,7 +8233,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="45" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="12">
@@ -8281,7 +8281,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="12">
         <v>2</v>
       </c>
@@ -8324,7 +8324,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="12">
         <v>3</v>
       </c>
@@ -8367,7 +8367,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="12">
         <v>4</v>
       </c>
@@ -8410,7 +8410,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="12">
         <v>5</v>
       </c>
@@ -8453,7 +8453,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="12">
         <v>6</v>
       </c>
@@ -8496,7 +8496,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="45" t="s">
         <v>51</v>
       </c>
       <c r="B33" s="14">
@@ -8541,7 +8541,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="14">
         <v>2</v>
       </c>
@@ -8584,7 +8584,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="44"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="14">
         <v>3</v>
       </c>
@@ -8627,7 +8627,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="44"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="14">
         <v>4</v>
       </c>
@@ -8670,7 +8670,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="14">
         <v>5</v>
       </c>
@@ -8713,7 +8713,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="45" t="s">
         <v>85</v>
       </c>
       <c r="B38" s="19">
@@ -8754,7 +8754,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="44"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="19">
         <v>2</v>
       </c>
@@ -8793,7 +8793,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="44"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="19">
         <v>3</v>
       </c>
@@ -8832,7 +8832,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="19">
         <v>4</v>
       </c>
@@ -8871,7 +8871,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="44"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="19">
         <v>5</v>
       </c>
@@ -8910,7 +8910,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="45" t="s">
         <v>86</v>
       </c>
       <c r="B43" s="23">
@@ -8954,7 +8954,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="44"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="23">
         <v>2</v>
       </c>
@@ -8996,7 +8996,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="23">
         <v>3</v>
       </c>
@@ -9038,7 +9038,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="44"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="23">
         <v>4</v>
       </c>
@@ -9080,7 +9080,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="44"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="23">
         <v>5</v>
       </c>
@@ -9122,7 +9122,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="44"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="23">
         <v>6</v>
       </c>
@@ -9200,7 +9200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB93F79-F640-47DC-B202-CD46132620C4}">
   <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
@@ -9684,15 +9684,15 @@
       <c r="G23" s="39">
         <v>273.919915629147</v>
       </c>
-      <c r="J23" s="48" t="s">
+      <c r="J23" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="40">
@@ -11380,22 +11380,22 @@
       <c r="G102" s="7"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B103" s="51">
+      <c r="B103" s="44">
         <v>4.5390360000000003</v>
       </c>
-      <c r="C103" s="51">
+      <c r="C103" s="44">
         <v>12.703390000000001</v>
       </c>
-      <c r="D103" s="51">
+      <c r="D103" s="44">
         <v>13.09676</v>
       </c>
-      <c r="E103" s="51">
+      <c r="E103" s="44">
         <v>34.68338</v>
       </c>
-      <c r="F103" s="51">
+      <c r="F103" s="44">
         <v>123.28440000000001</v>
       </c>
-      <c r="G103" s="51">
+      <c r="G103" s="44">
         <v>190.18340000000001</v>
       </c>
     </row>
@@ -11481,6 +11481,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="O30:P30"/>
@@ -11490,19 +11503,6 @@
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="O29:P29"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -35211,19 +35211,19 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="50"/>
+      <c r="A108" s="51"/>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="50"/>
+      <c r="A109" s="51"/>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="50"/>
+      <c r="A110" s="51"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="50"/>
+      <c r="A111" s="51"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="50"/>
+      <c r="A112" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -35237,8 +35237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5424DAFC-E75A-4FCC-BF86-3B2985A5EFC4}">
   <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView topLeftCell="A39" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35277,7 +35277,9 @@
       <c r="B2" s="27">
         <v>86.215717286957002</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="27">
+        <v>0.61000000000200005</v>
+      </c>
       <c r="D2" s="27">
         <v>0.61000000000200005</v>
       </c>
@@ -35292,7 +35294,9 @@
       <c r="B3" s="27">
         <v>255.46977926144399</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="27">
+        <v>11.593756709989</v>
+      </c>
       <c r="D3" s="27">
         <v>300.39246636701301</v>
       </c>
@@ -35307,7 +35311,9 @@
       <c r="B4" s="27">
         <v>322.825426505537</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="27">
+        <v>0.86649636027200005</v>
+      </c>
       <c r="D4" s="27">
         <v>0.71166666666900003</v>
       </c>
@@ -35322,7 +35328,9 @@
       <c r="B5" s="27">
         <v>69.234275614509002</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="27">
+        <v>75.863795972847996</v>
+      </c>
       <c r="D5" s="27">
         <v>21.028171343808001</v>
       </c>
@@ -35337,7 +35345,9 @@
       <c r="B6" s="27">
         <v>0.71166666666900003</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="27">
+        <v>19.352795448138</v>
+      </c>
       <c r="D6" s="27">
         <v>255.02887362716399</v>
       </c>
@@ -35352,7 +35362,9 @@
       <c r="B7" s="27">
         <v>199.385199116786</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="27">
+        <v>88.921595770413006</v>
+      </c>
       <c r="D7" s="27">
         <v>194.52990985327301</v>
       </c>
@@ -35367,7 +35379,9 @@
       <c r="B8" s="27">
         <v>37.819968938732998</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="27">
+        <v>36.779670297091997</v>
+      </c>
       <c r="D8" s="27">
         <v>309.078285744276</v>
       </c>
@@ -35382,7 +35396,9 @@
       <c r="B9" s="27">
         <v>129.685999837</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="27">
+        <v>112.89930831452401</v>
+      </c>
       <c r="D9" s="27">
         <v>99.328049055614002</v>
       </c>
@@ -35397,7 +35413,9 @@
       <c r="B10" s="27">
         <v>209.44949922557001</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="27">
+        <v>6.3122088544189996</v>
+      </c>
       <c r="D10" s="27">
         <v>147.45127369990101</v>
       </c>
@@ -35412,7 +35430,9 @@
       <c r="B11" s="27">
         <v>23.764182685529001</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="27">
+        <v>66.519587813550999</v>
+      </c>
       <c r="D11" s="27">
         <v>315.41864572255002</v>
       </c>
@@ -35427,7 +35447,9 @@
       <c r="B12" s="27">
         <v>0.61000000000200005</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="27">
+        <v>54.684308815525</v>
+      </c>
       <c r="D12" s="27">
         <v>0.71166666666900003</v>
       </c>
@@ -35442,7 +35464,9 @@
       <c r="B13" s="27">
         <v>81.648809430669004</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="27">
+        <v>13.987861085325999</v>
+      </c>
       <c r="D13" s="27">
         <v>0.50833333333499997</v>
       </c>
@@ -35457,7 +35481,9 @@
       <c r="B14" s="27">
         <v>115.992972571278</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="27">
+        <v>48.075955851521996</v>
+      </c>
       <c r="D14" s="27">
         <v>281.69683473526197</v>
       </c>
@@ -35472,7 +35498,9 @@
       <c r="B15" s="27">
         <v>0.71166666666900003</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="27">
+        <v>51.075726164271998</v>
+      </c>
       <c r="D15" s="27">
         <v>231.001774693523</v>
       </c>
@@ -35487,7 +35515,9 @@
       <c r="B16" s="27">
         <v>307.13115937735</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="27">
+        <v>29.405147852654</v>
+      </c>
       <c r="D16" s="27">
         <v>307.46930563203301</v>
       </c>
@@ -35502,7 +35532,9 @@
       <c r="B17" s="27">
         <v>86.298118854934998</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="27">
+        <v>77.396274284151005</v>
+      </c>
       <c r="D17" s="27">
         <v>259.70001892298001</v>
       </c>
@@ -35517,7 +35549,9 @@
       <c r="B18" s="27">
         <v>120.214659101637</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="27">
+        <v>81.528373187594994</v>
+      </c>
       <c r="D18" s="27">
         <v>228.65130824048501</v>
       </c>
@@ -35532,7 +35566,9 @@
       <c r="B19" s="27">
         <v>300.25839351607999</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="27">
+        <v>12.910569999722</v>
+      </c>
       <c r="D19" s="27">
         <v>200.80574640533899</v>
       </c>
@@ -35547,7 +35583,9 @@
       <c r="B20" s="27">
         <v>0.61000000000200005</v>
       </c>
-      <c r="C20" s="27"/>
+      <c r="C20" s="27">
+        <v>41.065432958880002</v>
+      </c>
       <c r="D20" s="27">
         <v>39.624787672372001</v>
       </c>
@@ -35562,7 +35600,9 @@
       <c r="B21" s="27">
         <v>44.142613464</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="27">
+        <v>10.523896334756</v>
+      </c>
       <c r="D21" s="27">
         <v>448.63439339754302</v>
       </c>
@@ -35577,7 +35617,9 @@
       <c r="B22" s="27">
         <v>161.25911196069501</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="27">
+        <v>46.094404766670998</v>
+      </c>
       <c r="D22" s="27">
         <v>71.876092155739002</v>
       </c>
@@ -35592,7 +35634,9 @@
       <c r="B23" s="27">
         <v>111.94315110734399</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="27">
+        <v>23.747226358528</v>
+      </c>
       <c r="D23" s="27">
         <v>133.53160691106001</v>
       </c>
@@ -35607,7 +35651,9 @@
       <c r="B24" s="27">
         <v>0.71166666666900003</v>
       </c>
-      <c r="C24" s="27"/>
+      <c r="C24" s="27">
+        <v>66.416724657215994</v>
+      </c>
       <c r="D24" s="27">
         <v>374.56493702683201</v>
       </c>
@@ -35622,7 +35668,9 @@
       <c r="B25" s="27">
         <v>126.86806141703001</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="27">
+        <v>67.245366141459002</v>
+      </c>
       <c r="D25" s="27">
         <v>362.682062005445</v>
       </c>
@@ -35637,7 +35685,9 @@
       <c r="B26" s="27">
         <v>0.61000000000200005</v>
       </c>
-      <c r="C26" s="27"/>
+      <c r="C26" s="27">
+        <v>42.717558737764001</v>
+      </c>
       <c r="D26" s="27">
         <v>115.432041621915</v>
       </c>
@@ -35652,7 +35702,9 @@
       <c r="B27" s="27">
         <v>78.774905857158004</v>
       </c>
-      <c r="C27" s="27"/>
+      <c r="C27" s="27">
+        <v>8.4901085824900004</v>
+      </c>
       <c r="D27" s="27">
         <v>353.26345850330398</v>
       </c>
@@ -35667,7 +35719,9 @@
       <c r="B28" s="27">
         <v>108.13198920841199</v>
       </c>
-      <c r="C28" s="27"/>
+      <c r="C28" s="27">
+        <v>10.490394260793</v>
+      </c>
       <c r="D28" s="27">
         <v>634.14088039084004</v>
       </c>
@@ -35682,7 +35736,9 @@
       <c r="B29" s="27">
         <v>56.027205100482</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="27">
+        <v>33.546325682366003</v>
+      </c>
       <c r="D29" s="27">
         <v>149.815072372754</v>
       </c>
@@ -35697,7 +35753,9 @@
       <c r="B30" s="27">
         <v>194.187444201452</v>
       </c>
-      <c r="C30" s="27"/>
+      <c r="C30" s="27">
+        <v>6.0177619760420002</v>
+      </c>
       <c r="D30" s="27">
         <v>92.022306482888993</v>
       </c>
@@ -35712,7 +35770,9 @@
       <c r="B31" s="27">
         <v>7.7827416201619997</v>
       </c>
-      <c r="C31" s="27"/>
+      <c r="C31" s="27">
+        <v>11.956429364206</v>
+      </c>
       <c r="D31" s="27">
         <v>893.77595961272402</v>
       </c>
@@ -35727,7 +35787,9 @@
       <c r="B32" s="27">
         <v>313.69824254259498</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="27">
+        <v>14.228133743226</v>
+      </c>
       <c r="D32" s="27">
         <v>197.282867034688</v>
       </c>
@@ -35742,7 +35804,9 @@
       <c r="B33" s="27">
         <v>146.06299727923201</v>
       </c>
-      <c r="C33" s="27"/>
+      <c r="C33" s="27">
+        <v>2.0423967040390001</v>
+      </c>
       <c r="D33" s="27">
         <v>51.993088404289999</v>
       </c>
@@ -35757,7 +35821,9 @@
       <c r="B34" s="27">
         <v>170.62334172113401</v>
       </c>
-      <c r="C34" s="27"/>
+      <c r="C34" s="27">
+        <v>0.813333333336</v>
+      </c>
       <c r="D34" s="27">
         <v>83.666561216391003</v>
       </c>
@@ -35772,7 +35838,9 @@
       <c r="B35" s="27">
         <v>77.852640581653006</v>
       </c>
-      <c r="C35" s="27"/>
+      <c r="C35" s="27">
+        <v>70.774229407248001</v>
+      </c>
       <c r="D35" s="27">
         <v>0.61000000000200005</v>
       </c>
@@ -35787,7 +35855,9 @@
       <c r="B36" s="27">
         <v>180.721535415555</v>
       </c>
-      <c r="C36" s="27"/>
+      <c r="C36" s="27">
+        <v>28.201257043696</v>
+      </c>
       <c r="D36" s="27">
         <v>0.71166666666900003</v>
       </c>
@@ -35802,7 +35872,9 @@
       <c r="B37" s="27">
         <v>12.432291170022999</v>
       </c>
-      <c r="C37" s="27"/>
+      <c r="C37" s="27">
+        <v>48.999238651291002</v>
+      </c>
       <c r="D37" s="27">
         <v>113.03551863726901</v>
       </c>
@@ -35817,7 +35889,9 @@
       <c r="B38" s="27">
         <v>29.683793238671999</v>
       </c>
-      <c r="C38" s="27"/>
+      <c r="C38" s="27">
+        <v>46.223911001437997</v>
+      </c>
       <c r="D38" s="27">
         <v>114.54803046152701</v>
       </c>
@@ -35832,7 +35906,9 @@
       <c r="B39" s="27">
         <v>173.70522988131199</v>
       </c>
-      <c r="C39" s="27"/>
+      <c r="C39" s="27">
+        <v>46.255574055821</v>
+      </c>
       <c r="D39" s="27">
         <v>178.278454527875</v>
       </c>
@@ -35847,7 +35923,9 @@
       <c r="B40" s="27">
         <v>116.02174339932</v>
       </c>
-      <c r="C40" s="27"/>
+      <c r="C40" s="27">
+        <v>45.625446842565999</v>
+      </c>
       <c r="D40" s="27">
         <v>212.48645845994801</v>
       </c>
@@ -35862,7 +35940,9 @@
       <c r="B41" s="27">
         <v>0.61000000000200005</v>
       </c>
-      <c r="C41" s="27"/>
+      <c r="C41" s="27">
+        <v>35.115699312495998</v>
+      </c>
       <c r="D41" s="27">
         <v>7.3428763474260004</v>
       </c>
@@ -35877,7 +35957,9 @@
       <c r="B42" s="27">
         <v>30.251465077155</v>
       </c>
-      <c r="C42" s="27"/>
+      <c r="C42" s="27">
+        <v>45.984775340544999</v>
+      </c>
       <c r="D42" s="27">
         <v>209.683036945449</v>
       </c>
@@ -35892,7 +35974,9 @@
       <c r="B43" s="27">
         <v>77.138866736262997</v>
       </c>
-      <c r="C43" s="27"/>
+      <c r="C43" s="27">
+        <v>39.861097918115</v>
+      </c>
       <c r="D43" s="27">
         <v>221.64830439998701</v>
       </c>
@@ -35907,7 +35991,9 @@
       <c r="B44" s="27">
         <v>61.332128247425999</v>
       </c>
-      <c r="C44" s="27"/>
+      <c r="C44" s="27">
+        <v>46.499010403370001</v>
+      </c>
       <c r="D44" s="27">
         <v>0.71166666666900003</v>
       </c>
@@ -35922,7 +36008,9 @@
       <c r="B45" s="27">
         <v>19.106546880142002</v>
       </c>
-      <c r="C45" s="27"/>
+      <c r="C45" s="27">
+        <v>39.140731299273</v>
+      </c>
       <c r="D45" s="27">
         <v>241.545721069725</v>
       </c>
@@ -35937,7 +36025,9 @@
       <c r="B46" s="27">
         <v>0.406666666668</v>
       </c>
-      <c r="C46" s="27"/>
+      <c r="C46" s="27">
+        <v>28.963919475586</v>
+      </c>
       <c r="D46" s="27">
         <v>138.82913162444001</v>
       </c>
@@ -35952,7 +36042,9 @@
       <c r="B47" s="27">
         <v>0.61000000000200005</v>
       </c>
-      <c r="C47" s="27"/>
+      <c r="C47" s="27">
+        <v>28.476086812011001</v>
+      </c>
       <c r="D47" s="27">
         <v>305.84402966943799</v>
       </c>
@@ -35967,7 +36059,9 @@
       <c r="B48" s="27">
         <v>52.969990464481</v>
       </c>
-      <c r="C48" s="27"/>
+      <c r="C48" s="27">
+        <v>96.249764419086006</v>
+      </c>
       <c r="D48" s="27">
         <v>105.82907320763201</v>
       </c>
@@ -35982,7 +36076,9 @@
       <c r="B49" s="27">
         <v>3.4685687493009998</v>
       </c>
-      <c r="C49" s="27"/>
+      <c r="C49" s="27">
+        <v>20.259153224647001</v>
+      </c>
       <c r="D49" s="27">
         <v>82.074562108552001</v>
       </c>
@@ -35997,7 +36093,9 @@
       <c r="B50" s="27">
         <v>145.765407901153</v>
       </c>
-      <c r="C50" s="27"/>
+      <c r="C50" s="27">
+        <v>27.603310016859002</v>
+      </c>
       <c r="D50" s="27">
         <v>234.57061278329601</v>
       </c>
@@ -36012,7 +36110,9 @@
       <c r="B51" s="27">
         <v>129.538620617486</v>
       </c>
-      <c r="C51" s="27"/>
+      <c r="C51" s="27">
+        <v>87.827832195363001</v>
+      </c>
       <c r="D51" s="27">
         <v>167.30992538279099</v>
       </c>
@@ -36027,7 +36127,9 @@
       <c r="B52" s="27">
         <v>171.690615719466</v>
       </c>
-      <c r="C52" s="27"/>
+      <c r="C52" s="27">
+        <v>32.480374303742998</v>
+      </c>
       <c r="D52" s="27">
         <v>177.41963794589299</v>
       </c>
@@ -36042,7 +36144,9 @@
       <c r="B53" s="27">
         <v>152.34079044330201</v>
       </c>
-      <c r="C53" s="27"/>
+      <c r="C53" s="27">
+        <v>90.851330165868006</v>
+      </c>
       <c r="D53" s="27">
         <v>501.79753336436698</v>
       </c>
@@ -36057,7 +36161,9 @@
       <c r="B54" s="27">
         <v>207.19953969573999</v>
       </c>
-      <c r="C54" s="27"/>
+      <c r="C54" s="27">
+        <v>56.041463061601</v>
+      </c>
       <c r="D54" s="27">
         <v>615.51698065588403</v>
       </c>
@@ -36072,7 +36178,9 @@
       <c r="B55" s="27">
         <v>18.120606428485999</v>
       </c>
-      <c r="C55" s="27"/>
+      <c r="C55" s="27">
+        <v>11.583028498795001</v>
+      </c>
       <c r="D55" s="27">
         <v>480.25559654358</v>
       </c>
@@ -36087,7 +36195,9 @@
       <c r="B56" s="27">
         <v>0.50833333333499997</v>
       </c>
-      <c r="C56" s="27"/>
+      <c r="C56" s="27">
+        <v>52.273470529359003</v>
+      </c>
       <c r="D56" s="27">
         <v>0.61000000000200005</v>
       </c>
@@ -36102,7 +36212,9 @@
       <c r="B57" s="27">
         <v>75.880794247291007</v>
       </c>
-      <c r="C57" s="27"/>
+      <c r="C57" s="27">
+        <v>85.552043020409002</v>
+      </c>
       <c r="D57" s="27">
         <v>175.032595356874</v>
       </c>
@@ -36117,7 +36229,9 @@
       <c r="B58" s="27">
         <v>71.575781775479996</v>
       </c>
-      <c r="C58" s="27"/>
+      <c r="C58" s="27">
+        <v>0.71166666666900003</v>
+      </c>
       <c r="D58" s="27">
         <v>80.666183831604997</v>
       </c>
@@ -36132,7 +36246,9 @@
       <c r="B59" s="27">
         <v>0.61000000000200005</v>
       </c>
-      <c r="C59" s="27"/>
+      <c r="C59" s="27">
+        <v>10.939050040665</v>
+      </c>
       <c r="D59" s="27">
         <v>285.28929946200901</v>
       </c>
@@ -36147,7 +36263,9 @@
       <c r="B60" s="27">
         <v>26.100401725615999</v>
       </c>
-      <c r="C60" s="27"/>
+      <c r="C60" s="27">
+        <v>2.8854085839739998</v>
+      </c>
       <c r="D60" s="27">
         <v>136.43117826592601</v>
       </c>
@@ -36162,7 +36280,9 @@
       <c r="B61" s="27">
         <v>39.854453799505997</v>
       </c>
-      <c r="C61" s="27"/>
+      <c r="C61" s="27">
+        <v>135.01677903229299</v>
+      </c>
       <c r="D61" s="27">
         <v>342.16820468256901</v>
       </c>
@@ -36177,7 +36297,9 @@
       <c r="B62" s="27">
         <v>228.07340261079199</v>
       </c>
-      <c r="C62" s="27"/>
+      <c r="C62" s="27">
+        <v>78.214714470008005</v>
+      </c>
       <c r="D62" s="27">
         <v>49.197089089160997</v>
       </c>
@@ -36192,7 +36314,9 @@
       <c r="B63" s="27">
         <v>153.31536741932899</v>
       </c>
-      <c r="C63" s="27"/>
+      <c r="C63" s="27">
+        <v>83.014953693495997</v>
+      </c>
       <c r="D63" s="27">
         <v>26.454536634943</v>
       </c>
@@ -36207,7 +36331,9 @@
       <c r="B64" s="27">
         <v>81.461409288278006</v>
       </c>
-      <c r="C64" s="27"/>
+      <c r="C64" s="27">
+        <v>28.123571075417999</v>
+      </c>
       <c r="D64" s="27">
         <v>351.077979251697</v>
       </c>
@@ -36222,7 +36348,9 @@
       <c r="B65" s="27">
         <v>99.573041634812995</v>
       </c>
-      <c r="C65" s="27"/>
+      <c r="C65" s="27">
+        <v>26.342666351719</v>
+      </c>
       <c r="D65" s="27">
         <v>536.27508083275302</v>
       </c>
@@ -36237,7 +36365,9 @@
       <c r="B66" s="27">
         <v>175.53225995288901</v>
       </c>
-      <c r="C66" s="27"/>
+      <c r="C66" s="27">
+        <v>42.094544693830997</v>
+      </c>
       <c r="D66" s="27">
         <v>528.116396105842</v>
       </c>
@@ -36252,7 +36382,9 @@
       <c r="B67" s="27">
         <v>106.605827394811</v>
       </c>
-      <c r="C67" s="27"/>
+      <c r="C67" s="27">
+        <v>98.629688767662998</v>
+      </c>
       <c r="D67" s="27">
         <v>264.89144272808898</v>
       </c>
@@ -36267,7 +36399,9 @@
       <c r="B68" s="27">
         <v>82.269516669469994</v>
       </c>
-      <c r="C68" s="27"/>
+      <c r="C68" s="27">
+        <v>4.808706338176</v>
+      </c>
       <c r="D68" s="27">
         <v>74.341679629449999</v>
       </c>
@@ -36282,7 +36416,9 @@
       <c r="B69" s="27">
         <v>48.206584728757001</v>
       </c>
-      <c r="C69" s="27"/>
+      <c r="C69" s="27">
+        <v>3.2793289687330001</v>
+      </c>
       <c r="D69" s="27">
         <v>57.864758695454</v>
       </c>
@@ -36297,7 +36433,9 @@
       <c r="B70" s="27">
         <v>229.87883781267601</v>
       </c>
-      <c r="C70" s="27"/>
+      <c r="C70" s="27">
+        <v>0.71166666666900003</v>
+      </c>
       <c r="D70" s="27">
         <v>71.702678275701999</v>
       </c>
@@ -36312,7 +36450,9 @@
       <c r="B71" s="27">
         <v>93.983183833268995</v>
       </c>
-      <c r="C71" s="27"/>
+      <c r="C71" s="27">
+        <v>89.965426356399007</v>
+      </c>
       <c r="D71" s="27">
         <v>49.602413367581001</v>
       </c>
@@ -36327,7 +36467,9 @@
       <c r="B72" s="27">
         <v>27.457045426202999</v>
       </c>
-      <c r="C72" s="27"/>
+      <c r="C72" s="27">
+        <v>35.486521995746998</v>
+      </c>
       <c r="D72" s="27">
         <v>4.2062114438889999</v>
       </c>
@@ -36342,7 +36484,9 @@
       <c r="B73" s="27">
         <v>42.649244335311998</v>
       </c>
-      <c r="C73" s="27"/>
+      <c r="C73" s="27">
+        <v>50.842261506900002</v>
+      </c>
       <c r="D73" s="27">
         <v>219.95960791207801</v>
       </c>
@@ -36357,7 +36501,9 @@
       <c r="B74" s="27">
         <v>191.79417212995</v>
       </c>
-      <c r="C74" s="27"/>
+      <c r="C74" s="27">
+        <v>26.757684977823001</v>
+      </c>
       <c r="D74" s="27">
         <v>22.785214715717</v>
       </c>
@@ -36372,7 +36518,9 @@
       <c r="B75" s="27">
         <v>50.331375417376996</v>
       </c>
-      <c r="C75" s="27"/>
+      <c r="C75" s="27">
+        <v>90.266999378540007</v>
+      </c>
       <c r="D75" s="27">
         <v>327.74208368573801</v>
       </c>
@@ -36387,7 +36535,9 @@
       <c r="B76" s="27">
         <v>12.687165395728</v>
       </c>
-      <c r="C76" s="27"/>
+      <c r="C76" s="27">
+        <v>64.224069604609994</v>
+      </c>
       <c r="D76" s="27">
         <v>0.50833333333499997</v>
       </c>
@@ -36402,7 +36552,9 @@
       <c r="B77" s="27">
         <v>23.663825388486</v>
       </c>
-      <c r="C77" s="27"/>
+      <c r="C77" s="27">
+        <v>9.2909756240450001</v>
+      </c>
       <c r="D77" s="27">
         <v>54.285426229805999</v>
       </c>
@@ -36417,7 +36569,9 @@
       <c r="B78" s="27">
         <v>247.959445503403</v>
       </c>
-      <c r="C78" s="27"/>
+      <c r="C78" s="27">
+        <v>25.933032698866</v>
+      </c>
       <c r="D78" s="27">
         <v>445.14250390198401</v>
       </c>
@@ -36432,7 +36586,9 @@
       <c r="B79" s="27">
         <v>90.097345550173003</v>
       </c>
-      <c r="C79" s="27"/>
+      <c r="C79" s="27">
+        <v>105.276026116683</v>
+      </c>
       <c r="D79" s="27">
         <v>284.23930936026397</v>
       </c>
@@ -36447,7 +36603,9 @@
       <c r="B80" s="27">
         <v>252.726050883483</v>
       </c>
-      <c r="C80" s="27"/>
+      <c r="C80" s="27">
+        <v>62.004319454410002</v>
+      </c>
       <c r="D80" s="27">
         <v>124.245578489482</v>
       </c>
@@ -36462,7 +36620,9 @@
       <c r="B81" s="27">
         <v>211.99082290560901</v>
       </c>
-      <c r="C81" s="27"/>
+      <c r="C81" s="27">
+        <v>63.029265233548003</v>
+      </c>
       <c r="D81" s="27">
         <v>95.607599907804996</v>
       </c>
@@ -36477,7 +36637,9 @@
       <c r="B82" s="27">
         <v>144.19439684610501</v>
       </c>
-      <c r="C82" s="27"/>
+      <c r="C82" s="27">
+        <v>56.140909154306001</v>
+      </c>
       <c r="D82" s="27">
         <v>133.804334560527</v>
       </c>
@@ -36492,7 +36654,9 @@
       <c r="B83" s="27">
         <v>200.09620921494101</v>
       </c>
-      <c r="C83" s="27"/>
+      <c r="C83" s="27">
+        <v>92.415386798141</v>
+      </c>
       <c r="D83" s="27">
         <v>177.38363761322901</v>
       </c>
@@ -36507,7 +36671,9 @@
       <c r="B84" s="27">
         <v>129.15303936333899</v>
       </c>
-      <c r="C84" s="27"/>
+      <c r="C84" s="27">
+        <v>0.406666666668</v>
+      </c>
       <c r="D84" s="27">
         <v>444.43231517404899</v>
       </c>
@@ -36522,7 +36688,9 @@
       <c r="B85" s="27">
         <v>99.861862251408994</v>
       </c>
-      <c r="C85" s="27"/>
+      <c r="C85" s="27">
+        <v>3.2418018693940001</v>
+      </c>
       <c r="D85" s="27">
         <v>341.24698278209399</v>
       </c>
@@ -36537,7 +36705,9 @@
       <c r="B86" s="27">
         <v>8.4567001590869992</v>
       </c>
-      <c r="C86" s="27"/>
+      <c r="C86" s="27">
+        <v>87.059661917441005</v>
+      </c>
       <c r="D86" s="27">
         <v>0.71166666666900003</v>
       </c>
@@ -36552,7 +36722,9 @@
       <c r="B87" s="27">
         <v>267.72584732016003</v>
       </c>
-      <c r="C87" s="27"/>
+      <c r="C87" s="27">
+        <v>22.585100746925001</v>
+      </c>
       <c r="D87" s="27">
         <v>88.132088082832993</v>
       </c>
@@ -36567,7 +36739,9 @@
       <c r="B88" s="27">
         <v>68.597646721645006</v>
       </c>
-      <c r="C88" s="27"/>
+      <c r="C88" s="27">
+        <v>53.736180347553997</v>
+      </c>
       <c r="D88" s="27">
         <v>241.019350453779</v>
       </c>
@@ -36582,7 +36756,9 @@
       <c r="B89" s="27">
         <v>3.147917961463</v>
       </c>
-      <c r="C89" s="27"/>
+      <c r="C89" s="27">
+        <v>11.512294073834999</v>
+      </c>
       <c r="D89" s="27">
         <v>0.61000000000200005</v>
       </c>
@@ -36597,7 +36773,9 @@
       <c r="B90" s="27">
         <v>68.116402788974</v>
       </c>
-      <c r="C90" s="27"/>
+      <c r="C90" s="27">
+        <v>67.966023823265999</v>
+      </c>
       <c r="D90" s="27">
         <v>0.71166666666900003</v>
       </c>
@@ -36612,7 +36790,9 @@
       <c r="B91" s="27">
         <v>1.3583558640719999</v>
       </c>
-      <c r="C91" s="27"/>
+      <c r="C91" s="27">
+        <v>36.370448547228001</v>
+      </c>
       <c r="D91" s="27">
         <v>100.246251731475</v>
       </c>
@@ -36627,7 +36807,9 @@
       <c r="B92" s="27">
         <v>44.743075345645998</v>
       </c>
-      <c r="C92" s="27"/>
+      <c r="C92" s="27">
+        <v>58.145127427189003</v>
+      </c>
       <c r="D92" s="27">
         <v>150.50886036926499</v>
       </c>
@@ -36642,7 +36824,9 @@
       <c r="B93" s="27">
         <v>128.18918365888101</v>
       </c>
-      <c r="C93" s="27"/>
+      <c r="C93" s="27">
+        <v>0.61000000000200005</v>
+      </c>
       <c r="D93" s="27">
         <v>212.03886796944801</v>
       </c>
@@ -36657,7 +36841,9 @@
       <c r="B94" s="27">
         <v>45.218614879425999</v>
       </c>
-      <c r="C94" s="27"/>
+      <c r="C94" s="27">
+        <v>2.762635045588</v>
+      </c>
       <c r="D94" s="27">
         <v>45.374419549952997</v>
       </c>
@@ -36672,7 +36858,9 @@
       <c r="B95" s="27">
         <v>73.425982738692994</v>
       </c>
-      <c r="C95" s="27"/>
+      <c r="C95" s="27">
+        <v>44.579799203038</v>
+      </c>
       <c r="D95" s="27">
         <v>139.45984377282599</v>
       </c>
@@ -36687,7 +36875,9 @@
       <c r="B96" s="27">
         <v>0.813333333336</v>
       </c>
-      <c r="C96" s="27"/>
+      <c r="C96" s="27">
+        <v>8.8422179309400004</v>
+      </c>
       <c r="D96" s="27">
         <v>505.21337718676199</v>
       </c>
@@ -36702,7 +36892,9 @@
       <c r="B97" s="27">
         <v>92.161697096734997</v>
       </c>
-      <c r="C97" s="27"/>
+      <c r="C97" s="27">
+        <v>57.523571559181001</v>
+      </c>
       <c r="D97" s="27">
         <v>632.37611586544904</v>
       </c>
@@ -36717,7 +36909,9 @@
       <c r="B98" s="27">
         <v>103.398465921011</v>
       </c>
-      <c r="C98" s="27"/>
+      <c r="C98" s="27">
+        <v>34.030091277182002</v>
+      </c>
       <c r="D98" s="27">
         <v>0.71166666666900003</v>
       </c>
@@ -36732,7 +36926,9 @@
       <c r="B99" s="27">
         <v>124.41775923873099</v>
       </c>
-      <c r="C99" s="27"/>
+      <c r="C99" s="27">
+        <v>0.71166666666900003</v>
+      </c>
       <c r="D99" s="27">
         <v>95.455855567854996</v>
       </c>
@@ -36747,7 +36943,9 @@
       <c r="B100" s="27">
         <v>0.61000000000200005</v>
       </c>
-      <c r="C100" s="27"/>
+      <c r="C100" s="27">
+        <v>91.337532504498</v>
+      </c>
       <c r="D100" s="27">
         <v>225.99732233329601</v>
       </c>
@@ -36762,7 +36960,9 @@
       <c r="B101" s="27">
         <v>279.36092210862301</v>
       </c>
-      <c r="C101" s="27"/>
+      <c r="C101" s="27">
+        <v>26.114033397278</v>
+      </c>
       <c r="D101" s="27">
         <v>317.31336652359801</v>
       </c>
@@ -36784,7 +36984,9 @@
       <c r="B103" s="27">
         <v>100.7766</v>
       </c>
-      <c r="C103" s="27"/>
+      <c r="C103" s="27">
+        <v>41.789619999999999</v>
+      </c>
       <c r="D103" s="27">
         <v>197.27670000000001</v>
       </c>
@@ -36799,7 +37001,9 @@
       <c r="B104" s="27">
         <v>86.271680000000003</v>
       </c>
-      <c r="C104" s="27"/>
+      <c r="C104" s="27">
+        <v>31.640889999999999</v>
+      </c>
       <c r="D104" s="27">
         <v>175.05529999999999</v>
       </c>
@@ -36814,7 +37018,9 @@
       <c r="B105" s="27">
         <v>16.908940000000001</v>
       </c>
-      <c r="C105" s="27"/>
+      <c r="C105" s="27">
+        <v>6.2015010000000004</v>
+      </c>
       <c r="D105" s="27">
         <v>34.310200000000002</v>
       </c>
@@ -36829,7 +37035,9 @@
       <c r="B106" s="27">
         <v>4</v>
       </c>
-      <c r="C106" s="27"/>
+      <c r="C106" s="27">
+        <v>0</v>
+      </c>
       <c r="D106" s="27">
         <v>4</v>
       </c>
@@ -36844,7 +37052,9 @@
       <c r="B107" s="27">
         <v>96</v>
       </c>
-      <c r="C107" s="27"/>
+      <c r="C107" s="27">
+        <v>100</v>
+      </c>
       <c r="D107" s="27">
         <v>96</v>
       </c>

--- a/Data Collections/Data Collection Sim 0.xlsx
+++ b/Data Collections/Data Collection Sim 0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\University\Thesis\TrustChain-Simulator\Data Collections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\Thesis\TrustChain-Simulator\Data Collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0845A7F5-DB18-4663-B97A-43B5FA032FA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895527FE-DF80-42CB-B17A-D5A318570F8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4656" yWindow="1776" windowWidth="17280" windowHeight="9024" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -591,7 +591,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -664,6 +664,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -676,10 +680,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -7053,11 +7057,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891D42F-3971-43B5-986A-C0853C8465A0}">
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B34" sqref="A34:XFD34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7132,7 +7136,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="4">
@@ -7176,7 +7180,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -7188,7 +7192,7 @@
         <v>0.13695052585936646</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E41" si="0">LN(C3)/(C3)</f>
+        <f t="shared" ref="E3:E42" si="0">LN(C3)/(C3)</f>
         <v>0.14978661367769955</v>
       </c>
       <c r="F3" s="1">
@@ -7218,7 +7222,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -7226,7 +7230,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D37" si="1">2*LOG(C4)/(C4-1)</f>
+        <f t="shared" ref="D4:D38" si="1">2*LOG(C4)/(C4-1)</f>
         <v>6.9345714462694649E-2</v>
       </c>
       <c r="E4" s="1">
@@ -7262,7 +7266,7 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -7305,7 +7309,7 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -7349,7 +7353,7 @@
       <c r="T6" s="25"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="4">
         <v>6</v>
       </c>
@@ -7392,71 +7396,46 @@
       </c>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
+    <row r="8" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="47"/>
       <c r="B8" s="4">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="45">
+        <v>5000</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="T8" s="45"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="47"/>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
         <v>10000</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <f t="shared" si="1"/>
         <v>8.0008000800080011E-4</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>9.210340371976184E-4</v>
       </c>
-      <c r="F8" s="26">
-        <f>E8</f>
+      <c r="F9" s="26">
+        <f>E9</f>
         <v>9.210340371976184E-4</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>100</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="26">
-        <v>100</v>
-      </c>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>500</v>
-      </c>
-      <c r="D9" s="1">
-        <f>2*LOG(C9)/(C9-1)</f>
-        <v>1.0817515047438954E-2</v>
-      </c>
-      <c r="E9" s="1">
-        <f>LN(C9)/(C9)</f>
-        <v>1.2429216196844383E-2</v>
-      </c>
-      <c r="F9" s="28">
-        <f>E9</f>
-        <v>1.2429216196844383E-2</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="1">
@@ -7483,11 +7462,13 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+      <c r="A10" s="49" t="s">
+        <v>20</v>
+      </c>
       <c r="B10" s="5">
-        <v>2</v>
-      </c>
-      <c r="C10" s="26">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
         <v>500</v>
       </c>
       <c r="D10" s="1">
@@ -7499,7 +7480,7 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F10" s="28">
-        <f t="shared" ref="F10:F37" si="3">E10</f>
+        <f>E10</f>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G10" s="18"/>
@@ -7510,7 +7491,7 @@
         <v>100</v>
       </c>
       <c r="J10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>8</v>
@@ -7526,24 +7507,24 @@
       </c>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="49"/>
       <c r="B11" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="26">
         <v>500</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="1"/>
+        <f>2*LOG(C11)/(C11-1)</f>
         <v>1.0817515047438954E-2</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f>LN(C11)/(C11)</f>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F11" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F11:F38" si="3">E11</f>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G11" s="18"/>
@@ -7554,7 +7535,7 @@
         <v>100</v>
       </c>
       <c r="J11" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>8</v>
@@ -7571,18 +7552,18 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="26">
         <v>500</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="1">
         <f t="shared" si="1"/>
         <v>1.0817515047438954E-2</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>1.2429216196844383E-2</v>
       </c>
@@ -7590,45 +7571,43 @@
         <f t="shared" si="3"/>
         <v>1.2429216196844383E-2</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="28">
+      <c r="G12" s="18"/>
+      <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="1">
         <v>100</v>
       </c>
-      <c r="J12" s="22">
-        <v>20</v>
-      </c>
-      <c r="K12" s="22" t="s">
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N12" s="26">
         <v>100</v>
       </c>
-      <c r="T12" s="22"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="49"/>
+      <c r="B13" s="5">
+        <v>4</v>
+      </c>
+      <c r="C13" s="26">
         <v>500</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="22">
         <f t="shared" si="1"/>
         <v>1.0817515047438954E-2</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="22">
         <f t="shared" si="0"/>
         <v>1.2429216196844383E-2</v>
       </c>
@@ -7636,33 +7615,36 @@
         <f t="shared" si="3"/>
         <v>1.2429216196844383E-2</v>
       </c>
-      <c r="G13" s="18"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="28">
         <v>1</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="22">
         <v>100</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="22">
+        <v>20</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="26">
+        <v>100</v>
+      </c>
+      <c r="T13" s="22"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="6">
         <v>1</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="6">
-        <v>2</v>
       </c>
       <c r="C14" s="28">
         <v>500</v>
@@ -7693,7 +7675,7 @@
         <v>8</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>10</v>
@@ -7703,9 +7685,9 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="28">
         <v>500</v>
@@ -7736,7 +7718,7 @@
         <v>8</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>10</v>
@@ -7746,9 +7728,9 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="28">
         <v>500</v>
@@ -7779,7 +7761,7 @@
         <v>8</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>10</v>
@@ -7789,9 +7771,9 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="28">
         <v>500</v>
@@ -7822,7 +7804,7 @@
         <v>8</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>10</v>
@@ -7832,9 +7814,9 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="28">
         <v>500</v>
@@ -7865,7 +7847,7 @@
         <v>8</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>10</v>
@@ -7874,12 +7856,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="8">
-        <v>1</v>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="49"/>
+      <c r="B19" s="6">
+        <v>6</v>
       </c>
       <c r="C19" s="28">
         <v>500</v>
@@ -7910,30 +7890,30 @@
         <v>8</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="28">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="29">
+    <row r="20" spans="1:16" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="8">
         <v>1</v>
       </c>
       <c r="C20" s="28">
         <v>500</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="1">
         <f t="shared" si="1"/>
         <v>1.0817515047438954E-2</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="1">
         <f t="shared" si="0"/>
         <v>1.2429216196844383E-2</v>
       </c>
@@ -7941,37 +7921,35 @@
         <f t="shared" si="3"/>
         <v>1.2429216196844383E-2</v>
       </c>
-      <c r="G20" s="30"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="28">
         <v>1</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="1">
         <v>100</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="1">
         <v>1</v>
       </c>
-      <c r="K20" s="30" t="s">
+      <c r="K20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="30" t="s">
+      <c r="L20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M20" s="30" t="s">
+      <c r="M20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N20" s="30">
+      <c r="N20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="29">
         <v>1</v>
-      </c>
-      <c r="O20" s="31"/>
-      <c r="P20" s="30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="29">
-        <v>2</v>
       </c>
       <c r="C21" s="28">
         <v>500</v>
@@ -8012,24 +7990,22 @@
       </c>
       <c r="O21" s="31"/>
       <c r="P21" s="30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="10">
-        <v>1</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="50"/>
+      <c r="B22" s="29">
+        <v>2</v>
       </c>
       <c r="C22" s="28">
         <v>500</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="30">
         <f t="shared" si="1"/>
         <v>1.0817515047438954E-2</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="30">
         <f t="shared" si="0"/>
         <v>1.2429216196844383E-2</v>
       </c>
@@ -8037,33 +8013,39 @@
         <f t="shared" si="3"/>
         <v>1.2429216196844383E-2</v>
       </c>
-      <c r="G22" s="18"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="28">
         <v>1</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="30">
         <v>100</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="30">
         <v>1</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L22" s="1" t="s">
+      <c r="K22" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="1">
-        <v>100</v>
+      <c r="N22" s="30">
+        <v>1</v>
+      </c>
+      <c r="O22" s="31"/>
+      <c r="P22" s="30" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
-      <c r="B23" s="11">
-        <v>2</v>
+      <c r="A23" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="10">
+        <v>1</v>
       </c>
       <c r="C23" s="28">
         <v>500</v>
@@ -8091,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>7</v>
@@ -8104,9 +8086,9 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="45"/>
-      <c r="B24" s="10">
-        <v>3</v>
+      <c r="A24" s="47"/>
+      <c r="B24" s="11">
+        <v>2</v>
       </c>
       <c r="C24" s="28">
         <v>500</v>
@@ -8134,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>7</v>
@@ -8147,9 +8129,9 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
-      <c r="B25" s="11">
-        <v>4</v>
+      <c r="A25" s="47"/>
+      <c r="B25" s="10">
+        <v>3</v>
       </c>
       <c r="C25" s="28">
         <v>500</v>
@@ -8177,7 +8159,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>7</v>
@@ -8190,9 +8172,9 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
-      <c r="B26" s="10">
-        <v>5</v>
+      <c r="A26" s="47"/>
+      <c r="B26" s="11">
+        <v>4</v>
       </c>
       <c r="C26" s="28">
         <v>500</v>
@@ -8220,7 +8202,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>7</v>
@@ -8233,17 +8215,15 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="12">
-        <v>1</v>
+      <c r="A27" s="47"/>
+      <c r="B27" s="10">
+        <v>5</v>
       </c>
       <c r="C27" s="28">
         <v>500</v>
       </c>
       <c r="D27" s="1">
-        <f>2*LOG(C27)/(C27-1)</f>
+        <f t="shared" si="1"/>
         <v>1.0817515047438954E-2</v>
       </c>
       <c r="E27" s="1">
@@ -8255,7 +8235,7 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G27" s="18"/>
-      <c r="H27" s="1">
+      <c r="H27" s="28">
         <v>1</v>
       </c>
       <c r="I27" s="1">
@@ -8265,7 +8245,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>7</v>
@@ -8276,14 +8256,13 @@
       <c r="N27" s="1">
         <v>100</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
+      <c r="A28" s="47" t="s">
+        <v>50</v>
+      </c>
       <c r="B28" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="28">
         <v>500</v>
@@ -8302,7 +8281,7 @@
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" s="1">
         <v>100</v>
@@ -8322,17 +8301,20 @@
       <c r="N28" s="1">
         <v>100</v>
       </c>
+      <c r="P28" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="28">
         <v>500</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="1"/>
+        <f>2*LOG(C29)/(C29-1)</f>
         <v>1.0817515047438954E-2</v>
       </c>
       <c r="E29" s="1">
@@ -8345,7 +8327,7 @@
       </c>
       <c r="G29" s="18"/>
       <c r="H29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I29" s="1">
         <v>100</v>
@@ -8367,9 +8349,9 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="28">
         <v>500</v>
@@ -8388,7 +8370,7 @@
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I30" s="1">
         <v>100</v>
@@ -8410,9 +8392,9 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="28">
         <v>500</v>
@@ -8431,7 +8413,7 @@
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I31" s="1">
         <v>100</v>
@@ -8453,9 +8435,9 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" s="28">
         <v>500</v>
@@ -8474,7 +8456,7 @@
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I32" s="1">
         <v>100</v>
@@ -8496,11 +8478,9 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="14">
-        <v>1</v>
+      <c r="A33" s="47"/>
+      <c r="B33" s="12">
+        <v>6</v>
       </c>
       <c r="C33" s="28">
         <v>500</v>
@@ -8519,7 +8499,7 @@
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="1">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I33" s="1">
         <v>100</v>
@@ -8534,16 +8514,18 @@
         <v>7</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="N33" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
+      <c r="A34" s="47" t="s">
+        <v>51</v>
+      </c>
       <c r="B34" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="28">
         <v>500</v>
@@ -8561,7 +8543,7 @@
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="G34" s="18"/>
-      <c r="H34" s="28">
+      <c r="H34" s="1">
         <v>1</v>
       </c>
       <c r="I34" s="1">
@@ -8577,16 +8559,16 @@
         <v>7</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N34" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" s="28">
         <v>500</v>
@@ -8620,16 +8602,16 @@
         <v>7</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N35" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="28">
         <v>500</v>
@@ -8663,16 +8645,16 @@
         <v>7</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N36" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="45"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" s="28">
         <v>500</v>
@@ -8706,59 +8688,63 @@
         <v>7</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N37" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="19">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1">
+      <c r="A38" s="47"/>
+      <c r="B38" s="14">
+        <v>5</v>
+      </c>
+      <c r="C38" s="28">
         <v>500</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="18">
+      <c r="D38" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0817515047438954E-2</v>
+      </c>
+      <c r="E38" s="1">
         <f t="shared" si="0"/>
         <v>1.2429216196844383E-2</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="18">
-        <v>1</v>
-      </c>
+      <c r="F38" s="28">
+        <f t="shared" si="3"/>
+        <v>1.2429216196844383E-2</v>
+      </c>
+      <c r="G38" s="18"/>
       <c r="H38" s="28">
         <v>1</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I38" s="1">
         <v>100</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J38" s="1">
         <v>1</v>
       </c>
-      <c r="K38" s="18" t="s">
+      <c r="K38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="18" t="s">
+      <c r="L38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M38" s="24" t="s">
-        <v>10</v>
+      <c r="M38" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="N38" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
+      <c r="A39" s="47" t="s">
+        <v>85</v>
+      </c>
       <c r="B39" s="19">
-        <v>2</v>
-      </c>
-      <c r="C39" s="18">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
         <v>500</v>
       </c>
       <c r="D39" s="1"/>
@@ -8768,7 +8754,7 @@
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="28">
         <v>1</v>
@@ -8788,14 +8774,14 @@
       <c r="M39" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="N39" s="18">
+      <c r="N39" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" s="18">
         <v>500</v>
@@ -8807,7 +8793,7 @@
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H40" s="28">
         <v>1</v>
@@ -8832,9 +8818,9 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="45"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" s="18">
         <v>500</v>
@@ -8846,7 +8832,7 @@
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H41" s="28">
         <v>1</v>
@@ -8871,21 +8857,21 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="45"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" s="18">
         <v>500</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="1"/>
       <c r="E42" s="18">
-        <f t="shared" ref="E42:E48" si="4">LN(C42)/(C42)</f>
+        <f t="shared" si="0"/>
         <v>1.2429216196844383E-2</v>
       </c>
-      <c r="F42" s="18"/>
+      <c r="F42" s="1"/>
       <c r="G42" s="18">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H42" s="28">
         <v>1</v>
@@ -8909,54 +8895,51 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="45" t="s">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="47"/>
+      <c r="B43" s="19">
+        <v>5</v>
+      </c>
+      <c r="C43" s="18">
+        <v>500</v>
+      </c>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18">
+        <f t="shared" ref="E43:E49" si="4">LN(C43)/(C43)</f>
+        <v>1.2429216196844383E-2</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18">
+        <v>100</v>
+      </c>
+      <c r="H43" s="28">
+        <v>1</v>
+      </c>
+      <c r="I43" s="18">
+        <v>100</v>
+      </c>
+      <c r="J43" s="18">
+        <v>1</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M43" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N43" s="18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B44" s="23">
         <v>1</v>
-      </c>
-      <c r="C43" s="20">
-        <v>100</v>
-      </c>
-      <c r="D43" s="20">
-        <f>2*LOG(C43)/(C43-1)</f>
-        <v>4.0404040404040407E-2</v>
-      </c>
-      <c r="E43" s="20">
-        <f t="shared" si="4"/>
-        <v>4.6051701859880917E-2</v>
-      </c>
-      <c r="F43" s="20">
-        <v>4.7E-2</v>
-      </c>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20">
-        <v>1</v>
-      </c>
-      <c r="I43" s="20">
-        <v>100</v>
-      </c>
-      <c r="J43" s="20">
-        <v>1</v>
-      </c>
-      <c r="K43" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="M43" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N43" s="20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="45"/>
-      <c r="B44" s="23">
-        <v>2</v>
       </c>
       <c r="C44" s="20">
         <v>100</v>
@@ -8974,7 +8957,7 @@
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" s="20">
         <v>100</v>
@@ -8991,20 +8974,20 @@
       <c r="M44" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N44" s="22">
+      <c r="N44" s="20">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="45"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" s="20">
         <v>100</v>
       </c>
       <c r="D45" s="20">
-        <f t="shared" ref="D45:D47" si="5">2*LOG(C45)/(C45-1)</f>
+        <f>2*LOG(C45)/(C45-1)</f>
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="E45" s="20">
@@ -9016,7 +8999,7 @@
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I45" s="20">
         <v>100</v>
@@ -9038,15 +9021,15 @@
       </c>
     </row>
     <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="45"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" s="20">
         <v>100</v>
       </c>
       <c r="D46" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D46:D48" si="5">2*LOG(C46)/(C46-1)</f>
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="E46" s="20">
@@ -9058,7 +9041,7 @@
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I46" s="20">
         <v>100</v>
@@ -9080,41 +9063,41 @@
       </c>
     </row>
     <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="45"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="23">
-        <v>5</v>
-      </c>
-      <c r="C47" s="22">
+        <v>4</v>
+      </c>
+      <c r="C47" s="20">
         <v>100</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="20">
         <f t="shared" si="5"/>
         <v>4.0404040404040407E-2</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="20">
         <f t="shared" si="4"/>
         <v>4.6051701859880917E-2</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="20">
         <v>4.7E-2</v>
       </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22">
-        <v>16</v>
-      </c>
-      <c r="I47" s="22">
+      <c r="G47" s="20"/>
+      <c r="H47" s="20">
+        <v>8</v>
+      </c>
+      <c r="I47" s="20">
         <v>100</v>
       </c>
-      <c r="J47" s="22">
+      <c r="J47" s="20">
         <v>1</v>
       </c>
-      <c r="K47" s="22" t="s">
+      <c r="K47" s="20" t="s">
         <v>8</v>
       </c>
       <c r="L47" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M47" s="22" t="s">
+      <c r="M47" s="20" t="s">
         <v>10</v>
       </c>
       <c r="N47" s="22">
@@ -9122,14 +9105,17 @@
       </c>
     </row>
     <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="45"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" s="22">
         <v>100</v>
       </c>
-      <c r="D48" s="22"/>
+      <c r="D48" s="22">
+        <f t="shared" si="5"/>
+        <v>4.0404040404040407E-2</v>
+      </c>
       <c r="E48" s="22">
         <f t="shared" si="4"/>
         <v>4.6051701859880917E-2</v>
@@ -9139,7 +9125,7 @@
       </c>
       <c r="G48" s="22"/>
       <c r="H48" s="22">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I48" s="22">
         <v>100</v>
@@ -9160,36 +9146,75 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="47"/>
+      <c r="B49" s="23">
+        <v>6</v>
+      </c>
+      <c r="C49" s="22">
+        <v>100</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22">
+        <f t="shared" si="4"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F49" s="22">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22">
+        <v>32</v>
+      </c>
+      <c r="I49" s="22">
+        <v>100</v>
+      </c>
+      <c r="J49" s="22">
+        <v>1</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M49" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N49" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9200,8 +9225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB93F79-F640-47DC-B202-CD46132620C4}">
   <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9242,6 +9267,9 @@
       <c r="H1" s="5">
         <v>7</v>
       </c>
+      <c r="I1" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="40">
@@ -9262,6 +9290,9 @@
       <c r="G2" s="39">
         <v>303.96879702199197</v>
       </c>
+      <c r="H2" s="46">
+        <v>101.618453169739</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="40">
@@ -9282,6 +9313,9 @@
       <c r="G3" s="39">
         <v>317.33205455264999</v>
       </c>
+      <c r="H3" s="46">
+        <v>16.106386733265001</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="40">
@@ -9302,6 +9336,9 @@
       <c r="G4" s="39">
         <v>98.939995244922997</v>
       </c>
+      <c r="H4" s="46">
+        <v>267.10079454760597</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="40">
@@ -9322,6 +9359,9 @@
       <c r="G5" s="39">
         <v>55.390225773659999</v>
       </c>
+      <c r="H5" s="46">
+        <v>686.79879814043295</v>
+      </c>
       <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -9343,6 +9383,9 @@
       <c r="G6" s="39">
         <v>4.1771041653900003</v>
       </c>
+      <c r="H6" s="46">
+        <v>784.42556102720198</v>
+      </c>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -9364,6 +9407,9 @@
       <c r="G7" s="39">
         <v>80.111976598406002</v>
       </c>
+      <c r="H7" s="46">
+        <v>592.38447247795398</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="40">
@@ -9384,6 +9430,7 @@
       <c r="G8" s="39">
         <v>40.653356154584998</v>
       </c>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="40">
@@ -9684,15 +9731,15 @@
       <c r="G23" s="39">
         <v>273.919915629147</v>
       </c>
-      <c r="J23" s="50" t="s">
+      <c r="J23" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="40">
@@ -9716,18 +9763,18 @@
       <c r="J24" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="K24" s="49" t="s">
+      <c r="K24" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49" t="s">
+      <c r="L24" s="52"/>
+      <c r="M24" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49" t="s">
+      <c r="N24" s="52"/>
+      <c r="O24" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="P24" s="49"/>
+      <c r="P24" s="52"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="40">
@@ -9754,18 +9801,18 @@
       <c r="J25" s="37">
         <v>10</v>
       </c>
-      <c r="K25" s="49">
+      <c r="K25" s="52">
         <v>1.2</v>
       </c>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49">
+      <c r="L25" s="52"/>
+      <c r="M25" s="52">
         <v>3</v>
       </c>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49">
+      <c r="N25" s="52"/>
+      <c r="O25" s="52">
         <v>1.7929999999999999</v>
       </c>
-      <c r="P25" s="49"/>
+      <c r="P25" s="52"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="40">
@@ -9792,18 +9839,18 @@
       <c r="J26" s="37">
         <v>20</v>
       </c>
-      <c r="K26" s="49">
+      <c r="K26" s="52">
         <v>1.3</v>
       </c>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49">
+      <c r="L26" s="52"/>
+      <c r="M26" s="52">
         <v>4</v>
       </c>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49">
+      <c r="N26" s="52"/>
+      <c r="O26" s="52">
         <v>1.8839999999999999</v>
       </c>
-      <c r="P26" s="49"/>
+      <c r="P26" s="52"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="40">
@@ -9830,18 +9877,18 @@
       <c r="J27" s="37">
         <v>50</v>
       </c>
-      <c r="K27" s="49">
+      <c r="K27" s="52">
         <v>2.36</v>
       </c>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49">
+      <c r="L27" s="52"/>
+      <c r="M27" s="52">
         <v>6</v>
       </c>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49">
+      <c r="N27" s="52"/>
+      <c r="O27" s="52">
         <v>2.2669999999999999</v>
       </c>
-      <c r="P27" s="49"/>
+      <c r="P27" s="52"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="40">
@@ -9868,18 +9915,18 @@
       <c r="J28" s="37">
         <v>100</v>
       </c>
-      <c r="K28" s="49">
+      <c r="K28" s="52">
         <v>2.5499999999999998</v>
       </c>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49">
+      <c r="L28" s="52"/>
+      <c r="M28" s="52">
         <v>8</v>
       </c>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49">
+      <c r="N28" s="52"/>
+      <c r="O28" s="52">
         <v>2.8820000000000001</v>
       </c>
-      <c r="P28" s="49"/>
+      <c r="P28" s="52"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="40">
@@ -9906,12 +9953,12 @@
       <c r="J29" s="37">
         <v>500</v>
       </c>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="40">
@@ -9938,18 +9985,18 @@
       <c r="J30" s="37">
         <v>1000</v>
       </c>
-      <c r="K30" s="49">
+      <c r="K30" s="52">
         <v>3.55</v>
       </c>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49">
+      <c r="L30" s="52"/>
+      <c r="M30" s="52">
         <v>12</v>
       </c>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49">
+      <c r="N30" s="52"/>
+      <c r="O30" s="52">
         <v>4.1079999999999997</v>
       </c>
-      <c r="P30" s="49"/>
+      <c r="P30" s="52"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="40">
@@ -11271,7 +11318,7 @@
         <v>81.751524956287</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B97" s="40">
         <v>0.50833333333499997</v>
       </c>
@@ -11291,7 +11338,7 @@
         <v>240.04494272865</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B98" s="40">
         <v>8.1273675617759995</v>
       </c>
@@ -11311,7 +11358,7 @@
         <v>101.786364776827</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99" s="40">
         <v>0.406666666668</v>
       </c>
@@ -11331,7 +11378,7 @@
         <v>134.05761535420999</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B100" s="40">
         <v>0.406666666668</v>
       </c>
@@ -11351,7 +11398,7 @@
         <v>135.39656674438999</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B101" s="40">
         <v>0.50833333333499997</v>
       </c>
@@ -11371,7 +11418,7 @@
         <v>153.03032980178801</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B102" s="42"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -11379,7 +11426,7 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B103" s="44">
         <v>4.5390360000000003</v>
       </c>
@@ -11398,8 +11445,11 @@
       <c r="G103" s="44">
         <v>190.18340000000001</v>
       </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H103" s="46">
+        <v>408.07240000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B104" s="43">
         <v>7.9502920000000001</v>
       </c>
@@ -11418,8 +11468,11 @@
       <c r="G104" s="39">
         <v>136.82740000000001</v>
       </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H104" s="46">
+        <v>322.71519999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B105" s="43">
         <v>1.5582290000000001</v>
       </c>
@@ -11438,8 +11491,11 @@
       <c r="G105" s="39">
         <v>26.817689999999999</v>
       </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H105" s="46">
+        <v>63.251010000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B106" s="43">
         <v>22</v>
       </c>
@@ -11458,8 +11514,11 @@
       <c r="G106" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H106" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B107" s="43">
         <v>78</v>
       </c>
@@ -11478,22 +11537,12 @@
       <c r="G107" s="39">
         <v>99</v>
       </c>
+      <c r="H107" s="46">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="O30:P30"/>
@@ -11503,6 +11552,19 @@
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="O29:P29"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11599,12 +11661,12 @@
       <c r="E5" s="27">
         <v>142.342376906608</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="27">
@@ -35211,19 +35273,19 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="51"/>
+      <c r="A108" s="53"/>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="51"/>
+      <c r="A109" s="53"/>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="51"/>
+      <c r="A110" s="53"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="51"/>
+      <c r="A111" s="53"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="51"/>
+      <c r="A112" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Data Collections/Data Collection Sim 0.xlsx
+++ b/Data Collections/Data Collection Sim 0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\Thesis\TrustChain-Simulator\Data Collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895527FE-DF80-42CB-B17A-D5A318570F8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F94DAB4-D50F-417C-9599-2E02FCC5DFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -24,10 +24,10 @@
     <sheet name="Set9" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$4</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$5:$E$54</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$61</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$62:$E$161</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$61</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$62:$E$161</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$4</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$5:$E$54</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
@@ -55,9 +55,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="89">
   <si>
     <t>Evil Node Sleeping Transactions</t>
-  </si>
-  <si>
-    <t>Test Number</t>
   </si>
   <si>
     <t>Initial Coins</t>
@@ -320,6 +317,9 @@
   </si>
   <si>
     <t>Results</t>
+  </si>
+  <si>
+    <t>Experiment Number</t>
   </si>
 </sst>
 </file>
@@ -680,10 +680,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -2964,7 +2964,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3002,7 +3002,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-BA23-47F0-8325-162A3EB2469F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -3030,7 +3030,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3068,7 +3068,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-92AE-4E86-80B1-3A198ACB5431}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -7059,15 +7059,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891D42F-3971-43B5-986A-C0853C8465A0}">
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
@@ -7087,57 +7087,57 @@
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -7167,13 +7167,13 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N2" s="1">
         <v>100</v>
@@ -7209,13 +7209,13 @@
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N3" s="26">
         <v>100</v>
@@ -7251,13 +7251,13 @@
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N4" s="26">
         <v>100</v>
@@ -7295,13 +7295,13 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N5" s="26">
         <v>100</v>
@@ -7339,13 +7339,13 @@
         <v>1</v>
       </c>
       <c r="K6" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N6" s="26">
         <v>100</v>
@@ -7383,13 +7383,13 @@
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N7" s="26">
         <v>100</v>
@@ -7448,13 +7448,13 @@
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N9" s="26">
         <v>100</v>
@@ -7463,7 +7463,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -7494,13 +7494,13 @@
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N10" s="26">
         <v>100</v>
@@ -7538,13 +7538,13 @@
         <v>2</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N11" s="26">
         <v>100</v>
@@ -7582,13 +7582,13 @@
         <v>10</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N12" s="26">
         <v>100</v>
@@ -7626,13 +7626,13 @@
         <v>20</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N13" s="26">
         <v>100</v>
@@ -7641,7 +7641,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
@@ -7672,13 +7672,13 @@
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N14" s="28">
         <v>100</v>
@@ -7715,13 +7715,13 @@
         <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N15" s="28">
         <v>100</v>
@@ -7758,13 +7758,13 @@
         <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N16" s="28">
         <v>100</v>
@@ -7801,13 +7801,13 @@
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N17" s="28">
         <v>100</v>
@@ -7844,13 +7844,13 @@
         <v>1</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N18" s="28">
         <v>100</v>
@@ -7887,13 +7887,13 @@
         <v>1</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N19" s="28">
         <v>100</v>
@@ -7901,7 +7901,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.6" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="8">
         <v>1</v>
@@ -7932,13 +7932,13 @@
         <v>1</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N20" s="1">
         <v>100</v>
@@ -7946,7 +7946,7 @@
     </row>
     <row r="21" spans="1:16" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="29">
         <v>1</v>
@@ -7977,20 +7977,20 @@
         <v>1</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L21" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N21" s="30">
         <v>1</v>
       </c>
       <c r="O21" s="31"/>
       <c r="P21" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -8024,25 +8024,25 @@
         <v>1</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L22" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M22" s="30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N22" s="30">
         <v>1</v>
       </c>
       <c r="O22" s="31"/>
       <c r="P22" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="10">
         <v>1</v>
@@ -8073,13 +8073,13 @@
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N23" s="1">
         <v>100</v>
@@ -8116,13 +8116,13 @@
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N24" s="1">
         <v>100</v>
@@ -8159,13 +8159,13 @@
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N25" s="1">
         <v>100</v>
@@ -8202,13 +8202,13 @@
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N26" s="1">
         <v>100</v>
@@ -8245,13 +8245,13 @@
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N27" s="1">
         <v>100</v>
@@ -8259,7 +8259,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="12">
         <v>1</v>
@@ -8290,19 +8290,19 @@
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N28" s="1">
         <v>100</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -8336,13 +8336,13 @@
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N29" s="1">
         <v>100</v>
@@ -8379,13 +8379,13 @@
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N30" s="1">
         <v>100</v>
@@ -8422,13 +8422,13 @@
         <v>1</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N31" s="1">
         <v>100</v>
@@ -8465,13 +8465,13 @@
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N32" s="1">
         <v>100</v>
@@ -8508,13 +8508,13 @@
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N33" s="1">
         <v>100</v>
@@ -8522,7 +8522,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="14">
         <v>1</v>
@@ -8553,13 +8553,13 @@
         <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N34" s="1">
         <v>100</v>
@@ -8596,13 +8596,13 @@
         <v>1</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N35" s="1">
         <v>100</v>
@@ -8639,13 +8639,13 @@
         <v>1</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N36" s="1">
         <v>100</v>
@@ -8682,13 +8682,13 @@
         <v>1</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N37" s="1">
         <v>100</v>
@@ -8725,13 +8725,13 @@
         <v>1</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N38" s="1">
         <v>100</v>
@@ -8739,7 +8739,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39" s="19">
         <v>1</v>
@@ -8766,13 +8766,13 @@
         <v>1</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L39" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M39" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N39" s="1">
         <v>50</v>
@@ -8805,13 +8805,13 @@
         <v>1</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M40" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N40" s="18">
         <v>50</v>
@@ -8844,13 +8844,13 @@
         <v>1</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M41" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N41" s="18">
         <v>50</v>
@@ -8883,13 +8883,13 @@
         <v>1</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M42" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N42" s="18">
         <v>50</v>
@@ -8922,13 +8922,13 @@
         <v>1</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M43" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N43" s="18">
         <v>50</v>
@@ -8936,7 +8936,7 @@
     </row>
     <row r="44" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44" s="23">
         <v>1</v>
@@ -8966,13 +8966,13 @@
         <v>1</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N44" s="20">
         <v>100</v>
@@ -9008,13 +9008,13 @@
         <v>1</v>
       </c>
       <c r="K45" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L45" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N45" s="22">
         <v>100</v>
@@ -9050,13 +9050,13 @@
         <v>1</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N46" s="22">
         <v>100</v>
@@ -9092,13 +9092,13 @@
         <v>1</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N47" s="22">
         <v>100</v>
@@ -9134,13 +9134,13 @@
         <v>1</v>
       </c>
       <c r="K48" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M48" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N48" s="22">
         <v>100</v>
@@ -9173,13 +9173,13 @@
         <v>1</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M49" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N49" s="22">
         <v>100</v>
@@ -9225,7 +9225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB93F79-F640-47DC-B202-CD46132620C4}">
   <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
@@ -9244,7 +9244,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -9731,15 +9731,15 @@
       <c r="G23" s="39">
         <v>273.919915629147</v>
       </c>
-      <c r="J23" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
+      <c r="J23" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="40">
@@ -9761,20 +9761,20 @@
         <v>66.193955233788998</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="K24" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52" t="s">
+      <c r="N24" s="51"/>
+      <c r="O24" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="P24" s="52"/>
+      <c r="P24" s="51"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="40">
@@ -9801,18 +9801,18 @@
       <c r="J25" s="37">
         <v>10</v>
       </c>
-      <c r="K25" s="52">
+      <c r="K25" s="51">
         <v>1.2</v>
       </c>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52">
+      <c r="L25" s="51"/>
+      <c r="M25" s="51">
         <v>3</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52">
+      <c r="N25" s="51"/>
+      <c r="O25" s="51">
         <v>1.7929999999999999</v>
       </c>
-      <c r="P25" s="52"/>
+      <c r="P25" s="51"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="40">
@@ -9839,18 +9839,18 @@
       <c r="J26" s="37">
         <v>20</v>
       </c>
-      <c r="K26" s="52">
+      <c r="K26" s="51">
         <v>1.3</v>
       </c>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52">
+      <c r="L26" s="51"/>
+      <c r="M26" s="51">
         <v>4</v>
       </c>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52">
+      <c r="N26" s="51"/>
+      <c r="O26" s="51">
         <v>1.8839999999999999</v>
       </c>
-      <c r="P26" s="52"/>
+      <c r="P26" s="51"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="40">
@@ -9877,18 +9877,18 @@
       <c r="J27" s="37">
         <v>50</v>
       </c>
-      <c r="K27" s="52">
+      <c r="K27" s="51">
         <v>2.36</v>
       </c>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52">
+      <c r="L27" s="51"/>
+      <c r="M27" s="51">
         <v>6</v>
       </c>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52">
+      <c r="N27" s="51"/>
+      <c r="O27" s="51">
         <v>2.2669999999999999</v>
       </c>
-      <c r="P27" s="52"/>
+      <c r="P27" s="51"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="40">
@@ -9915,18 +9915,18 @@
       <c r="J28" s="37">
         <v>100</v>
       </c>
-      <c r="K28" s="52">
+      <c r="K28" s="51">
         <v>2.5499999999999998</v>
       </c>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52">
+      <c r="L28" s="51"/>
+      <c r="M28" s="51">
         <v>8</v>
       </c>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52">
+      <c r="N28" s="51"/>
+      <c r="O28" s="51">
         <v>2.8820000000000001</v>
       </c>
-      <c r="P28" s="52"/>
+      <c r="P28" s="51"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="40">
@@ -9953,12 +9953,12 @@
       <c r="J29" s="37">
         <v>500</v>
       </c>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="40">
@@ -9985,18 +9985,18 @@
       <c r="J30" s="37">
         <v>1000</v>
       </c>
-      <c r="K30" s="52">
+      <c r="K30" s="51">
         <v>3.55</v>
       </c>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52">
+      <c r="L30" s="51"/>
+      <c r="M30" s="51">
         <v>12</v>
       </c>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52">
+      <c r="N30" s="51"/>
+      <c r="O30" s="51">
         <v>4.1079999999999997</v>
       </c>
-      <c r="P30" s="52"/>
+      <c r="P30" s="51"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="40">
@@ -11543,6 +11543,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="O30:P30"/>
@@ -11552,19 +11565,6 @@
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="O29:P29"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11591,7 +11591,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -11661,12 +11661,12 @@
       <c r="E5" s="27">
         <v>142.342376906608</v>
       </c>
-      <c r="G5" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
+      <c r="G5" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="27">
@@ -18888,7 +18888,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -21054,97 +21054,97 @@
   <sheetData>
     <row r="1" spans="1:49" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
       <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
         <v>30</v>
       </c>
-      <c r="P4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>31</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>32</v>
       </c>
-      <c r="S4" t="s">
-        <v>33</v>
-      </c>
       <c r="AC4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE4" t="s">
         <v>63</v>
       </c>
-      <c r="AE4" t="s">
-        <v>64</v>
-      </c>
       <c r="AF4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR4" t="s">
         <v>74</v>
       </c>
-      <c r="AG4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>75</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>76</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
@@ -21211,7 +21211,7 @@
         <v>1.0042780206055512E-2</v>
       </c>
       <c r="AL5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AM5">
         <f>COUNT(AD5:AD54)</f>
@@ -21304,7 +21304,7 @@
         <v>9.9572197939444881E-3</v>
       </c>
       <c r="AL6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM6">
         <f>AVERAGE(AD5:AD54)</f>
@@ -21397,7 +21397,7 @@
         <v>2.9957219793944487E-2</v>
       </c>
       <c r="AL7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AM7">
         <f>_xlfn.STDEV.S(AD5:AD54)</f>
@@ -21426,7 +21426,7 @@
         <v>4.9957219793944484E-2</v>
       </c>
       <c r="AV7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AW7">
         <f>MAX(AT5:AT54)</f>
@@ -21497,7 +21497,7 @@
         <v>6.223260863025018E-2</v>
       </c>
       <c r="AL8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AM8">
         <f>MAX(AJ5:AJ54)</f>
@@ -21526,7 +21526,7 @@
         <v>4.2232608630250176E-2</v>
       </c>
       <c r="AV8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW8">
         <f>0.18845</f>
@@ -21683,7 +21683,7 @@
         <v>2.2232608630250172E-2</v>
       </c>
       <c r="AL10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM10">
         <f>0.18845</f>
@@ -25498,14 +25498,14 @@
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D55" s="7">
         <f>AVERAGE(D5:D54)</f>
         <v>0.91610186017854023</v>
       </c>
       <c r="O55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P55" s="7">
         <f>AVERAGE(P5:P54)</f>
@@ -25514,14 +25514,14 @@
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D56">
         <f>STDEV(D5:D54)</f>
         <v>0.26282524238527133</v>
       </c>
       <c r="O56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P56">
         <f>_xlfn.STDEV.S(P5:P54)</f>
@@ -25530,7 +25530,7 @@
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D57">
         <f>SKEW(D5:D54)</f>
@@ -25539,60 +25539,60 @@
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" t="s">
         <v>25</v>
       </c>
-      <c r="E61" t="s">
-        <v>26</v>
-      </c>
       <c r="O61" t="s">
+        <v>29</v>
+      </c>
+      <c r="P61" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q61" t="s">
         <v>30</v>
       </c>
-      <c r="P61" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q61" t="s">
+      <c r="R61" t="s">
         <v>31</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>32</v>
       </c>
-      <c r="S61" t="s">
-        <v>33</v>
-      </c>
       <c r="AC61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD61" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE61" t="s">
         <v>63</v>
       </c>
-      <c r="AE61" t="s">
+      <c r="AF61" t="s">
         <v>64</v>
       </c>
-      <c r="AF61" t="s">
+      <c r="AG61" t="s">
         <v>65</v>
       </c>
-      <c r="AG61" t="s">
+      <c r="AH61" t="s">
         <v>66</v>
       </c>
-      <c r="AH61" t="s">
+      <c r="AI61" t="s">
         <v>67</v>
       </c>
-      <c r="AI61" t="s">
+      <c r="AJ61" t="s">
         <v>68</v>
-      </c>
-      <c r="AJ61" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.3">
@@ -25651,7 +25651,7 @@
         <v>1.3589932998991494E-2</v>
       </c>
       <c r="AL62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AM62">
         <f>COUNT(AD62:AD161)</f>
@@ -25714,7 +25714,7 @@
         <v>3.5899329989914942E-3</v>
       </c>
       <c r="AL63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM63">
         <f>AVERAGE(AD62:AD161)</f>
@@ -25777,7 +25777,7 @@
         <v>6.410067001008506E-3</v>
       </c>
       <c r="AL64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AM64">
         <f>_xlfn.STDEV.S(AD62:AD161)</f>
@@ -25840,7 +25840,7 @@
         <v>1.6410067001008506E-2</v>
       </c>
       <c r="AL65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AM65">
         <f>MAX(AJ62:AJ161)</f>
@@ -25959,7 +25959,7 @@
         <v>3.641006700100851E-2</v>
       </c>
       <c r="AL67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM67">
         <f>1.3581/SQRT(AM62)</f>
@@ -31236,14 +31236,14 @@
     </row>
     <row r="162" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C162" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D162" s="7">
         <f>AVERAGE(D62:D161)</f>
         <v>0.90449402464180051</v>
       </c>
       <c r="O162" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P162" s="7">
         <f>AVERAGE(P62:P161)</f>
@@ -31252,14 +31252,14 @@
     </row>
     <row r="163" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D163">
         <f>STDEV(D62:D161)</f>
         <v>0.27135102181909121</v>
       </c>
       <c r="O163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P163">
         <f>STDEV(P62:P161)</f>
@@ -31268,7 +31268,7 @@
     </row>
     <row r="164" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C164" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D164">
         <f>SKEW(D62:D161)</f>
@@ -31307,7 +31307,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -33143,7 +33143,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -35317,7 +35317,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -37188,7 +37188,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>

--- a/Data Collections/Data Collection Sim 0.xlsx
+++ b/Data Collections/Data Collection Sim 0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\Thesis\TrustChain-Simulator\Data Collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F94DAB4-D50F-417C-9599-2E02FCC5DFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2575D294-19C8-4D68-AA0C-6B83D08ADCF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
@@ -24,10 +24,10 @@
     <sheet name="Set9" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$61</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$62:$E$161</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$5:$E$54</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$4</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$5:$E$54</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$61</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$62:$E$161</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="90">
   <si>
     <t>Evil Node Sleeping Transactions</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>Experiment Number</t>
+  </si>
+  <si>
+    <t>12 - Tribler's Network</t>
   </si>
 </sst>
 </file>
@@ -591,7 +594,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -663,6 +666,14 @@
     <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2964,7 +2975,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3002,7 +3013,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-BA23-47F0-8325-162A3EB2469F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -3030,7 +3041,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3068,7 +3079,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-92AE-4E86-80B1-3A198ACB5431}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -7057,11 +7068,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891D42F-3971-43B5-986A-C0853C8465A0}">
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7136,7 +7147,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="52" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="4">
@@ -7180,7 +7191,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -7222,7 +7233,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -7266,7 +7277,7 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -7309,7 +7320,7 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -7353,7 +7364,7 @@
       <c r="T6" s="25"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="4">
         <v>6</v>
       </c>
@@ -7397,7 +7408,7 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="4">
         <v>7</v>
       </c>
@@ -7418,7 +7429,7 @@
       <c r="T8" s="45"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="4">
         <v>8</v>
       </c>
@@ -7462,7 +7473,7 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="53" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="5">
@@ -7508,7 +7519,7 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="5">
         <v>2</v>
       </c>
@@ -7552,7 +7563,7 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="5">
         <v>3</v>
       </c>
@@ -7596,7 +7607,7 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="5">
         <v>4</v>
       </c>
@@ -7640,7 +7651,7 @@
       <c r="T13" s="22"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="53" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="6">
@@ -7685,7 +7696,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="6">
         <v>2</v>
       </c>
@@ -7728,7 +7739,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="6">
         <v>3</v>
       </c>
@@ -7771,7 +7782,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="6">
         <v>4</v>
       </c>
@@ -7814,7 +7825,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="6">
         <v>5</v>
       </c>
@@ -7857,7 +7868,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="6">
         <v>6</v>
       </c>
@@ -7945,7 +7956,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="54" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="29">
@@ -7994,7 +8005,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="29">
         <v>2</v>
       </c>
@@ -8041,7 +8052,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="51" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="10">
@@ -8086,7 +8097,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="11">
         <v>2</v>
       </c>
@@ -8129,7 +8140,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="10">
         <v>3</v>
       </c>
@@ -8172,7 +8183,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="11">
         <v>4</v>
       </c>
@@ -8215,7 +8226,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="10">
         <v>5</v>
       </c>
@@ -8258,7 +8269,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="51" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="12">
@@ -8306,7 +8317,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="12">
         <v>2</v>
       </c>
@@ -8349,7 +8360,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="47"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="12">
         <v>3</v>
       </c>
@@ -8392,7 +8403,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="47"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="12">
         <v>4</v>
       </c>
@@ -8435,7 +8446,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="47"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="12">
         <v>5</v>
       </c>
@@ -8478,7 +8489,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="47"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="12">
         <v>6</v>
       </c>
@@ -8521,7 +8532,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="51" t="s">
         <v>50</v>
       </c>
       <c r="B34" s="14">
@@ -8566,7 +8577,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="47"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="14">
         <v>2</v>
       </c>
@@ -8609,7 +8620,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="47"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="14">
         <v>3</v>
       </c>
@@ -8652,7 +8663,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="47"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="14">
         <v>4</v>
       </c>
@@ -8695,7 +8706,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="47"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="14">
         <v>5</v>
       </c>
@@ -8738,7 +8749,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="51" t="s">
         <v>84</v>
       </c>
       <c r="B39" s="19">
@@ -8779,7 +8790,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="47"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="19">
         <v>2</v>
       </c>
@@ -8818,7 +8829,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="47"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="19">
         <v>3</v>
       </c>
@@ -8857,7 +8868,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="47"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="19">
         <v>4</v>
       </c>
@@ -8896,7 +8907,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="47"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="19">
         <v>5</v>
       </c>
@@ -8935,7 +8946,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="51" t="s">
         <v>85</v>
       </c>
       <c r="B44" s="23">
@@ -8979,7 +8990,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="47"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="23">
         <v>2</v>
       </c>
@@ -9021,7 +9032,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="47"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="23">
         <v>3</v>
       </c>
@@ -9063,7 +9074,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="47"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="23">
         <v>4</v>
       </c>
@@ -9105,7 +9116,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="47"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="23">
         <v>5</v>
       </c>
@@ -9146,8 +9157,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="47"/>
+    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="51"/>
       <c r="B49" s="23">
         <v>6</v>
       </c>
@@ -9185,21 +9196,52 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A50" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="49">
+        <v>999</v>
+      </c>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49">
+        <v>2</v>
+      </c>
+      <c r="H50" s="49">
+        <v>100</v>
+      </c>
+      <c r="I50" s="49">
+        <v>1</v>
+      </c>
+      <c r="J50" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="L50" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="M50" s="49">
+        <v>10</v>
+      </c>
+      <c r="N50" s="49">
+        <v>100</v>
+      </c>
+      <c r="O50" s="50"/>
+      <c r="P50" s="50"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="50"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="50"/>
+      <c r="U50" s="50"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
@@ -9226,7 +9268,7 @@
   <dimension ref="A1:P107"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+      <selection activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9293,6 +9335,9 @@
       <c r="H2" s="46">
         <v>101.618453169739</v>
       </c>
+      <c r="I2" s="47">
+        <v>803.87709985159097</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="40">
@@ -9731,15 +9776,15 @@
       <c r="G23" s="39">
         <v>273.919915629147</v>
       </c>
-      <c r="J23" s="52" t="s">
+      <c r="J23" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="40">
@@ -9763,18 +9808,18 @@
       <c r="J24" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="K24" s="51" t="s">
+      <c r="K24" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51" t="s">
+      <c r="L24" s="55"/>
+      <c r="M24" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51" t="s">
+      <c r="N24" s="55"/>
+      <c r="O24" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="P24" s="51"/>
+      <c r="P24" s="55"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="40">
@@ -9801,18 +9846,18 @@
       <c r="J25" s="37">
         <v>10</v>
       </c>
-      <c r="K25" s="51">
+      <c r="K25" s="55">
         <v>1.2</v>
       </c>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51">
+      <c r="L25" s="55"/>
+      <c r="M25" s="55">
         <v>3</v>
       </c>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51">
+      <c r="N25" s="55"/>
+      <c r="O25" s="55">
         <v>1.7929999999999999</v>
       </c>
-      <c r="P25" s="51"/>
+      <c r="P25" s="55"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="40">
@@ -9839,18 +9884,18 @@
       <c r="J26" s="37">
         <v>20</v>
       </c>
-      <c r="K26" s="51">
+      <c r="K26" s="55">
         <v>1.3</v>
       </c>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51">
+      <c r="L26" s="55"/>
+      <c r="M26" s="55">
         <v>4</v>
       </c>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51">
+      <c r="N26" s="55"/>
+      <c r="O26" s="55">
         <v>1.8839999999999999</v>
       </c>
-      <c r="P26" s="51"/>
+      <c r="P26" s="55"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="40">
@@ -9877,18 +9922,18 @@
       <c r="J27" s="37">
         <v>50</v>
       </c>
-      <c r="K27" s="51">
+      <c r="K27" s="55">
         <v>2.36</v>
       </c>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51">
+      <c r="L27" s="55"/>
+      <c r="M27" s="55">
         <v>6</v>
       </c>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51">
+      <c r="N27" s="55"/>
+      <c r="O27" s="55">
         <v>2.2669999999999999</v>
       </c>
-      <c r="P27" s="51"/>
+      <c r="P27" s="55"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="40">
@@ -9915,18 +9960,18 @@
       <c r="J28" s="37">
         <v>100</v>
       </c>
-      <c r="K28" s="51">
+      <c r="K28" s="55">
         <v>2.5499999999999998</v>
       </c>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51">
+      <c r="L28" s="55"/>
+      <c r="M28" s="55">
         <v>8</v>
       </c>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51">
+      <c r="N28" s="55"/>
+      <c r="O28" s="55">
         <v>2.8820000000000001</v>
       </c>
-      <c r="P28" s="51"/>
+      <c r="P28" s="55"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="40">
@@ -9953,12 +9998,12 @@
       <c r="J29" s="37">
         <v>500</v>
       </c>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="40">
@@ -9985,18 +10030,18 @@
       <c r="J30" s="37">
         <v>1000</v>
       </c>
-      <c r="K30" s="51">
+      <c r="K30" s="55">
         <v>3.55</v>
       </c>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51">
+      <c r="L30" s="55"/>
+      <c r="M30" s="55">
         <v>12</v>
       </c>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51">
+      <c r="N30" s="55"/>
+      <c r="O30" s="55">
         <v>4.1079999999999997</v>
       </c>
-      <c r="P30" s="51"/>
+      <c r="P30" s="55"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="40">
@@ -11318,7 +11363,7 @@
         <v>81.751524956287</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="40">
         <v>0.50833333333499997</v>
       </c>
@@ -11338,7 +11383,7 @@
         <v>240.04494272865</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="40">
         <v>8.1273675617759995</v>
       </c>
@@ -11358,7 +11403,7 @@
         <v>101.786364776827</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="40">
         <v>0.406666666668</v>
       </c>
@@ -11378,7 +11423,7 @@
         <v>134.05761535420999</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="40">
         <v>0.406666666668</v>
       </c>
@@ -11398,7 +11443,7 @@
         <v>135.39656674438999</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="40">
         <v>0.50833333333499997</v>
       </c>
@@ -11418,7 +11463,7 @@
         <v>153.03032980178801</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="42"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -11426,7 +11471,7 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="44">
         <v>4.5390360000000003</v>
       </c>
@@ -11448,8 +11493,11 @@
       <c r="H103" s="46">
         <v>408.07240000000002</v>
       </c>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I103" s="47">
+        <v>803.87709985159097</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="43">
         <v>7.9502920000000001</v>
       </c>
@@ -11471,8 +11519,11 @@
       <c r="H104" s="46">
         <v>322.71519999999998</v>
       </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I104" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="43">
         <v>1.5582290000000001</v>
       </c>
@@ -11494,8 +11545,11 @@
       <c r="H105" s="46">
         <v>63.251010000000001</v>
       </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I105" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="43">
         <v>22</v>
       </c>
@@ -11517,8 +11571,11 @@
       <c r="H106" s="46">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I106" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="43">
         <v>78</v>
       </c>
@@ -11539,6 +11596,9 @@
       </c>
       <c r="H107" s="46">
         <v>6</v>
+      </c>
+      <c r="I107" s="47">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11661,12 +11721,12 @@
       <c r="E5" s="27">
         <v>142.342376906608</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="27">
@@ -35273,19 +35333,19 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="53"/>
+      <c r="A108" s="57"/>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="53"/>
+      <c r="A109" s="57"/>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="53"/>
+      <c r="A110" s="57"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="53"/>
+      <c r="A111" s="57"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="53"/>
+      <c r="A112" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
